--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A11FAA6-C67F-4A77-9277-27862A8FA0F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F61252-A472-48AC-8D48-1DD3D3AE22DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <sheet name="23" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$C$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$408</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="674">
   <si>
     <t>Medium</t>
   </si>
@@ -2034,9 +2034,6 @@
     <t>O,X fill up</t>
   </si>
   <si>
-    <t>Desing</t>
-  </si>
-  <si>
     <t>two pointer technique</t>
   </si>
   <si>
@@ -2071,6 +2068,12 @@
   </si>
   <si>
     <t>prime factorization</t>
+  </si>
+  <si>
+    <t>Data structure design</t>
+  </si>
+  <si>
+    <t>Add and Search Word</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2451,7 @@
   <dimension ref="A1:F408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2461,27 +2464,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f>ROW(A1)</f>
+        <f t="shared" ref="A2:A65" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2492,19 +2495,19 @@
         <v>647</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f>ROW(A2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>673</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>650</v>
@@ -2512,10 +2515,13 @@
       <c r="D3" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="F3" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>ROW(A3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2530,7 +2536,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f>ROW(A4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2545,20 +2551,22 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f>ROW(A5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>657</v>
+      </c>
       <c r="D6" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f>ROW(A6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2573,7 +2581,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f>ROW(A7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2586,7 +2594,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f>ROW(A8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2601,7 +2609,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f>ROW(A9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2616,7 +2624,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f>ROW(A10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2629,7 +2637,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f>ROW(A11)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2642,7 +2650,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f>ROW(A12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2655,7 +2663,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f>ROW(A13)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2668,7 +2676,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f>ROW(A14)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2683,7 +2691,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f>ROW(A15)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2698,7 +2706,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f>ROW(A16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2713,7 +2721,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f>ROW(A17)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2728,7 +2736,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f>ROW(A18)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2743,7 +2751,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f>ROW(A19)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2758,7 +2766,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f>ROW(A20)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2773,7 +2781,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f>ROW(A21)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2788,7 +2796,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f>ROW(A22)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2803,7 +2811,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f>ROW(A23)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2818,7 +2826,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f>ROW(A24)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2833,7 +2841,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f>ROW(A25)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2848,7 +2856,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f>ROW(A26)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2860,7 +2868,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f>ROW(A27)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2875,7 +2883,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f>ROW(A28)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2888,7 +2896,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f>ROW(A29)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2901,7 +2909,7 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f>ROW(A30)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2914,7 +2922,7 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f>ROW(A31)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2927,7 +2935,7 @@
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f>ROW(A32)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2942,7 +2950,7 @@
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f>ROW(A33)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2957,7 +2965,7 @@
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f>ROW(A34)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2972,7 +2980,7 @@
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f>ROW(A35)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2987,7 +2995,7 @@
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f>ROW(A36)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -2999,7 +3007,7 @@
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f>ROW(A37)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3009,7 +3017,7 @@
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f>ROW(A38)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3024,7 +3032,7 @@
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>ROW(A39)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3037,7 +3045,7 @@
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f>ROW(A40)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3052,7 +3060,7 @@
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f>ROW(A41)</f>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3067,7 +3075,7 @@
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f>ROW(A42)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3082,7 +3090,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <f>ROW(A43)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3097,7 +3105,7 @@
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f>ROW(A44)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3110,7 +3118,7 @@
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f>ROW(A45)</f>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3123,7 +3131,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f>ROW(A46)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3138,7 +3146,7 @@
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f>ROW(A47)</f>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3153,7 +3161,7 @@
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f>ROW(A48)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3168,7 +3176,7 @@
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f>ROW(A49)</f>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3183,7 +3191,7 @@
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f>ROW(A50)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3196,7 +3204,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f>ROW(A51)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3211,7 +3219,7 @@
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <f>ROW(A52)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3224,7 +3232,7 @@
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f>ROW(A53)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3234,7 +3242,7 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <f>ROW(A54)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3244,7 +3252,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <f>ROW(A55)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3254,7 +3262,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f>ROW(A56)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3269,7 +3277,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <f>ROW(A57)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3279,7 +3287,7 @@
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <f>ROW(A58)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3289,7 +3297,7 @@
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f>ROW(A59)</f>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3299,7 +3307,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f>ROW(A60)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3311,7 +3319,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f>ROW(A61)</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3321,7 +3329,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f>ROW(A62)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3331,7 +3339,7 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f>ROW(A63)</f>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3341,7 +3349,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f>ROW(A64)</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3351,7 +3359,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f>ROW(A65)</f>
+        <f t="shared" ref="A66:A129" si="1">ROW(A65)</f>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3361,7 +3369,7 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f>ROW(A66)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3371,7 +3379,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f>ROW(A67)</f>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3381,7 +3389,7 @@
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f>ROW(A68)</f>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3391,7 +3399,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f>ROW(A69)</f>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3401,7 +3409,7 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f>ROW(A70)</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3411,7 +3419,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f>ROW(A71)</f>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3426,7 +3434,7 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f>ROW(A72)</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3436,7 +3444,7 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f>ROW(A73)</f>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3446,7 +3454,7 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f>ROW(A74)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3456,7 +3464,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f>ROW(A75)</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3466,7 +3474,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f>ROW(A76)</f>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3481,7 +3489,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f>ROW(A77)</f>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3491,7 +3499,7 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f>ROW(A78)</f>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3501,7 +3509,7 @@
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f>ROW(A79)</f>
+        <f t="shared" si="1"/>
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3511,7 +3519,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <f>ROW(A80)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3526,7 +3534,7 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <f>ROW(A81)</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3536,7 +3544,7 @@
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f>ROW(A82)</f>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3546,7 +3554,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f>ROW(A83)</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3556,7 +3564,7 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f>ROW(A84)</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3566,7 +3574,7 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <f>ROW(A85)</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3576,7 +3584,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <f>ROW(A86)</f>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3586,7 +3594,7 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <f>ROW(A87)</f>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3596,7 +3604,7 @@
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <f>ROW(A88)</f>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3606,7 +3614,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <f>ROW(A89)</f>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3615,7 +3623,7 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <f>ROW(A90)</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3625,7 +3633,7 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <f>ROW(A91)</f>
+        <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3635,7 +3643,7 @@
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <f>ROW(A92)</f>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3645,7 +3653,7 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <f>ROW(A93)</f>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3655,7 +3663,7 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <f>ROW(A94)</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3665,7 +3673,7 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <f>ROW(A95)</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3675,7 +3683,7 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <f>ROW(A96)</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3685,7 +3693,7 @@
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <f>ROW(A97)</f>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3695,7 +3703,7 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <f>ROW(A98)</f>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3705,7 +3713,7 @@
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <f>ROW(A99)</f>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3715,7 +3723,7 @@
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <f>ROW(A100)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3725,7 +3733,7 @@
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <f>ROW(A101)</f>
+        <f t="shared" si="1"/>
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3735,7 +3743,7 @@
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <f>ROW(A102)</f>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3750,7 +3758,7 @@
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <f>ROW(A103)</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3760,7 +3768,7 @@
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <f>ROW(A104)</f>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3770,7 +3778,7 @@
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <f>ROW(A105)</f>
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3780,7 +3788,7 @@
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <f>ROW(A106)</f>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3790,7 +3798,7 @@
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <f>ROW(A107)</f>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3800,7 +3808,7 @@
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <f>ROW(A108)</f>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3810,7 +3818,7 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <f>ROW(A109)</f>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3820,7 +3828,7 @@
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <f>ROW(A110)</f>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3830,7 +3838,7 @@
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <f>ROW(A111)</f>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3840,7 +3848,7 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <f>ROW(A112)</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3850,7 +3858,7 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <f>ROW(A113)</f>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3860,7 +3868,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <f>ROW(A114)</f>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3870,7 +3878,7 @@
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <f>ROW(A115)</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3880,7 +3888,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <f>ROW(A116)</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3890,7 +3898,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <f>ROW(A117)</f>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3900,7 +3908,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <f>ROW(A118)</f>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3910,7 +3918,7 @@
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <f>ROW(A119)</f>
+        <f t="shared" si="1"/>
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -3925,7 +3933,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <f>ROW(A120)</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -3937,7 +3945,7 @@
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <f>ROW(A121)</f>
+        <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -3947,7 +3955,7 @@
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <f>ROW(A122)</f>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -3959,7 +3967,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <f>ROW(A123)</f>
+        <f t="shared" si="1"/>
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -3969,7 +3977,7 @@
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <f>ROW(A124)</f>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -3979,7 +3987,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <f>ROW(A125)</f>
+        <f t="shared" si="1"/>
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -3989,7 +3997,7 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <f>ROW(A126)</f>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -3999,7 +4007,7 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <f>ROW(A127)</f>
+        <f t="shared" si="1"/>
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -4009,7 +4017,7 @@
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <f>ROW(A128)</f>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -4019,7 +4027,7 @@
     </row>
     <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <f>ROW(A129)</f>
+        <f t="shared" ref="A130:A193" si="2">ROW(A129)</f>
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -4029,7 +4037,7 @@
     </row>
     <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <f>ROW(A130)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4039,7 +4047,7 @@
     </row>
     <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <f>ROW(A131)</f>
+        <f t="shared" si="2"/>
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4049,7 +4057,7 @@
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <f>ROW(A132)</f>
+        <f t="shared" si="2"/>
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4059,7 +4067,7 @@
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <f>ROW(A133)</f>
+        <f t="shared" si="2"/>
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4069,7 +4077,7 @@
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <f>ROW(A134)</f>
+        <f t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -4079,7 +4087,7 @@
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <f>ROW(A135)</f>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4089,7 +4097,7 @@
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <f>ROW(A136)</f>
+        <f t="shared" si="2"/>
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4099,7 +4107,7 @@
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <f>ROW(A137)</f>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4109,7 +4117,7 @@
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <f>ROW(A138)</f>
+        <f t="shared" si="2"/>
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4119,7 +4127,7 @@
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <f>ROW(A139)</f>
+        <f t="shared" si="2"/>
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -4129,7 +4137,7 @@
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <f>ROW(A140)</f>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4139,7 +4147,7 @@
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <f>ROW(A141)</f>
+        <f t="shared" si="2"/>
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4149,7 +4157,7 @@
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <f>ROW(A142)</f>
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4159,7 +4167,7 @@
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <f>ROW(A143)</f>
+        <f t="shared" si="2"/>
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4169,7 +4177,7 @@
     </row>
     <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <f>ROW(A144)</f>
+        <f t="shared" si="2"/>
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4179,7 +4187,7 @@
     </row>
     <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <f>ROW(A145)</f>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4189,7 +4197,7 @@
     </row>
     <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <f>ROW(A146)</f>
+        <f t="shared" si="2"/>
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4199,7 +4207,7 @@
     </row>
     <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <f>ROW(A147)</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4209,7 +4217,7 @@
     </row>
     <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <f>ROW(A148)</f>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -4219,7 +4227,7 @@
     </row>
     <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <f>ROW(A149)</f>
+        <f t="shared" si="2"/>
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4229,7 +4237,7 @@
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <f>ROW(A150)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4239,7 +4247,7 @@
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <f>ROW(A151)</f>
+        <f t="shared" si="2"/>
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4249,7 +4257,7 @@
     </row>
     <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <f>ROW(A152)</f>
+        <f t="shared" si="2"/>
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4261,7 +4269,7 @@
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <f>ROW(A153)</f>
+        <f t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -4271,7 +4279,7 @@
     </row>
     <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <f>ROW(A154)</f>
+        <f t="shared" si="2"/>
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4281,7 +4289,7 @@
     </row>
     <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <f>ROW(A155)</f>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -4291,7 +4299,7 @@
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <f>ROW(A156)</f>
+        <f t="shared" si="2"/>
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -4301,7 +4309,7 @@
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <f>ROW(A157)</f>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4311,7 +4319,7 @@
     </row>
     <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <f>ROW(A158)</f>
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -4321,7 +4329,7 @@
     </row>
     <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <f>ROW(A159)</f>
+        <f t="shared" si="2"/>
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -4331,7 +4339,7 @@
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f>ROW(A160)</f>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -4343,7 +4351,7 @@
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <f>ROW(A161)</f>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -4355,7 +4363,7 @@
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <f>ROW(A162)</f>
+        <f t="shared" si="2"/>
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4365,7 +4373,7 @@
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <f>ROW(A163)</f>
+        <f t="shared" si="2"/>
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -4375,7 +4383,7 @@
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <f>ROW(A164)</f>
+        <f t="shared" si="2"/>
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4385,7 +4393,7 @@
     </row>
     <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <f>ROW(A165)</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -4395,7 +4403,7 @@
     </row>
     <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <f>ROW(A166)</f>
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -4405,7 +4413,7 @@
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <f>ROW(A167)</f>
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -4415,7 +4423,7 @@
     </row>
     <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <f>ROW(A168)</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -4425,7 +4433,7 @@
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <f>ROW(A169)</f>
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -4435,7 +4443,7 @@
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <f>ROW(A170)</f>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4445,7 +4453,7 @@
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <f>ROW(A171)</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -4455,7 +4463,7 @@
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <f>ROW(A172)</f>
+        <f t="shared" si="2"/>
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -4465,7 +4473,7 @@
     </row>
     <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <f>ROW(A173)</f>
+        <f t="shared" si="2"/>
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -4475,7 +4483,7 @@
     </row>
     <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <f>ROW(A174)</f>
+        <f t="shared" si="2"/>
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -4485,7 +4493,7 @@
     </row>
     <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <f>ROW(A175)</f>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -4495,7 +4503,7 @@
     </row>
     <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <f>ROW(A176)</f>
+        <f t="shared" si="2"/>
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -4507,7 +4515,7 @@
     </row>
     <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <f>ROW(A177)</f>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -4517,7 +4525,7 @@
     </row>
     <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <f>ROW(A178)</f>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -4527,7 +4535,7 @@
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <f>ROW(A179)</f>
+        <f t="shared" si="2"/>
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -4537,7 +4545,7 @@
     </row>
     <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <f>ROW(A180)</f>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -4547,7 +4555,7 @@
     </row>
     <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <f>ROW(A181)</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -4557,7 +4565,7 @@
     </row>
     <row r="183" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <f>ROW(A182)</f>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -4567,7 +4575,7 @@
     </row>
     <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <f>ROW(A183)</f>
+        <f t="shared" si="2"/>
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -4579,7 +4587,7 @@
     </row>
     <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <f>ROW(A184)</f>
+        <f t="shared" si="2"/>
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4589,7 +4597,7 @@
     </row>
     <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <f>ROW(A185)</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -4599,19 +4607,19 @@
     </row>
     <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <f>ROW(A186)</f>
+        <f t="shared" si="2"/>
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <f>ROW(A187)</f>
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -4623,7 +4631,7 @@
     </row>
     <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <f>ROW(A188)</f>
+        <f t="shared" si="2"/>
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -4635,7 +4643,7 @@
     </row>
     <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <f>ROW(A189)</f>
+        <f t="shared" si="2"/>
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -4647,7 +4655,7 @@
     </row>
     <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <f>ROW(A190)</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -4657,7 +4665,7 @@
     </row>
     <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <f>ROW(A191)</f>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -4667,7 +4675,7 @@
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <f>ROW(A192)</f>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -4677,7 +4685,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <f>ROW(A193)</f>
+        <f t="shared" ref="A194:A257" si="3">ROW(A193)</f>
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -4687,7 +4695,7 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <f>ROW(A194)</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -4699,7 +4707,7 @@
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <f>ROW(A195)</f>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -4709,7 +4717,7 @@
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <f>ROW(A196)</f>
+        <f t="shared" si="3"/>
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -4719,7 +4727,7 @@
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <f>ROW(A197)</f>
+        <f t="shared" si="3"/>
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -4729,7 +4737,7 @@
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <f>ROW(A198)</f>
+        <f t="shared" si="3"/>
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -4739,7 +4747,7 @@
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <f>ROW(A199)</f>
+        <f t="shared" si="3"/>
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -4749,7 +4757,7 @@
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <f>ROW(A200)</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -4759,7 +4767,7 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <f>ROW(A201)</f>
+        <f t="shared" si="3"/>
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -4769,7 +4777,7 @@
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <f>ROW(A202)</f>
+        <f t="shared" si="3"/>
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -4784,14 +4792,14 @@
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <f>ROW(A203)</f>
+        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>619</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D204" t="s">
         <v>647</v>
@@ -4799,7 +4807,7 @@
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <f>ROW(A204)</f>
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -4811,7 +4819,7 @@
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <f>ROW(A205)</f>
+        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -4824,7 +4832,7 @@
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <f>ROW(A206)</f>
+        <f t="shared" si="3"/>
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -4837,7 +4845,7 @@
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <f>ROW(A207)</f>
+        <f t="shared" si="3"/>
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -4849,7 +4857,7 @@
     </row>
     <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <f>ROW(A208)</f>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -4861,7 +4869,7 @@
     </row>
     <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <f>ROW(A209)</f>
+        <f t="shared" si="3"/>
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -4871,7 +4879,7 @@
     </row>
     <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <f>ROW(A210)</f>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -4881,7 +4889,7 @@
     </row>
     <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <f>ROW(A211)</f>
+        <f t="shared" si="3"/>
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -4891,7 +4899,7 @@
     </row>
     <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <f>ROW(A212)</f>
+        <f t="shared" si="3"/>
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -4901,7 +4909,7 @@
     </row>
     <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <f>ROW(A213)</f>
+        <f t="shared" si="3"/>
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -4911,7 +4919,7 @@
     </row>
     <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <f>ROW(A214)</f>
+        <f t="shared" si="3"/>
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -4923,7 +4931,7 @@
     </row>
     <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <f>ROW(A215)</f>
+        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -4935,7 +4943,7 @@
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <f>ROW(A216)</f>
+        <f t="shared" si="3"/>
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -4945,7 +4953,7 @@
     </row>
     <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <f>ROW(A217)</f>
+        <f t="shared" si="3"/>
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -4955,7 +4963,7 @@
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <f>ROW(A218)</f>
+        <f t="shared" si="3"/>
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -4967,7 +4975,7 @@
     </row>
     <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <f>ROW(A219)</f>
+        <f t="shared" si="3"/>
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -4979,7 +4987,7 @@
     </row>
     <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <f>ROW(A220)</f>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -4991,7 +4999,7 @@
     </row>
     <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <f>ROW(A221)</f>
+        <f t="shared" si="3"/>
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -5003,7 +5011,7 @@
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <f>ROW(A222)</f>
+        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -5013,7 +5021,7 @@
     </row>
     <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <f>ROW(A223)</f>
+        <f t="shared" si="3"/>
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -5023,7 +5031,7 @@
     </row>
     <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f>ROW(A224)</f>
+        <f t="shared" si="3"/>
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -5033,7 +5041,7 @@
     </row>
     <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <f>ROW(A225)</f>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -5043,7 +5051,7 @@
     </row>
     <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <f>ROW(A226)</f>
+        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -5053,7 +5061,7 @@
     </row>
     <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <f>ROW(A227)</f>
+        <f t="shared" si="3"/>
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -5063,7 +5071,7 @@
     </row>
     <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <f>ROW(A228)</f>
+        <f t="shared" si="3"/>
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -5073,7 +5081,7 @@
     </row>
     <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <f>ROW(A229)</f>
+        <f t="shared" si="3"/>
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -5085,7 +5093,7 @@
     </row>
     <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <f>ROW(A230)</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -5095,7 +5103,7 @@
     </row>
     <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <f>ROW(A231)</f>
+        <f t="shared" si="3"/>
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -5105,7 +5113,7 @@
     </row>
     <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <f>ROW(A232)</f>
+        <f t="shared" si="3"/>
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -5117,7 +5125,7 @@
     </row>
     <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <f>ROW(A233)</f>
+        <f t="shared" si="3"/>
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -5127,7 +5135,7 @@
     </row>
     <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <f>ROW(A234)</f>
+        <f t="shared" si="3"/>
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -5139,7 +5147,7 @@
     </row>
     <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <f>ROW(A235)</f>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -5151,7 +5159,7 @@
     </row>
     <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <f>ROW(A236)</f>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -5161,7 +5169,7 @@
     </row>
     <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <f>ROW(A237)</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -5171,7 +5179,7 @@
     </row>
     <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <f>ROW(A238)</f>
+        <f t="shared" si="3"/>
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -5181,7 +5189,7 @@
     </row>
     <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <f>ROW(A239)</f>
+        <f t="shared" si="3"/>
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -5191,7 +5199,7 @@
     </row>
     <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <f>ROW(A240)</f>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -5203,7 +5211,7 @@
     </row>
     <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <f>ROW(A241)</f>
+        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -5215,7 +5223,7 @@
     </row>
     <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <f>ROW(A242)</f>
+        <f t="shared" si="3"/>
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -5227,7 +5235,7 @@
     </row>
     <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <f>ROW(A243)</f>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -5237,7 +5245,7 @@
     </row>
     <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <f>ROW(A244)</f>
+        <f t="shared" si="3"/>
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -5249,7 +5257,7 @@
     </row>
     <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <f>ROW(A245)</f>
+        <f t="shared" si="3"/>
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -5259,7 +5267,7 @@
     </row>
     <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <f>ROW(A246)</f>
+        <f t="shared" si="3"/>
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -5269,7 +5277,7 @@
     </row>
     <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <f>ROW(A247)</f>
+        <f t="shared" si="3"/>
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -5279,7 +5287,7 @@
     </row>
     <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <f>ROW(A248)</f>
+        <f t="shared" si="3"/>
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -5289,7 +5297,7 @@
     </row>
     <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <f>ROW(A249)</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -5299,7 +5307,7 @@
     </row>
     <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <f>ROW(A250)</f>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -5309,7 +5317,7 @@
     </row>
     <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <f>ROW(A251)</f>
+        <f t="shared" si="3"/>
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -5321,7 +5329,7 @@
     </row>
     <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <f>ROW(A252)</f>
+        <f t="shared" si="3"/>
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -5331,7 +5339,7 @@
     </row>
     <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <f>ROW(A253)</f>
+        <f t="shared" si="3"/>
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -5341,7 +5349,7 @@
     </row>
     <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <f>ROW(A254)</f>
+        <f t="shared" si="3"/>
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -5351,7 +5359,7 @@
     </row>
     <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <f>ROW(A255)</f>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -5363,7 +5371,7 @@
     </row>
     <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <f>ROW(A256)</f>
+        <f t="shared" si="3"/>
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -5373,7 +5381,7 @@
     </row>
     <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <f>ROW(A257)</f>
+        <f t="shared" ref="A258:A321" si="4">ROW(A257)</f>
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -5383,7 +5391,7 @@
     </row>
     <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f>ROW(A258)</f>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -5393,7 +5401,7 @@
     </row>
     <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f>ROW(A259)</f>
+        <f t="shared" si="4"/>
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -5403,7 +5411,7 @@
     </row>
     <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f>ROW(A260)</f>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -5413,7 +5421,7 @@
     </row>
     <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <f>ROW(A261)</f>
+        <f t="shared" si="4"/>
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -5423,7 +5431,7 @@
     </row>
     <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <f>ROW(A262)</f>
+        <f t="shared" si="4"/>
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -5433,7 +5441,7 @@
     </row>
     <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <f>ROW(A263)</f>
+        <f t="shared" si="4"/>
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -5443,7 +5451,7 @@
     </row>
     <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <f>ROW(A264)</f>
+        <f t="shared" si="4"/>
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -5455,7 +5463,7 @@
     </row>
     <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <f>ROW(A265)</f>
+        <f t="shared" si="4"/>
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -5467,7 +5475,7 @@
     </row>
     <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f>ROW(A266)</f>
+        <f t="shared" si="4"/>
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -5477,7 +5485,7 @@
     </row>
     <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f>ROW(A267)</f>
+        <f t="shared" si="4"/>
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -5487,7 +5495,7 @@
     </row>
     <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <f>ROW(A268)</f>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -5499,7 +5507,7 @@
     </row>
     <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <f>ROW(A269)</f>
+        <f t="shared" si="4"/>
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -5511,7 +5519,7 @@
     </row>
     <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <f>ROW(A270)</f>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -5521,7 +5529,7 @@
     </row>
     <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <f>ROW(A271)</f>
+        <f t="shared" si="4"/>
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -5531,7 +5539,7 @@
     </row>
     <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <f>ROW(A272)</f>
+        <f t="shared" si="4"/>
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -5541,7 +5549,7 @@
     </row>
     <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <f>ROW(A273)</f>
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -5551,7 +5559,7 @@
     </row>
     <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f>ROW(A274)</f>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -5563,7 +5571,7 @@
     </row>
     <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f>ROW(A275)</f>
+        <f t="shared" si="4"/>
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -5573,7 +5581,7 @@
     </row>
     <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <f>ROW(A276)</f>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -5585,7 +5593,7 @@
     </row>
     <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <f>ROW(A277)</f>
+        <f t="shared" si="4"/>
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -5597,7 +5605,7 @@
     </row>
     <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <f>ROW(A278)</f>
+        <f t="shared" si="4"/>
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -5609,19 +5617,19 @@
     </row>
     <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <f>ROW(A279)</f>
+        <f t="shared" si="4"/>
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <f>ROW(A280)</f>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -5633,7 +5641,7 @@
     </row>
     <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <f>ROW(A281)</f>
+        <f t="shared" si="4"/>
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -5643,7 +5651,7 @@
     </row>
     <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f>ROW(A282)</f>
+        <f t="shared" si="4"/>
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -5655,7 +5663,7 @@
     </row>
     <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f>ROW(A283)</f>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -5667,7 +5675,7 @@
     </row>
     <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <f>ROW(A284)</f>
+        <f t="shared" si="4"/>
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -5677,7 +5685,7 @@
     </row>
     <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <f>ROW(A285)</f>
+        <f t="shared" si="4"/>
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -5687,19 +5695,19 @@
     </row>
     <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <f>ROW(A286)</f>
+        <f t="shared" si="4"/>
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <f>ROW(A287)</f>
+        <f t="shared" si="4"/>
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -5709,7 +5717,7 @@
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <f>ROW(A288)</f>
+        <f t="shared" si="4"/>
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -5721,7 +5729,7 @@
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <f>ROW(A289)</f>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -5733,7 +5741,7 @@
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <f>ROW(A290)</f>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -5743,7 +5751,7 @@
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <f>ROW(A291)</f>
+        <f t="shared" si="4"/>
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -5753,7 +5761,7 @@
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <f>ROW(A292)</f>
+        <f t="shared" si="4"/>
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -5763,19 +5771,19 @@
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <f>ROW(A293)</f>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <f>ROW(A294)</f>
+        <f t="shared" si="4"/>
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -5787,7 +5795,7 @@
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <f>ROW(A295)</f>
+        <f t="shared" si="4"/>
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -5799,7 +5807,7 @@
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <f>ROW(A296)</f>
+        <f t="shared" si="4"/>
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -5811,7 +5819,7 @@
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <f>ROW(A297)</f>
+        <f t="shared" si="4"/>
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -5824,7 +5832,7 @@
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <f>ROW(A298)</f>
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -5834,7 +5842,7 @@
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <f>ROW(A299)</f>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -5844,7 +5852,7 @@
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <f>ROW(A300)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -5856,7 +5864,7 @@
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <f>ROW(A301)</f>
+        <f t="shared" si="4"/>
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -5868,7 +5876,7 @@
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <f>ROW(A302)</f>
+        <f t="shared" si="4"/>
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -5880,7 +5888,7 @@
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <f>ROW(A303)</f>
+        <f t="shared" si="4"/>
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -5890,7 +5898,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <f>ROW(A304)</f>
+        <f t="shared" si="4"/>
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -5902,7 +5910,7 @@
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <f>ROW(A305)</f>
+        <f t="shared" si="4"/>
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -5912,7 +5920,7 @@
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f>ROW(A306)</f>
+        <f t="shared" si="4"/>
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -5921,7 +5929,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f>ROW(A307)</f>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -5933,7 +5941,7 @@
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <f>ROW(A308)</f>
+        <f t="shared" si="4"/>
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -5945,7 +5953,7 @@
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <f>ROW(A309)</f>
+        <f t="shared" si="4"/>
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -5957,7 +5965,7 @@
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <f>ROW(A310)</f>
+        <f t="shared" si="4"/>
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -5967,7 +5975,7 @@
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <f>ROW(A311)</f>
+        <f t="shared" si="4"/>
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -5977,7 +5985,7 @@
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <f>ROW(A312)</f>
+        <f t="shared" si="4"/>
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -5989,7 +5997,7 @@
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <f>ROW(A313)</f>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -5999,7 +6007,7 @@
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <f>ROW(A314)</f>
+        <f t="shared" si="4"/>
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -6014,7 +6022,7 @@
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <f>ROW(A315)</f>
+        <f t="shared" si="4"/>
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -6026,7 +6034,7 @@
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <f>ROW(A316)</f>
+        <f t="shared" si="4"/>
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -6036,7 +6044,7 @@
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <f>ROW(A317)</f>
+        <f t="shared" si="4"/>
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -6048,7 +6056,7 @@
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <f>ROW(A318)</f>
+        <f t="shared" si="4"/>
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -6060,7 +6068,7 @@
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <f>ROW(A319)</f>
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -6070,7 +6078,7 @@
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <f>ROW(A320)</f>
+        <f t="shared" si="4"/>
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -6080,7 +6088,7 @@
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <f>ROW(A321)</f>
+        <f t="shared" ref="A322:A385" si="5">ROW(A321)</f>
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -6090,7 +6098,7 @@
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <f>ROW(A322)</f>
+        <f t="shared" si="5"/>
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -6100,7 +6108,7 @@
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f>ROW(A323)</f>
+        <f t="shared" si="5"/>
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -6115,7 +6123,7 @@
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <f>ROW(A324)</f>
+        <f t="shared" si="5"/>
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -6127,7 +6135,7 @@
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <f>ROW(A325)</f>
+        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -6137,7 +6145,7 @@
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <f>ROW(A326)</f>
+        <f t="shared" si="5"/>
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -6147,7 +6155,7 @@
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <f>ROW(A327)</f>
+        <f t="shared" si="5"/>
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -6160,7 +6168,7 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <f>ROW(A328)</f>
+        <f t="shared" si="5"/>
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -6172,7 +6180,7 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <f>ROW(A329)</f>
+        <f t="shared" si="5"/>
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -6182,7 +6190,7 @@
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f>ROW(A330)</f>
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -6192,7 +6200,7 @@
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f>ROW(A331)</f>
+        <f t="shared" si="5"/>
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -6202,7 +6210,7 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <f>ROW(A332)</f>
+        <f t="shared" si="5"/>
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -6212,7 +6220,7 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <f>ROW(A333)</f>
+        <f t="shared" si="5"/>
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -6224,7 +6232,7 @@
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f>ROW(A334)</f>
+        <f t="shared" si="5"/>
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -6234,7 +6242,7 @@
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <f>ROW(A335)</f>
+        <f t="shared" si="5"/>
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -6244,7 +6252,7 @@
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <f>ROW(A336)</f>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -6254,7 +6262,7 @@
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <f>ROW(A337)</f>
+        <f t="shared" si="5"/>
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -6264,7 +6272,7 @@
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <f>ROW(A338)</f>
+        <f t="shared" si="5"/>
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -6274,7 +6282,7 @@
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <f>ROW(A339)</f>
+        <f t="shared" si="5"/>
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -6284,7 +6292,7 @@
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <f>ROW(A340)</f>
+        <f t="shared" si="5"/>
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -6296,7 +6304,7 @@
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <f>ROW(A341)</f>
+        <f t="shared" si="5"/>
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -6306,7 +6314,7 @@
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <f>ROW(A342)</f>
+        <f t="shared" si="5"/>
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -6321,7 +6329,7 @@
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <f>ROW(A343)</f>
+        <f t="shared" si="5"/>
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -6333,7 +6341,7 @@
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <f>ROW(A344)</f>
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -6343,7 +6351,7 @@
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <f>ROW(A345)</f>
+        <f t="shared" si="5"/>
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -6353,7 +6361,7 @@
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <f>ROW(A346)</f>
+        <f t="shared" si="5"/>
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -6363,7 +6371,7 @@
     </row>
     <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <f>ROW(A347)</f>
+        <f t="shared" si="5"/>
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -6378,7 +6386,7 @@
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <f>ROW(A348)</f>
+        <f t="shared" si="5"/>
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -6390,7 +6398,7 @@
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <f>ROW(A349)</f>
+        <f t="shared" si="5"/>
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -6400,7 +6408,7 @@
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <f>ROW(A350)</f>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -6410,7 +6418,7 @@
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <f>ROW(A351)</f>
+        <f t="shared" si="5"/>
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -6422,7 +6430,7 @@
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <f>ROW(A352)</f>
+        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -6432,7 +6440,7 @@
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <f>ROW(A353)</f>
+        <f t="shared" si="5"/>
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -6442,7 +6450,7 @@
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <f>ROW(A354)</f>
+        <f t="shared" si="5"/>
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -6452,7 +6460,7 @@
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <f>ROW(A355)</f>
+        <f t="shared" si="5"/>
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -6462,7 +6470,7 @@
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <f>ROW(A356)</f>
+        <f t="shared" si="5"/>
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -6472,7 +6480,7 @@
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <f>ROW(A357)</f>
+        <f t="shared" si="5"/>
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -6482,7 +6490,7 @@
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <f>ROW(A358)</f>
+        <f t="shared" si="5"/>
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -6492,7 +6500,7 @@
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <f>ROW(A359)</f>
+        <f t="shared" si="5"/>
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -6502,7 +6510,7 @@
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <f>ROW(A360)</f>
+        <f t="shared" si="5"/>
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -6512,7 +6520,7 @@
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <f>ROW(A361)</f>
+        <f t="shared" si="5"/>
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -6522,7 +6530,7 @@
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <f>ROW(A362)</f>
+        <f t="shared" si="5"/>
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -6537,7 +6545,7 @@
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <f>ROW(A363)</f>
+        <f t="shared" si="5"/>
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -6547,7 +6555,7 @@
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <f>ROW(A364)</f>
+        <f t="shared" si="5"/>
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -6559,7 +6567,7 @@
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <f>ROW(A365)</f>
+        <f t="shared" si="5"/>
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -6569,7 +6577,7 @@
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <f>ROW(A366)</f>
+        <f t="shared" si="5"/>
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -6581,7 +6589,7 @@
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <f>ROW(A367)</f>
+        <f t="shared" si="5"/>
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -6593,7 +6601,7 @@
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <f>ROW(A368)</f>
+        <f t="shared" si="5"/>
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -6603,7 +6611,7 @@
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <f>ROW(A369)</f>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -6613,7 +6621,7 @@
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f>ROW(A370)</f>
+        <f t="shared" si="5"/>
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -6625,7 +6633,7 @@
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <f>ROW(A371)</f>
+        <f t="shared" si="5"/>
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -6637,7 +6645,7 @@
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <f>ROW(A372)</f>
+        <f t="shared" si="5"/>
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -6650,7 +6658,7 @@
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <f>ROW(A373)</f>
+        <f t="shared" si="5"/>
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -6662,7 +6670,7 @@
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <f>ROW(A374)</f>
+        <f t="shared" si="5"/>
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -6672,7 +6680,7 @@
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <f>ROW(A375)</f>
+        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -6687,7 +6695,7 @@
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <f>ROW(A376)</f>
+        <f t="shared" si="5"/>
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -6702,7 +6710,7 @@
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <f>ROW(A377)</f>
+        <f t="shared" si="5"/>
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -6714,7 +6722,7 @@
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <f>ROW(A378)</f>
+        <f t="shared" si="5"/>
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -6727,7 +6735,7 @@
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <f>ROW(A379)</f>
+        <f t="shared" si="5"/>
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -6740,7 +6748,7 @@
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <f>ROW(A380)</f>
+        <f t="shared" si="5"/>
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -6750,7 +6758,7 @@
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <f>ROW(A381)</f>
+        <f t="shared" si="5"/>
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -6762,7 +6770,7 @@
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <f>ROW(A382)</f>
+        <f t="shared" si="5"/>
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -6772,7 +6780,7 @@
     </row>
     <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <f>ROW(A383)</f>
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -6782,7 +6790,7 @@
     </row>
     <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <f>ROW(A384)</f>
+        <f t="shared" si="5"/>
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -6795,11 +6803,11 @@
     </row>
     <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <f>ROW(A385)</f>
+        <f t="shared" ref="A386:A408" si="6">ROW(A385)</f>
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>649</v>
@@ -6808,19 +6816,19 @@
         <v>647</v>
       </c>
       <c r="E386" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F386" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <f>ROW(A386)</f>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>649</v>
@@ -6829,19 +6837,19 @@
         <v>647</v>
       </c>
       <c r="E387" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F387" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <f>ROW(A387)</f>
+        <f t="shared" si="6"/>
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>649</v>
@@ -6850,15 +6858,15 @@
         <v>647</v>
       </c>
       <c r="E388" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F388" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <f>ROW(A388)</f>
+        <f t="shared" si="6"/>
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -6871,7 +6879,7 @@
     </row>
     <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f>ROW(A389)</f>
+        <f t="shared" si="6"/>
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -6884,7 +6892,7 @@
     </row>
     <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <f>ROW(A390)</f>
+        <f t="shared" si="6"/>
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -6896,7 +6904,7 @@
     </row>
     <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <f>ROW(A391)</f>
+        <f t="shared" si="6"/>
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -6906,7 +6914,7 @@
     </row>
     <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <f>ROW(A392)</f>
+        <f t="shared" si="6"/>
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -6918,7 +6926,7 @@
     </row>
     <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <f>ROW(A393)</f>
+        <f t="shared" si="6"/>
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -6930,7 +6938,7 @@
     </row>
     <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f>ROW(A394)</f>
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -6943,7 +6951,7 @@
     </row>
     <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f>ROW(A395)</f>
+        <f t="shared" si="6"/>
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -6958,7 +6966,7 @@
     </row>
     <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <f>ROW(A396)</f>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -6968,7 +6976,7 @@
     </row>
     <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <f>ROW(A397)</f>
+        <f t="shared" si="6"/>
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -6983,7 +6991,7 @@
     </row>
     <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <f>ROW(A398)</f>
+        <f t="shared" si="6"/>
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -6996,7 +7004,7 @@
     </row>
     <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <f>ROW(A399)</f>
+        <f t="shared" si="6"/>
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -7009,7 +7017,7 @@
     </row>
     <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <f>ROW(A400)</f>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -7019,7 +7027,7 @@
     </row>
     <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <f>ROW(A401)</f>
+        <f t="shared" si="6"/>
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -7029,7 +7037,7 @@
     </row>
     <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <f>ROW(A402)</f>
+        <f t="shared" si="6"/>
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -7039,7 +7047,7 @@
     </row>
     <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <f>ROW(A403)</f>
+        <f t="shared" si="6"/>
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -7049,7 +7057,7 @@
     </row>
     <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <f>ROW(A404)</f>
+        <f t="shared" si="6"/>
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -7059,7 +7067,7 @@
     </row>
     <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <f>ROW(A405)</f>
+        <f t="shared" si="6"/>
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -7071,7 +7079,7 @@
     </row>
     <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <f>ROW(A406)</f>
+        <f t="shared" si="6"/>
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -7086,7 +7094,7 @@
     </row>
     <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <f>ROW(A407)</f>
+        <f t="shared" si="6"/>
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -7098,6 +7106,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F408" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F408">
     <sortCondition ref="B1"/>
   </sortState>

--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F61252-A472-48AC-8D48-1DD3D3AE22DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A86DA02-6FD4-4F9F-AA8B-EF907C11F515}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <sheet name="23" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$411</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1923" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="679">
   <si>
     <t>Medium</t>
   </si>
@@ -2074,6 +2074,21 @@
   </si>
   <si>
     <t>Add and Search Word</t>
+  </si>
+  <si>
+    <t>Two Keys Keyboard    </t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Implement K Stack in a array</t>
+  </si>
+  <si>
+    <t>Reverse Stack</t>
+  </si>
+  <si>
+    <t>Sort Stack using Recursion</t>
   </si>
 </sst>
 </file>
@@ -2448,10 +2463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F408"/>
+  <dimension ref="A1:F411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B416" sqref="B416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2488,17 +2503,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>673</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>650</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>670</v>
+      <c r="F2" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2507,16 +2521,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>650</v>
+        <v>87</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>647</v>
-      </c>
-      <c r="F3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2525,10 +2536,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>311</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>647</v>
@@ -2540,12 +2551,12 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D5" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2555,12 +2566,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2570,12 +2581,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2585,10 +2594,12 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2598,7 +2609,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>594</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>644</v>
@@ -2613,12 +2624,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2628,10 +2637,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2641,10 +2650,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>639</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2654,10 +2663,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>647</v>
       </c>
     </row>
@@ -2667,9 +2676,11 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>480</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D14" s="1" t="s">
         <v>647</v>
       </c>
@@ -2680,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>644</v>
@@ -2695,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>411</v>
+        <v>578</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>644</v>
@@ -2710,7 +2721,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>644</v>
@@ -2725,7 +2736,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>644</v>
@@ -2740,7 +2751,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>602</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>644</v>
@@ -2755,7 +2766,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>618</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>644</v>
@@ -2770,7 +2781,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>644</v>
@@ -2785,7 +2796,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>617</v>
+        <v>262</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>644</v>
@@ -2800,7 +2811,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>262</v>
+        <v>641</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>644</v>
@@ -2815,7 +2826,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>641</v>
+        <v>587</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>644</v>
@@ -2830,10 +2841,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>587</v>
+        <v>329</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>647</v>
@@ -2845,13 +2856,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>329</v>
+        <v>522</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2860,10 +2868,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>522</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2872,11 +2883,9 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
         <v>647</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>263</v>
+        <v>610</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
@@ -2900,7 +2909,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>610</v>
+        <v>508</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
@@ -2913,7 +2922,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>508</v>
+        <v>251</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
@@ -2926,9 +2935,11 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>401</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>647</v>
       </c>
@@ -2939,10 +2950,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>401</v>
+        <v>211</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>647</v>
@@ -2954,10 +2965,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>647</v>
@@ -2969,7 +2980,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>648</v>
@@ -2984,13 +2995,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>476</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2999,11 +3007,9 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -3011,9 +3017,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -3021,11 +3032,9 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>647</v>
       </c>
@@ -3036,9 +3045,11 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>450</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D40" s="1" t="s">
         <v>647</v>
       </c>
@@ -3049,7 +3060,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>644</v>
@@ -3064,7 +3075,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>644</v>
@@ -3079,7 +3090,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>589</v>
+        <v>337</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>644</v>
@@ -3094,11 +3105,9 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
         <v>647</v>
       </c>
@@ -3109,11 +3118,11 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>535</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>647</v>
+      <c r="E45" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3122,11 +3131,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="E46" t="s">
-        <v>652</v>
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3135,10 +3146,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>647</v>
@@ -3150,7 +3161,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>78</v>
+        <v>593</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>644</v>
@@ -3165,10 +3176,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>647</v>
@@ -3180,11 +3191,9 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="s">
         <v>647</v>
       </c>
@@ -3195,9 +3204,11 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C51" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D51" s="1" t="s">
         <v>647</v>
       </c>
@@ -3208,11 +3219,9 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>647</v>
       </c>
@@ -3223,12 +3232,9 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
@@ -3236,7 +3242,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C54" s="1"/>
     </row>
@@ -3246,7 +3252,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>223</v>
       </c>
       <c r="C55" s="1"/>
     </row>
@@ -3256,9 +3262,14 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C56" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
@@ -3266,14 +3277,9 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
@@ -3281,7 +3287,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1"/>
     </row>
@@ -3291,7 +3297,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>243</v>
       </c>
       <c r="C59" s="1"/>
     </row>
@@ -3301,9 +3307,11 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
@@ -3311,11 +3319,9 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
@@ -3323,7 +3329,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>209</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1"/>
     </row>
@@ -3333,7 +3339,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C63" s="1"/>
     </row>
@@ -3343,7 +3349,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="C64" s="1"/>
     </row>
@@ -3353,7 +3359,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>156</v>
+        <v>575</v>
       </c>
       <c r="C65" s="1"/>
     </row>
@@ -3363,7 +3369,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>575</v>
+        <v>328</v>
       </c>
       <c r="C66" s="1"/>
     </row>
@@ -3373,7 +3379,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="C67" s="1"/>
     </row>
@@ -3383,7 +3389,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="C68" s="1"/>
     </row>
@@ -3393,7 +3399,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="C69" s="1"/>
     </row>
@@ -3403,7 +3409,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="C70" s="1"/>
     </row>
@@ -3413,9 +3419,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C71" s="1"/>
+        <v>517</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
@@ -3423,14 +3434,9 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
@@ -3438,7 +3444,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C73" s="1"/>
     </row>
@@ -3448,7 +3454,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C74" s="1"/>
     </row>
@@ -3458,7 +3464,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="C75" s="1"/>
     </row>
@@ -3468,9 +3474,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
@@ -3478,14 +3489,9 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
@@ -3493,7 +3499,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>494</v>
+        <v>383</v>
       </c>
       <c r="C78" s="1"/>
     </row>
@@ -3503,7 +3509,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>383</v>
+        <v>598</v>
       </c>
       <c r="C79" s="1"/>
     </row>
@@ -3513,171 +3519,171 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>422</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>162</v>
+        <v>562</v>
       </c>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>562</v>
+        <v>127</v>
       </c>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>415</v>
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>415</v>
+        <v>142</v>
       </c>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
+        <v>478</v>
       </c>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>478</v>
+        <v>241</v>
       </c>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>303</v>
+        <v>633</v>
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>631</v>
+        <v>153</v>
       </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>258</v>
+        <v>336</v>
       </c>
       <c r="C96" s="1"/>
     </row>
@@ -3687,7 +3693,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>336</v>
+        <v>187</v>
       </c>
       <c r="C97" s="1"/>
     </row>
@@ -3697,7 +3703,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>187</v>
+        <v>513</v>
       </c>
       <c r="C98" s="1"/>
     </row>
@@ -3707,7 +3713,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>513</v>
+        <v>85</v>
       </c>
       <c r="C99" s="1"/>
     </row>
@@ -3717,7 +3723,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>281</v>
       </c>
       <c r="C100" s="1"/>
     </row>
@@ -3727,7 +3733,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="C101" s="1"/>
     </row>
@@ -3737,9 +3743,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
@@ -3747,14 +3758,9 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
@@ -3762,7 +3768,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>146</v>
+        <v>253</v>
       </c>
       <c r="C104" s="1"/>
     </row>
@@ -3772,7 +3778,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>253</v>
+        <v>509</v>
       </c>
       <c r="C105" s="1"/>
     </row>
@@ -3782,7 +3788,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>509</v>
+        <v>165</v>
       </c>
       <c r="C106" s="1"/>
     </row>
@@ -3792,7 +3798,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="C107" s="1"/>
     </row>
@@ -3802,7 +3808,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="C108" s="1"/>
     </row>
@@ -3812,7 +3818,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>34</v>
+        <v>626</v>
       </c>
       <c r="C109" s="1"/>
     </row>
@@ -3822,7 +3828,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C110" s="1"/>
     </row>
@@ -3832,7 +3838,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C111" s="1"/>
     </row>
@@ -3842,7 +3848,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>629</v>
+        <v>82</v>
       </c>
       <c r="C112" s="1"/>
     </row>
@@ -3852,7 +3858,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C113" s="1"/>
     </row>
@@ -3862,7 +3868,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="C114" s="1"/>
     </row>
@@ -3872,7 +3878,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>32</v>
+        <v>386</v>
       </c>
       <c r="C115" s="1"/>
     </row>
@@ -3882,7 +3888,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="C116" s="1"/>
     </row>
@@ -3892,7 +3898,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>440</v>
+        <v>548</v>
       </c>
       <c r="C117" s="1"/>
     </row>
@@ -3902,7 +3908,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>548</v>
+        <v>65</v>
       </c>
       <c r="C118" s="1"/>
     </row>
@@ -3912,9 +3918,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C119" s="1"/>
+        <v>597</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D119" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
@@ -3922,13 +3933,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>597</v>
+        <v>414</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="D120" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3937,11 +3945,9 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
@@ -3949,9 +3955,11 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C122" s="1"/>
+        <v>394</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
@@ -3959,11 +3967,9 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>650</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
@@ -3971,7 +3977,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>369</v>
+        <v>280</v>
       </c>
       <c r="C124" s="1"/>
     </row>
@@ -3981,7 +3987,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="C125" s="1"/>
     </row>
@@ -3991,7 +3997,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>205</v>
+        <v>484</v>
       </c>
       <c r="C126" s="1"/>
     </row>
@@ -4001,7 +4007,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>484</v>
+        <v>115</v>
       </c>
       <c r="C127" s="1"/>
     </row>
@@ -4011,7 +4017,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C128" s="1"/>
     </row>
@@ -4021,7 +4027,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="C129" s="1"/>
     </row>
@@ -4031,7 +4037,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>273</v>
+        <v>70</v>
       </c>
       <c r="C130" s="1"/>
     </row>
@@ -4041,7 +4047,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>70</v>
+        <v>347</v>
       </c>
       <c r="C131" s="1"/>
     </row>
@@ -4051,7 +4057,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="C132" s="1"/>
     </row>
@@ -4061,7 +4067,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="C133" s="1"/>
     </row>
@@ -4071,7 +4077,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C134" s="1"/>
     </row>
@@ -4081,7 +4087,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="C135" s="1"/>
     </row>
@@ -4091,7 +4097,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>272</v>
+        <v>574</v>
       </c>
       <c r="C136" s="1"/>
     </row>
@@ -4101,7 +4107,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>574</v>
+        <v>495</v>
       </c>
       <c r="C137" s="1"/>
     </row>
@@ -4111,7 +4117,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>495</v>
+        <v>444</v>
       </c>
       <c r="C138" s="1"/>
     </row>
@@ -4121,7 +4127,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="C139" s="1"/>
     </row>
@@ -4131,7 +4137,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>553</v>
+        <v>492</v>
       </c>
       <c r="C140" s="1"/>
     </row>
@@ -4141,7 +4147,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>492</v>
+        <v>291</v>
       </c>
       <c r="C141" s="1"/>
     </row>
@@ -4151,7 +4157,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C142" s="1"/>
     </row>
@@ -4161,7 +4167,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>294</v>
+        <v>491</v>
       </c>
       <c r="C143" s="1"/>
     </row>
@@ -4171,7 +4177,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>491</v>
+        <v>29</v>
       </c>
       <c r="C144" s="1"/>
     </row>
@@ -4181,7 +4187,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C145" s="1"/>
     </row>
@@ -4191,7 +4197,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C146" s="1"/>
     </row>
@@ -4201,7 +4207,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C147" s="1"/>
     </row>
@@ -4211,7 +4217,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>145</v>
+        <v>283</v>
       </c>
       <c r="C148" s="1"/>
     </row>
@@ -4221,7 +4227,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="C149" s="1"/>
     </row>
@@ -4231,9 +4237,11 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C150" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
@@ -4241,9 +4249,11 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C151" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
@@ -4251,9 +4261,11 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C152" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
@@ -4261,11 +4273,9 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
@@ -4273,7 +4283,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="C154" s="1"/>
     </row>
@@ -4283,7 +4293,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>63</v>
+        <v>558</v>
       </c>
       <c r="C155" s="1"/>
     </row>
@@ -4293,7 +4303,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="C156" s="1"/>
     </row>
@@ -4303,7 +4313,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>501</v>
+        <v>54</v>
       </c>
       <c r="C157" s="1"/>
     </row>
@@ -4313,7 +4323,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C158" s="1"/>
     </row>
@@ -4323,7 +4333,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>27</v>
+        <v>581</v>
       </c>
       <c r="C159" s="1"/>
     </row>
@@ -4333,9 +4343,11 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C160" s="1"/>
+        <v>628</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
@@ -4343,7 +4355,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>628</v>
+        <v>429</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>645</v>
@@ -4355,11 +4367,9 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
@@ -4367,7 +4377,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="C163" s="1"/>
     </row>
@@ -4377,7 +4387,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="C164" s="1"/>
     </row>
@@ -4387,7 +4397,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>68</v>
+        <v>551</v>
       </c>
       <c r="C165" s="1"/>
     </row>
@@ -4397,7 +4407,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>551</v>
+        <v>416</v>
       </c>
       <c r="C166" s="1"/>
     </row>
@@ -4407,7 +4417,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>416</v>
+        <v>151</v>
       </c>
       <c r="C167" s="1"/>
     </row>
@@ -4417,7 +4427,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="C168" s="1"/>
     </row>
@@ -4427,7 +4437,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="C169" s="1"/>
     </row>
@@ -4437,7 +4447,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>378</v>
+        <v>181</v>
       </c>
       <c r="C170" s="1"/>
     </row>
@@ -4447,7 +4457,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>181</v>
+        <v>323</v>
       </c>
       <c r="C171" s="1"/>
     </row>
@@ -4457,7 +4467,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="C172" s="1"/>
     </row>
@@ -4467,7 +4477,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="C173" s="1"/>
     </row>
@@ -4477,7 +4487,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>190</v>
+        <v>9</v>
       </c>
       <c r="C174" s="1"/>
     </row>
@@ -4487,7 +4497,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C175" s="1"/>
     </row>
@@ -4497,9 +4507,11 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
@@ -4507,11 +4519,9 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
@@ -4519,7 +4529,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="C178" s="1"/>
     </row>
@@ -4529,7 +4539,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="C179" s="1"/>
     </row>
@@ -4539,7 +4549,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>232</v>
+        <v>634</v>
       </c>
       <c r="C180" s="1"/>
     </row>
@@ -4549,7 +4559,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>634</v>
+        <v>569</v>
       </c>
       <c r="C181" s="1"/>
     </row>
@@ -4559,7 +4569,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>569</v>
+        <v>261</v>
       </c>
       <c r="C182" s="1"/>
     </row>
@@ -4569,9 +4579,11 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C183" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
@@ -4579,11 +4591,9 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="C184" s="1"/>
     </row>
     <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
@@ -4591,7 +4601,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>308</v>
+        <v>237</v>
       </c>
       <c r="C185" s="1"/>
     </row>
@@ -4601,9 +4611,11 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C186" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
@@ -4611,10 +4623,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>96</v>
+        <v>265</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4623,7 +4635,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>265</v>
+        <v>615</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>645</v>
@@ -4635,7 +4647,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>615</v>
+        <v>64</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>645</v>
@@ -4647,11 +4659,9 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
@@ -4659,7 +4669,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>368</v>
+        <v>66</v>
       </c>
       <c r="C191" s="1"/>
     </row>
@@ -4669,7 +4679,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>66</v>
+        <v>605</v>
       </c>
       <c r="C192" s="1"/>
     </row>
@@ -4679,7 +4689,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>605</v>
+        <v>174</v>
       </c>
       <c r="C193" s="1"/>
     </row>
@@ -4689,9 +4699,11 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C194" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
@@ -4699,11 +4711,9 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
@@ -4711,7 +4721,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>36</v>
+        <v>293</v>
       </c>
       <c r="C196" s="1"/>
     </row>
@@ -4721,7 +4731,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>293</v>
+        <v>117</v>
       </c>
       <c r="C197" s="1"/>
     </row>
@@ -4731,7 +4741,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>117</v>
+        <v>533</v>
       </c>
       <c r="C198" s="1"/>
     </row>
@@ -4741,7 +4751,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C199" s="1"/>
     </row>
@@ -4751,7 +4761,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="C200" s="1"/>
     </row>
@@ -4761,7 +4771,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>544</v>
+        <v>122</v>
       </c>
       <c r="C201" s="1"/>
     </row>
@@ -4771,9 +4781,14 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C202" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
@@ -4781,12 +4796,12 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>19</v>
+        <v>619</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D203" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D203" t="s">
         <v>647</v>
       </c>
     </row>
@@ -4796,13 +4811,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>619</v>
+        <v>288</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D204" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4811,10 +4823,11 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>646</v>
+        <v>15</v>
+      </c>
+      <c r="C205" s="1"/>
+      <c r="D205" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4823,7 +4836,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>15</v>
+        <v>632</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" t="s">
@@ -4836,11 +4849,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C207" s="1"/>
-      <c r="D207" t="s">
-        <v>647</v>
+        <v>472</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4849,10 +4861,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>472</v>
+        <v>185</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4861,11 +4873,9 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>655</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
@@ -4873,7 +4883,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C210" s="1"/>
     </row>
@@ -4883,7 +4893,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="C211" s="1"/>
     </row>
@@ -4893,7 +4903,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>446</v>
+        <v>256</v>
       </c>
       <c r="C212" s="1"/>
     </row>
@@ -4903,7 +4913,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>256</v>
+        <v>621</v>
       </c>
       <c r="C213" s="1"/>
     </row>
@@ -4913,9 +4923,11 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C214" s="1"/>
+        <v>570</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
@@ -4923,7 +4935,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>570</v>
+        <v>12</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>646</v>
@@ -4935,11 +4947,9 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
@@ -4947,7 +4957,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="C217" s="1"/>
     </row>
@@ -4957,9 +4967,11 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C218" s="1"/>
+        <v>441</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
@@ -4967,7 +4979,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>441</v>
+        <v>588</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>644</v>
@@ -4979,7 +4991,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>588</v>
+        <v>135</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>644</v>
@@ -4991,7 +5003,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>135</v>
+        <v>468</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>644</v>
@@ -5003,11 +5015,9 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="C222" s="1"/>
     </row>
     <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
@@ -5015,7 +5025,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>630</v>
+        <v>159</v>
       </c>
       <c r="C223" s="1"/>
     </row>
@@ -5025,7 +5035,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>159</v>
+        <v>530</v>
       </c>
       <c r="C224" s="1"/>
     </row>
@@ -5035,7 +5045,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="C225" s="1"/>
     </row>
@@ -5045,7 +5055,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="C226" s="1"/>
     </row>
@@ -5055,7 +5065,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="C227" s="1"/>
     </row>
@@ -5065,7 +5075,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>473</v>
+        <v>171</v>
       </c>
       <c r="C228" s="1"/>
     </row>
@@ -5075,9 +5085,11 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C229" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
@@ -5085,11 +5097,9 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
@@ -5097,7 +5107,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
       <c r="C231" s="1"/>
     </row>
@@ -5107,9 +5117,11 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C232" s="1"/>
+        <v>540</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
@@ -5117,11 +5129,9 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C233" s="1"/>
     </row>
     <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
@@ -5129,9 +5139,11 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C234" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
@@ -5139,7 +5151,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>539</v>
+        <v>324</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>645</v>
@@ -5151,10 +5163,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>324</v>
+        <v>627</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5163,7 +5175,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>627</v>
+        <v>125</v>
       </c>
       <c r="C237" s="1"/>
     </row>
@@ -5173,7 +5185,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>125</v>
+        <v>426</v>
       </c>
       <c r="C238" s="1"/>
     </row>
@@ -5183,7 +5195,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>426</v>
+        <v>305</v>
       </c>
       <c r="C239" s="1"/>
     </row>
@@ -5193,9 +5205,11 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C240" s="1"/>
+        <v>529</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
@@ -5203,7 +5217,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>644</v>
@@ -5215,7 +5229,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>595</v>
+        <v>236</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>644</v>
@@ -5227,11 +5241,9 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C243" s="1"/>
     </row>
     <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
@@ -5239,9 +5251,11 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C244" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
@@ -5249,11 +5263,9 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C245" s="1"/>
     </row>
     <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
@@ -5261,7 +5273,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>93</v>
+        <v>561</v>
       </c>
       <c r="C246" s="1"/>
     </row>
@@ -5271,7 +5283,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="C247" s="1"/>
     </row>
@@ -5281,7 +5293,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>4</v>
+        <v>565</v>
       </c>
       <c r="C248" s="1"/>
     </row>
@@ -5291,7 +5303,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>565</v>
+        <v>26</v>
       </c>
       <c r="C249" s="1"/>
     </row>
@@ -5301,7 +5313,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="C250" s="1"/>
     </row>
@@ -5311,9 +5323,11 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C251" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
@@ -5321,11 +5335,9 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="C252" s="1"/>
     </row>
     <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
@@ -5333,7 +5345,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="C253" s="1"/>
     </row>
@@ -5343,7 +5355,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="C254" s="1"/>
     </row>
@@ -5353,9 +5365,11 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C255" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
@@ -5363,11 +5377,9 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="C256" s="1"/>
     </row>
     <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
@@ -5375,7 +5387,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C257" s="1"/>
     </row>
@@ -5385,7 +5397,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>554</v>
+        <v>404</v>
       </c>
       <c r="C258" s="1"/>
     </row>
@@ -5395,7 +5407,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>404</v>
+        <v>89</v>
       </c>
       <c r="C259" s="1"/>
     </row>
@@ -5405,7 +5417,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>89</v>
+        <v>462</v>
       </c>
       <c r="C260" s="1"/>
     </row>
@@ -5415,7 +5427,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>462</v>
+        <v>642</v>
       </c>
       <c r="C261" s="1"/>
     </row>
@@ -5425,7 +5437,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>642</v>
+        <v>173</v>
       </c>
       <c r="C262" s="1"/>
     </row>
@@ -5435,7 +5447,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c r="C263" s="1"/>
     </row>
@@ -5445,9 +5457,11 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C264" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
@@ -5455,10 +5469,10 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>498</v>
+        <v>49</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5467,11 +5481,9 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="C266" s="1"/>
     </row>
     <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
@@ -5479,7 +5491,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C267" s="1"/>
     </row>
@@ -5489,9 +5501,11 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C268" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
@@ -5499,10 +5513,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>18</v>
+        <v>609</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5511,11 +5525,9 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C270" s="1"/>
     </row>
     <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
@@ -5523,7 +5535,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>160</v>
+        <v>485</v>
       </c>
       <c r="C271" s="1"/>
     </row>
@@ -5533,7 +5545,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="C272" s="1"/>
     </row>
@@ -5543,7 +5555,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>455</v>
+        <v>75</v>
       </c>
       <c r="C273" s="1"/>
     </row>
@@ -5553,9 +5565,11 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C274" s="1"/>
+        <v>571</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
@@ -5563,11 +5577,9 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C275" s="1"/>
     </row>
     <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
@@ -5575,9 +5587,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C276" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
@@ -5585,7 +5599,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>644</v>
@@ -5597,7 +5611,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>596</v>
+        <v>83</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>644</v>
@@ -5609,10 +5623,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5621,10 +5635,10 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5633,11 +5647,9 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C281" s="1"/>
     </row>
     <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
@@ -5645,9 +5657,11 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C282" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
@@ -5655,7 +5669,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>644</v>
@@ -5667,11 +5681,9 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C284" s="1"/>
     </row>
     <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
@@ -5679,7 +5691,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>278</v>
+        <v>104</v>
       </c>
       <c r="C285" s="1"/>
     </row>
@@ -5689,9 +5701,11 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C286" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
@@ -5699,11 +5713,9 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C287" s="1"/>
     </row>
     <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
@@ -5711,9 +5723,11 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C288" s="1"/>
+        <v>520</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
@@ -5721,7 +5735,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>651</v>
@@ -5733,11 +5747,9 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>651</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C290" s="1"/>
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
@@ -5745,7 +5757,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="C291" s="1"/>
     </row>
@@ -5755,7 +5767,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C292" s="1"/>
     </row>
@@ -5765,9 +5777,11 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C293" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
@@ -5775,10 +5789,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>194</v>
+        <v>381</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5787,7 +5801,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>644</v>
@@ -5799,7 +5813,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>644</v>
@@ -5811,10 +5825,11 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>644</v>
+        <v>534</v>
+      </c>
+      <c r="C297" s="1"/>
+      <c r="D297" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5823,12 +5838,9 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C298" s="1"/>
-      <c r="D298" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
@@ -5836,7 +5848,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>523</v>
+        <v>43</v>
       </c>
       <c r="C299" s="1"/>
     </row>
@@ -5846,9 +5858,11 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C300" s="1"/>
+        <v>568</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
@@ -5856,7 +5870,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>645</v>
@@ -5868,7 +5882,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>645</v>
@@ -5880,11 +5894,9 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C303" s="1"/>
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
@@ -5892,9 +5904,11 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C304" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
@@ -5902,11 +5916,9 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>643</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C305" s="1"/>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
@@ -5914,9 +5926,8 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C306" s="1"/>
+        <v>393</v>
+      </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
@@ -5924,7 +5935,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>393</v>
+        <v>2</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5933,7 +5947,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>2</v>
+        <v>542</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>645</v>
@@ -5945,10 +5959,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>542</v>
+        <v>107</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5957,11 +5971,9 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>649</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C310" s="1"/>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
@@ -5969,7 +5981,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>623</v>
+        <v>552</v>
       </c>
       <c r="C311" s="1"/>
     </row>
@@ -5979,9 +5991,11 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C312" s="1"/>
+        <v>559</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
@@ -5989,11 +6003,9 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C313" s="1"/>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
@@ -6001,9 +6013,14 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C314" s="1"/>
+        <v>584</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
@@ -6011,13 +6028,10 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>584</v>
+        <v>309</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6026,11 +6040,9 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C316" s="1"/>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
@@ -6038,9 +6050,11 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C317" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
@@ -6048,7 +6062,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>22</v>
+        <v>563</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>646</v>
@@ -6060,11 +6074,9 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C319" s="1"/>
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
@@ -6072,7 +6084,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>189</v>
+        <v>567</v>
       </c>
       <c r="C320" s="1"/>
     </row>
@@ -6082,7 +6094,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>567</v>
+        <v>545</v>
       </c>
       <c r="C321" s="1"/>
     </row>
@@ -6092,7 +6104,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>545</v>
+        <v>51</v>
       </c>
       <c r="C322" s="1"/>
     </row>
@@ -6102,9 +6114,14 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C323" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
@@ -6112,13 +6129,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6127,11 +6141,9 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
@@ -6139,7 +6151,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>296</v>
+        <v>506</v>
       </c>
       <c r="C326" s="1"/>
     </row>
@@ -6149,9 +6161,12 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>506</v>
+        <v>8</v>
       </c>
       <c r="C327" s="1"/>
+      <c r="D327" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
@@ -6159,11 +6174,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C328" s="1"/>
-      <c r="D328" t="s">
-        <v>647</v>
+        <v>505</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6172,11 +6186,9 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C329" s="1"/>
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
@@ -6184,7 +6196,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="C330" s="1"/>
     </row>
@@ -6194,7 +6206,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>128</v>
+        <v>611</v>
       </c>
       <c r="C331" s="1"/>
     </row>
@@ -6204,7 +6216,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>611</v>
+        <v>24</v>
       </c>
       <c r="C332" s="1"/>
     </row>
@@ -6214,9 +6226,11 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C333" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
@@ -6224,11 +6238,9 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C334" s="1"/>
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
@@ -6236,7 +6248,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C335" s="1"/>
     </row>
@@ -6246,7 +6258,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>103</v>
+        <v>351</v>
       </c>
       <c r="C336" s="1"/>
     </row>
@@ -6256,7 +6268,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C337" s="1"/>
     </row>
@@ -6266,7 +6278,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>353</v>
+        <v>152</v>
       </c>
       <c r="C338" s="1"/>
     </row>
@@ -6276,7 +6288,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="C339" s="1"/>
     </row>
@@ -6286,9 +6298,11 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C340" s="1"/>
+        <v>431</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
@@ -6296,11 +6310,9 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C341" s="1"/>
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
@@ -6308,9 +6320,14 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C342" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
@@ -6318,13 +6335,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>313</v>
+        <v>526</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6333,11 +6347,9 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C344" s="1"/>
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
@@ -6345,7 +6357,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C345" s="1"/>
     </row>
@@ -6355,7 +6367,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>355</v>
+        <v>92</v>
       </c>
       <c r="C346" s="1"/>
     </row>
@@ -6365,9 +6377,14 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C347" s="1"/>
+        <v>564</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E347" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
@@ -6375,13 +6392,10 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>564</v>
+        <v>620</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E348" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6390,11 +6404,9 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C349" s="1"/>
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
@@ -6402,7 +6414,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
       <c r="C350" s="1"/>
     </row>
@@ -6412,9 +6424,11 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C351" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
@@ -6422,11 +6436,9 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C352" s="1"/>
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
@@ -6434,7 +6446,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>420</v>
+        <v>507</v>
       </c>
       <c r="C353" s="1"/>
     </row>
@@ -6444,7 +6456,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>507</v>
+        <v>325</v>
       </c>
       <c r="C354" s="1"/>
     </row>
@@ -6454,7 +6466,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c r="C355" s="1"/>
     </row>
@@ -6464,7 +6476,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>168</v>
+        <v>474</v>
       </c>
       <c r="C356" s="1"/>
     </row>
@@ -6474,7 +6486,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>474</v>
+        <v>76</v>
       </c>
       <c r="C357" s="1"/>
     </row>
@@ -6484,7 +6496,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C358" s="1"/>
     </row>
@@ -6494,7 +6506,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>136</v>
+        <v>417</v>
       </c>
       <c r="C359" s="1"/>
     </row>
@@ -6504,7 +6516,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="C360" s="1"/>
     </row>
@@ -6514,7 +6526,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>435</v>
+        <v>543</v>
       </c>
       <c r="C361" s="1"/>
     </row>
@@ -6524,9 +6536,14 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C362" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
@@ -6534,14 +6551,9 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="C363" s="1"/>
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
@@ -6549,9 +6561,11 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C364" s="1"/>
+        <v>282</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
@@ -6559,11 +6573,9 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C365" s="1"/>
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
@@ -6571,9 +6583,11 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C366" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
@@ -6581,7 +6595,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>71</v>
+        <v>464</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>644</v>
@@ -6593,11 +6607,9 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C368" s="1"/>
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
@@ -6605,7 +6617,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C369" s="1"/>
     </row>
@@ -6615,9 +6627,11 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C370" s="1"/>
+        <v>606</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
@@ -6625,10 +6639,10 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>606</v>
+        <v>335</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6637,10 +6651,11 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>648</v>
+        <v>607</v>
+      </c>
+      <c r="C372" s="1"/>
+      <c r="E372" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6649,11 +6664,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C373" s="1"/>
-      <c r="E373" t="s">
-        <v>659</v>
+        <v>541</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6662,11 +6676,9 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C374" s="1"/>
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
@@ -6674,9 +6686,14 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C375" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
@@ -6684,12 +6701,12 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>585</v>
+        <v>399</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D376" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D376" t="s">
         <v>647</v>
       </c>
     </row>
@@ -6699,13 +6716,10 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>399</v>
+        <v>108</v>
       </c>
       <c r="C377" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D377" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6714,10 +6728,11 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>648</v>
+        <v>148</v>
+      </c>
+      <c r="C378" s="1"/>
+      <c r="D378" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6726,7 +6741,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="C379" s="1"/>
       <c r="D379" t="s">
@@ -6739,12 +6754,9 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="C380" s="1"/>
-      <c r="D380" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
@@ -6752,9 +6764,11 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C381" s="1"/>
+        <v>424</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
@@ -6762,11 +6776,9 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C382" s="1"/>
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
@@ -6774,7 +6786,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C383" s="1"/>
     </row>
@@ -6784,9 +6796,12 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>184</v>
+        <v>549</v>
       </c>
       <c r="C384" s="1"/>
+      <c r="D384" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
@@ -6794,11 +6809,19 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C385" s="1"/>
-      <c r="D385" t="s">
+        <v>668</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D385" s="1" t="s">
         <v>647</v>
+      </c>
+      <c r="E385" t="s">
+        <v>660</v>
+      </c>
+      <c r="F385" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6807,7 +6830,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>649</v>
@@ -6828,7 +6851,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>649</v>
@@ -6849,19 +6872,17 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>649</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C388" s="1"/>
       <c r="D388" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E388" t="s">
-        <v>660</v>
-      </c>
-      <c r="F388" t="s">
-        <v>666</v>
+      <c r="E388" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7105,417 +7126,463 @@
         <v>647</v>
       </c>
     </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409" t="s">
+        <v>676</v>
+      </c>
+      <c r="C409" t="s">
+        <v>675</v>
+      </c>
+      <c r="D409" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410" t="s">
+        <v>677</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D410" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>678</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D411" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F408" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}"/>
+  <autoFilter ref="A1:F411" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F408">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F408">
     <sortCondition ref="B1"/>
   </sortState>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="B200" r:id="rId1" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B231" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B199" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B298" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B45" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B387" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B386" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B302" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B235" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B233" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B374" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B309" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B362" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B201" r:id="rId14" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B322" r:id="rId15" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B199" r:id="rId1" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B230" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B198" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B297" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B44" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B386" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B385" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B301" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B234" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B232" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B373" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B308" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B361" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B200" r:id="rId14" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B321" r:id="rId15" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="B394" r:id="rId16" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B364" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B118" r:id="rId18" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B385" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B363" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B117" r:id="rId18" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B384" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="B400" r:id="rId20" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B166" r:id="rId21" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B312" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B140" r:id="rId23" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B258" r:id="rId24" display="https://leetcode.com/problems/n-queens" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B257" r:id="rId25" display="https://leetcode.com/problems/n-queens-ii" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B227" r:id="rId26" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B232" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B156" r:id="rId28" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B313" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B165" r:id="rId21" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B311" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B139" r:id="rId23" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B257" r:id="rId24" display="https://leetcode.com/problems/n-queens" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B256" r:id="rId25" display="https://leetcode.com/problems/n-queens-ii" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B226" r:id="rId26" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B231" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B155" r:id="rId28" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B312" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
     <hyperlink ref="B392" r:id="rId30" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B247" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B84" r:id="rId32" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B319" r:id="rId33" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B348" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B249" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B246" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B83" r:id="rId32" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B318" r:id="rId33" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B347" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B248" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="B407" r:id="rId36" display="https://leetcode.com/problems/word-search" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B321" r:id="rId37" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B301" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B182" r:id="rId39" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B215" r:id="rId40" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B275" r:id="rId41" display="https://leetcode.com/problems/partition-list" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B317" r:id="rId42" display="https://leetcode.com/problems/scramble-string" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B234" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B137" r:id="rId44" display="https://leetcode.com/problems/gray-code" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B66" r:id="rId45" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B306" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B17" r:id="rId47" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B320" r:id="rId37" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B300" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B181" r:id="rId39" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B214" r:id="rId40" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B274" r:id="rId41" display="https://leetcode.com/problems/partition-list" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B316" r:id="rId42" display="https://leetcode.com/problems/scramble-string" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B233" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B136" r:id="rId44" display="https://leetcode.com/problems/gray-code" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B65" r:id="rId45" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B305" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B16" r:id="rId47" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B390" r:id="rId48" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B391" r:id="rId49" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B160" r:id="rId50" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B159" r:id="rId50" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="B396" r:id="rId51" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B297" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B315" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B376" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B18" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B25" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B220" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B43" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B42" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B49" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B10" r:id="rId61" display="https://leetcode.com/problems/balanced-binary-tree" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B242" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B278" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B120" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B80" r:id="rId65" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B284" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B283" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B19" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B296" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B314" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B375" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B17" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B24" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B219" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B42" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B41" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B48" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B9" r:id="rId61" display="https://leetcode.com/problems/balanced-binary-tree" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B241" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B277" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B119" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B79" r:id="rId65" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B283" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B282" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B18" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
     <hyperlink ref="B404" r:id="rId69" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
     <hyperlink ref="B405" r:id="rId70" display="https://leetcode.com/problems/word-ladder" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B193" r:id="rId71" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B371" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B373" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B270" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B30" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B332" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B50" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B192" r:id="rId71" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B370" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B372" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B269" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B29" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B331" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B49" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="B402" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B401" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B189" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B303" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B22" r:id="rId82" display="https://leetcode.com/problems/binary-tree-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B21" r:id="rId83" display="https://leetcode.com/problems/binary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B204" r:id="rId84" display="https://leetcode.com/problems/lru-cache" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B349" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B214" r:id="rId86" display="https://leetcode.com/problems/max-points-on-a-line" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B90" r:id="rId87" display="https://leetcode.com/problems/evaluate-reverse-polish-notation" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B311" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B226" r:id="rId89" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B111" r:id="rId90" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B110" r:id="rId91" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B237" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B161" r:id="rId93" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B112" r:id="rId94" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B223" r:id="rId95" display="https://leetcode.com/problems/maximum-gap" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B93" r:id="rId96" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B207" r:id="rId97" display="https://leetcode.com/problems/majority-element" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B92" r:id="rId98" display="https://leetcode.com/problems/excel-sheet-column-number" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B181" r:id="rId99" display="https://leetcode.com/problems/largest-number" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B304" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B12" r:id="rId101" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B188" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B302" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B21" r:id="rId82" display="https://leetcode.com/problems/binary-tree-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B20" r:id="rId83" display="https://leetcode.com/problems/binary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B203" r:id="rId84" display="https://leetcode.com/problems/lru-cache" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B348" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B213" r:id="rId86" display="https://leetcode.com/problems/max-points-on-a-line" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B89" r:id="rId87" display="https://leetcode.com/problems/evaluate-reverse-polish-notation" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B310" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B225" r:id="rId89" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B110" r:id="rId90" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B109" r:id="rId91" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B236" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B160" r:id="rId93" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B111" r:id="rId94" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B222" r:id="rId95" display="https://leetcode.com/problems/maximum-gap" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B92" r:id="rId96" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B206" r:id="rId97" display="https://leetcode.com/problems/majority-element" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B91" r:id="rId98" display="https://leetcode.com/problems/excel-sheet-column-number" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B180" r:id="rId99" display="https://leetcode.com/problems/largest-number" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B303" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B11" r:id="rId101" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
     <hyperlink ref="B403" r:id="rId102" display="https://leetcode.com/problems/word-frequency" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B24" r:id="rId103" display="https://leetcode.com/problems/binary-tree-right-side-view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B262" r:id="rId104" display="https://leetcode.com/problems/number-of-islands" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B308" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B153" r:id="rId106" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B318" r:id="rId107" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B335" r:id="rId108" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B292" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B203" r:id="rId110" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B269" r:id="rId111" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B151" r:id="rId112" display="https://leetcode.com/problems/implement-queue-using-stacks" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B176" r:id="rId113" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B206" r:id="rId114" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B152" r:id="rId115" display="https://leetcode.com/problems/implement-stack-using-queues" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B52" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B216" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B380" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B38" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B175" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B328" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B23" r:id="rId103" display="https://leetcode.com/problems/binary-tree-right-side-view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B261" r:id="rId104" display="https://leetcode.com/problems/number-of-islands" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B307" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B152" r:id="rId106" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B317" r:id="rId107" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B334" r:id="rId108" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B291" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B202" r:id="rId110" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B268" r:id="rId111" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B150" r:id="rId112" display="https://leetcode.com/problems/implement-queue-using-stacks" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B175" r:id="rId113" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B205" r:id="rId114" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B151" r:id="rId115" display="https://leetcode.com/problems/implement-stack-using-queues" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B51" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B215" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B379" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B37" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B174" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B327" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="B406" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B3" r:id="rId123" display="https://leetcode.com/problems/add-and-search-word-data-structure-design" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B248" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B20" r:id="rId125" display="https://leetcode.com/problems/binary-tree-paths" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B333" r:id="rId126" display="https://leetcode.com/problems/single-number-iii" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B250" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B159" r:id="rId128" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B146" r:id="rId129" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B145" r:id="rId130" display="https://leetcode.com/problems/h-index-ii" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B95" r:id="rId131" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B280" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B115" r:id="rId133" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B133" r:id="rId134" display="https://leetcode.com/problems/game-of-life" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B109" r:id="rId135" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B324" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B196" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B13" r:id="rId138" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B245" r:id="rId139" display="https://leetcode.com/problems/minimum-height-trees" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B28" r:id="rId140" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B54" r:id="rId141" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B300" r:id="rId142" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B59" r:id="rId143" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B36" r:id="rId144" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B53" r:id="rId145" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B266" r:id="rId146" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B195" r:id="rId147" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B323" r:id="rId148" display="https://leetcode.com/problems/self-crossing" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B147" r:id="rId149" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B158" r:id="rId150" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B383" r:id="rId151" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B63" r:id="rId152" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B177" r:id="rId153" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B155" r:id="rId154" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B190" r:id="rId155" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B119" r:id="rId156" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B192" r:id="rId157" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B281" r:id="rId158" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B165" r:id="rId159" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B64" r:id="rId160" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B325" r:id="rId161" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B260" r:id="rId162" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B4" r:id="rId163" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B100" r:id="rId164" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B178" r:id="rId165" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B279" r:id="rId166" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B113" r:id="rId167" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B6" r:id="rId168" display="https://leetcode.com/problems/all-oone-data-structure" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B48" r:id="rId169" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B358" r:id="rId170" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B274" r:id="rId171" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B350" r:id="rId172" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B367" r:id="rId173" display="https://leetcode.com/problems/sum-of-left-leaves" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B131" r:id="rId174" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B347" r:id="rId175" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B246" r:id="rId176" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B282" r:id="rId177" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B187" r:id="rId178" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B55" r:id="rId179" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B39" r:id="rId180" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B336" r:id="rId181" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B286" r:id="rId182" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B154" r:id="rId183" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B310" r:id="rId184" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B378" r:id="rId185" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B76" r:id="rId186" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B163" r:id="rId187" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B255" r:id="rId188" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B252" r:id="rId189" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B103" r:id="rId190" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B128" r:id="rId191" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B198" r:id="rId192" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B35" r:id="rId193" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B47" r:id="rId194" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B202" r:id="rId195" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B46" r:id="rId196" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B293" r:id="rId197" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B238" r:id="rId198" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B134" r:id="rId199" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B85" r:id="rId200" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B331" r:id="rId201" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B77" r:id="rId202" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B129" r:id="rId203" display="https://leetcode.com/problems/friend-circles" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B221" r:id="rId204" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B359" r:id="rId205" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B114" r:id="rId206" display="https://leetcode.com/problems/find-the-closest-palindrome" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B363" r:id="rId207" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B87" r:id="rId208" display="https://leetcode.com/problems/erect-the-fence" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B148" r:id="rId209" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B104" r:id="rId210" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B379" r:id="rId211" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B74" r:id="rId212" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B168" r:id="rId213" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B2" r:id="rId214" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B83" r:id="rId215" display="https://leetcode.com/problems/dota2-senate" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B305" r:id="rId216" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B271" r:id="rId217" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B224" r:id="rId218" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B73" r:id="rId219" display="https://leetcode.com/problems/design-circular-deque" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B65" r:id="rId220" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B9" r:id="rId221" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B94" r:id="rId222" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B339" r:id="rId223" display="https://leetcode.com/problems/smallest-range" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B107" r:id="rId224" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B230" r:id="rId225" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B356" r:id="rId226" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B179" r:id="rId227" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B229" r:id="rId228" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B263" r:id="rId229" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B194" r:id="rId230" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B61" r:id="rId231" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B150" r:id="rId232" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B171" r:id="rId233" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B384" r:id="rId234" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B209" r:id="rId235" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B276" r:id="rId236" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B98" r:id="rId237" display="https://leetcode.com/problems/falling-squares" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B320" r:id="rId238" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B174" r:id="rId239" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B75" r:id="rId240" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B14" r:id="rId241" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B294" r:id="rId242" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B108" r:id="rId243" display="https://leetcode.com/problems/find-k-th-smallest-pair-distance" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B352" r:id="rId244" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B126" r:id="rId245" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B8" r:id="rId246" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B62" r:id="rId247" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B68" r:id="rId248" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B34" r:id="rId249" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B254" r:id="rId250" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B287" r:id="rId251" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B58" r:id="rId252" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B56" r:id="rId253" display="https://leetcode.com/problems/couples-holding-hands" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B211" r:id="rId254" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B334" r:id="rId255" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B135" r:id="rId256" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B375" r:id="rId257" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B180" r:id="rId258" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B243" r:id="rId259" display="https://leetcode.com/problems/minimum-distance-between-bst-nodes" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B164" r:id="rId260" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B89" r:id="rId261" display="https://leetcode.com/problems/escape-the-ghosts" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B82" r:id="rId262" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B60" r:id="rId263" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B2" r:id="rId123" display="https://leetcode.com/problems/add-and-search-word-data-structure-design" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B247" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B19" r:id="rId125" display="https://leetcode.com/problems/binary-tree-paths" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B332" r:id="rId126" display="https://leetcode.com/problems/single-number-iii" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B249" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B158" r:id="rId128" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B145" r:id="rId129" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B144" r:id="rId130" display="https://leetcode.com/problems/h-index-ii" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B94" r:id="rId131" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B279" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B114" r:id="rId133" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B132" r:id="rId134" display="https://leetcode.com/problems/game-of-life" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B108" r:id="rId135" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B323" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B195" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B12" r:id="rId138" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B244" r:id="rId139" display="https://leetcode.com/problems/minimum-height-trees" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B27" r:id="rId140" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B53" r:id="rId141" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B299" r:id="rId142" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B58" r:id="rId143" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B35" r:id="rId144" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B52" r:id="rId145" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B265" r:id="rId146" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B194" r:id="rId147" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B322" r:id="rId148" display="https://leetcode.com/problems/self-crossing" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B146" r:id="rId149" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B157" r:id="rId150" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B382" r:id="rId151" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B62" r:id="rId152" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B176" r:id="rId153" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B154" r:id="rId154" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B189" r:id="rId155" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B118" r:id="rId156" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B191" r:id="rId157" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B280" r:id="rId158" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B164" r:id="rId159" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B63" r:id="rId160" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B324" r:id="rId161" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B259" r:id="rId162" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B3" r:id="rId163" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B99" r:id="rId164" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B177" r:id="rId165" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B278" r:id="rId166" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B112" r:id="rId167" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B5" r:id="rId168" display="https://leetcode.com/problems/all-oone-data-structure" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B47" r:id="rId169" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B357" r:id="rId170" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B273" r:id="rId171" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B349" r:id="rId172" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B366" r:id="rId173" display="https://leetcode.com/problems/sum-of-left-leaves" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B130" r:id="rId174" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B346" r:id="rId175" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B245" r:id="rId176" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B281" r:id="rId177" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B186" r:id="rId178" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B54" r:id="rId179" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B38" r:id="rId180" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B335" r:id="rId181" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B285" r:id="rId182" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B153" r:id="rId183" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B309" r:id="rId184" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B377" r:id="rId185" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B75" r:id="rId186" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B162" r:id="rId187" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B254" r:id="rId188" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B251" r:id="rId189" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B102" r:id="rId190" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B127" r:id="rId191" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B197" r:id="rId192" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B34" r:id="rId193" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B46" r:id="rId194" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B201" r:id="rId195" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B45" r:id="rId196" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B292" r:id="rId197" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B237" r:id="rId198" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B133" r:id="rId199" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B84" r:id="rId200" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B330" r:id="rId201" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B76" r:id="rId202" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B128" r:id="rId203" display="https://leetcode.com/problems/friend-circles" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B220" r:id="rId204" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B358" r:id="rId205" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B113" r:id="rId206" display="https://leetcode.com/problems/find-the-closest-palindrome" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B362" r:id="rId207" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B86" r:id="rId208" display="https://leetcode.com/problems/erect-the-fence" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B147" r:id="rId209" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B103" r:id="rId210" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B378" r:id="rId211" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B73" r:id="rId212" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B167" r:id="rId213" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B388" r:id="rId214" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B82" r:id="rId215" display="https://leetcode.com/problems/dota2-senate" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B304" r:id="rId216" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B270" r:id="rId217" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B223" r:id="rId218" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B72" r:id="rId219" display="https://leetcode.com/problems/design-circular-deque" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B64" r:id="rId220" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B8" r:id="rId221" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B93" r:id="rId222" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B338" r:id="rId223" display="https://leetcode.com/problems/smallest-range" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B106" r:id="rId224" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B229" r:id="rId225" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B355" r:id="rId226" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B178" r:id="rId227" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B228" r:id="rId228" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B262" r:id="rId229" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B193" r:id="rId230" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B60" r:id="rId231" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B149" r:id="rId232" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B170" r:id="rId233" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B383" r:id="rId234" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B208" r:id="rId235" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B275" r:id="rId236" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B97" r:id="rId237" display="https://leetcode.com/problems/falling-squares" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B319" r:id="rId238" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B173" r:id="rId239" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B74" r:id="rId240" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B13" r:id="rId241" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B293" r:id="rId242" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B107" r:id="rId243" display="https://leetcode.com/problems/find-k-th-smallest-pair-distance" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B351" r:id="rId244" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B125" r:id="rId245" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B7" r:id="rId246" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B61" r:id="rId247" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B67" r:id="rId248" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B33" r:id="rId249" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B253" r:id="rId250" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B286" r:id="rId251" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B57" r:id="rId252" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B55" r:id="rId253" display="https://leetcode.com/problems/couples-holding-hands" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B210" r:id="rId254" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B333" r:id="rId255" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B134" r:id="rId256" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B374" r:id="rId257" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B179" r:id="rId258" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B242" r:id="rId259" display="https://leetcode.com/problems/minimum-distance-between-bst-nodes" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B163" r:id="rId260" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B88" r:id="rId261" display="https://leetcode.com/problems/escape-the-ghosts" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B81" r:id="rId262" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B59" r:id="rId263" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
     <hyperlink ref="B395" r:id="rId264" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B264" r:id="rId265" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B314" r:id="rId266" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B340" r:id="rId267" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B32" r:id="rId268" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B105" r:id="rId269" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B351" r:id="rId270" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B213" r:id="rId271" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B96" r:id="rId272" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B183" r:id="rId273" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B23" r:id="rId274" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B29" r:id="rId275" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B188" r:id="rId276" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B251" r:id="rId277" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B136" r:id="rId278" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B130" r:id="rId279" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B253" r:id="rId280" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B285" r:id="rId281" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B125" r:id="rId282" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B101" r:id="rId283" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B365" r:id="rId284" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B149" r:id="rId285" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B205" r:id="rId286" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B169" r:id="rId287" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B142" r:id="rId288" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B197" r:id="rId289" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B143" r:id="rId290" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B326" r:id="rId291" display="https://leetcode.com/problems/shifting-letters" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B217" r:id="rId292" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B173" r:id="rId293" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B91" r:id="rId294" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B185" r:id="rId295" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B316" r:id="rId296" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B330" r:id="rId297" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B5" r:id="rId298" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B343" r:id="rId299" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B288" r:id="rId300" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B184" r:id="rId301" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B172" r:id="rId302" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B236" r:id="rId303" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B355" r:id="rId304" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B67" r:id="rId305" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B26" r:id="rId306" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B372" r:id="rId307" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B97" r:id="rId308" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B44" r:id="rId309" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B102" r:id="rId310" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B370" r:id="rId311" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B7" r:id="rId312" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B268" r:id="rId313" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B263" r:id="rId265" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B313" r:id="rId266" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B339" r:id="rId267" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B31" r:id="rId268" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B104" r:id="rId269" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B350" r:id="rId270" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B212" r:id="rId271" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B95" r:id="rId272" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B182" r:id="rId273" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B22" r:id="rId274" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B28" r:id="rId275" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B187" r:id="rId276" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B250" r:id="rId277" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B135" r:id="rId278" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B129" r:id="rId279" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B252" r:id="rId280" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B284" r:id="rId281" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B124" r:id="rId282" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B100" r:id="rId283" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B364" r:id="rId284" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B148" r:id="rId285" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B204" r:id="rId286" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B168" r:id="rId287" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B141" r:id="rId288" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B196" r:id="rId289" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B142" r:id="rId290" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B325" r:id="rId291" display="https://leetcode.com/problems/shifting-letters" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B216" r:id="rId292" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B172" r:id="rId293" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B90" r:id="rId294" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B184" r:id="rId295" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B315" r:id="rId296" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B329" r:id="rId297" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B4" r:id="rId298" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B342" r:id="rId299" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B287" r:id="rId300" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B183" r:id="rId301" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B171" r:id="rId302" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B235" r:id="rId303" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B354" r:id="rId304" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B66" r:id="rId305" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B25" r:id="rId306" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B371" r:id="rId307" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B96" r:id="rId308" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B43" r:id="rId309" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B101" r:id="rId310" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B369" r:id="rId311" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B6" r:id="rId312" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B267" r:id="rId313" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
     <hyperlink ref="B393" r:id="rId314" display="https://leetcode.com/problems/valid-permutations-for-di-sequence" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B132" r:id="rId315" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B369" r:id="rId316" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B337" r:id="rId317" display="https://leetcode.com/problems/smallest-range-i" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B345" r:id="rId318" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B338" r:id="rId319" display="https://leetcode.com/problems/smallest-range-ii" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B267" r:id="rId320" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B346" r:id="rId321" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B131" r:id="rId315" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B368" r:id="rId316" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B336" r:id="rId317" display="https://leetcode.com/problems/smallest-range-i" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B344" r:id="rId318" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B337" r:id="rId319" display="https://leetcode.com/problems/smallest-range-ii" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B266" r:id="rId320" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B345" r:id="rId321" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
     <hyperlink ref="B408" r:id="rId322" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B191" r:id="rId323" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B124" r:id="rId324" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B381" r:id="rId325" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B244" r:id="rId326" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B170" r:id="rId327" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B295" r:id="rId328" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B79" r:id="rId329" display="https://leetcode.com/problems/distinct-subsequences-ii" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B116" r:id="rId330" display="https://leetcode.com/problems/find-the-shortest-superstring" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B71" r:id="rId331" display="https://leetcode.com/problems/delete-columns-to-make-sorted" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B307" r:id="rId332" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B123" r:id="rId333" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B190" r:id="rId323" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B123" r:id="rId324" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B380" r:id="rId325" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B243" r:id="rId326" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B169" r:id="rId327" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B294" r:id="rId328" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B78" r:id="rId329" display="https://leetcode.com/problems/distinct-subsequences-ii" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B115" r:id="rId330" display="https://leetcode.com/problems/find-the-shortest-superstring" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B70" r:id="rId331" display="https://leetcode.com/problems/delete-columns-to-make-sorted" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B306" r:id="rId332" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B122" r:id="rId333" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
     <hyperlink ref="B397" r:id="rId334" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B69" r:id="rId335" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B377" r:id="rId336" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B291" r:id="rId337" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B33" r:id="rId338" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B70" r:id="rId339" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B259" r:id="rId340" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B16" r:id="rId341" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B121" r:id="rId342" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B86" r:id="rId343" display="https://leetcode.com/problems/equal-rational-numbers" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B167" r:id="rId344" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B360" r:id="rId345" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B353" r:id="rId346" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B81" r:id="rId347" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B382" r:id="rId348" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B239" r:id="rId349" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B366" r:id="rId350" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B162" r:id="rId351" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B68" r:id="rId335" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B376" r:id="rId336" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B290" r:id="rId337" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B32" r:id="rId338" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B69" r:id="rId339" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B258" r:id="rId340" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B15" r:id="rId341" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B120" r:id="rId342" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B85" r:id="rId343" display="https://leetcode.com/problems/equal-rational-numbers" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B166" r:id="rId344" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B359" r:id="rId345" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B352" r:id="rId346" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B80" r:id="rId347" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B381" r:id="rId348" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B238" r:id="rId349" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B365" r:id="rId350" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B161" r:id="rId351" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
     <hyperlink ref="B398" r:id="rId352" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B341" r:id="rId353" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B361" r:id="rId354" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B57" r:id="rId355" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B117" r:id="rId356" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B219" r:id="rId357" display="https://leetcode.com/problems/maximum-binary-tree-ii" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B139" r:id="rId358" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B212" r:id="rId359" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B218" r:id="rId360" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B41" r:id="rId361" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B273" r:id="rId362" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B256" r:id="rId363" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B261" r:id="rId364" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B368" r:id="rId365" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B340" r:id="rId353" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B360" r:id="rId354" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B56" r:id="rId355" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B116" r:id="rId356" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B218" r:id="rId357" display="https://leetcode.com/problems/maximum-binary-tree-ii" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B138" r:id="rId358" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B211" r:id="rId359" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B217" r:id="rId360" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B40" r:id="rId361" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B272" r:id="rId362" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B255" r:id="rId363" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B260" r:id="rId364" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B367" r:id="rId365" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
     <hyperlink ref="B399" r:id="rId366" display="https://leetcode.com/problems/video-stitching" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B222" r:id="rId367" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B296" r:id="rId368" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B208" r:id="rId369" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B228" r:id="rId370" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B357" r:id="rId371" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B37" r:id="rId372" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B221" r:id="rId367" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B295" r:id="rId368" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B207" r:id="rId369" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B227" r:id="rId370" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B356" r:id="rId371" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B36" r:id="rId372" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
     <hyperlink ref="B389" r:id="rId373" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B88" r:id="rId374" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B15" r:id="rId375" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B127" r:id="rId376" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B272" r:id="rId377" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B144" r:id="rId378" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B141" r:id="rId379" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B78" r:id="rId380" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B138" r:id="rId381" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B122" r:id="rId382" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B265" r:id="rId383" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B157" r:id="rId384" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B342" r:id="rId385" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B329" r:id="rId386" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B327" r:id="rId387" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B354" r:id="rId388" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B31" r:id="rId389" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B106" r:id="rId390" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B277" r:id="rId391" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B99" r:id="rId392" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B51" r:id="rId393" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B72" r:id="rId394" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B289" r:id="rId395" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B290" r:id="rId396" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B27" r:id="rId397" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B299" r:id="rId398" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B344" r:id="rId399" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B241" r:id="rId400" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B225" r:id="rId401" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B40" r:id="rId402" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B210" r:id="rId403" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B240" r:id="rId404" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B87" r:id="rId374" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B14" r:id="rId375" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B126" r:id="rId376" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B271" r:id="rId377" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B143" r:id="rId378" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B140" r:id="rId379" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B77" r:id="rId380" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B137" r:id="rId381" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B121" r:id="rId382" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B264" r:id="rId383" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B156" r:id="rId384" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B341" r:id="rId385" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B328" r:id="rId386" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B326" r:id="rId387" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B353" r:id="rId388" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B30" r:id="rId389" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B105" r:id="rId390" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B276" r:id="rId391" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B98" r:id="rId392" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B50" r:id="rId393" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B71" r:id="rId394" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B288" r:id="rId395" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B289" r:id="rId396" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B26" r:id="rId397" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B298" r:id="rId398" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B343" r:id="rId399" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B240" r:id="rId400" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B224" r:id="rId401" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B39" r:id="rId402" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B209" r:id="rId403" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B239" r:id="rId404" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId405"/>

--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A86DA02-6FD4-4F9F-AA8B-EF907C11F515}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20523B4C-1E55-4DB5-88FC-C04F3AD643ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2466,7 +2466,7 @@
   <dimension ref="A1:F411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B416" sqref="B416"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20523B4C-1E55-4DB5-88FC-C04F3AD643ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C56DA-0645-4AE2-A987-846A2D592F6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <sheet name="23" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$411</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$418</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="688">
   <si>
     <t>Medium</t>
   </si>
@@ -2089,6 +2089,33 @@
   </si>
   <si>
     <t>Sort Stack using Recursion</t>
+  </si>
+  <si>
+    <t>Binary Tree Bottom View Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Boundary View Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Left View Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Reverse Level Order</t>
+  </si>
+  <si>
+    <t>Binary Tree Reverse Level Order Recurcive</t>
+  </si>
+  <si>
+    <t>Binary Tree Top View Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum Between Two Leaves</t>
+  </si>
+  <si>
+    <t>Identical Tree   </t>
   </si>
 </sst>
 </file>
@@ -2463,10 +2490,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F411"/>
+  <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2499,7 +2526,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A65" si="0">ROW(A1)</f>
+        <f t="shared" ref="A2:A22" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2532,7 +2559,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A3)</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2547,7 +2574,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A4)</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2562,7 +2589,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A5)</f>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2577,7 +2604,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A6)</f>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2590,7 +2617,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A7)</f>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2605,7 +2632,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A8)</f>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2620,7 +2647,7 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A9)</f>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2633,7 +2660,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A10)</f>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2646,7 +2673,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A11)</f>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2659,7 +2686,7 @@
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A12)</f>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2672,7 +2699,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A13)</f>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2687,11 +2714,11 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A14)</f>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>411</v>
+        <v>679</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>644</v>
@@ -2702,11 +2729,11 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A15)</f>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>578</v>
+        <v>680</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>644</v>
@@ -2717,11 +2744,11 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A16)</f>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>586</v>
+        <v>411</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>644</v>
@@ -2732,11 +2759,11 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A17)</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>644</v>
@@ -2747,11 +2774,11 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A18)</f>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>23</v>
+        <v>681</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>644</v>
@@ -2762,11 +2789,11 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A19)</f>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>644</v>
@@ -2777,11 +2804,11 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A20)</f>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>644</v>
@@ -2792,11 +2819,11 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A21)</f>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>262</v>
+        <v>602</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>644</v>
@@ -2807,11 +2834,11 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A22)</f>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>641</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>644</v>
@@ -2822,11 +2849,11 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A23)</f>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>644</v>
@@ -2837,14 +2864,14 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A24)</f>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>329</v>
+        <v>617</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>647</v>
@@ -2852,26 +2879,29 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A25)</f>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>522</v>
+        <v>262</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>651</v>
+        <v>644</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A26)</f>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>682</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>647</v>
@@ -2879,63 +2909,71 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A27)</f>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>683</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D28" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A28)</f>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>641</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A29)</f>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>684</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D30" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A30)</f>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>685</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D31" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A31)</f>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>401</v>
+        <v>685</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>644</v>
@@ -2944,43 +2982,40 @@
         <v>647</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A32)</f>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A33)</f>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>119</v>
+        <v>522</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A34)</f>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>648</v>
@@ -2989,63 +3024,65 @@
         <v>647</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A35)</f>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A36)</f>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>10</v>
+        <v>610</v>
       </c>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A37)</f>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A38)</f>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A39)</f>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>450</v>
+        <v>587</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>644</v>
@@ -3054,114 +3091,106 @@
         <v>647</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A40)</f>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>590</v>
+        <v>211</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A41)</f>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>589</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A42)</f>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>337</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A43)</f>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A44)</f>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="E45" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A45)</f>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A46)</f>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A47)</f>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>593</v>
+        <v>401</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>644</v>
@@ -3170,41 +3199,43 @@
         <v>647</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A48)</f>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>612</v>
+        <v>450</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A49)</f>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>590</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D50" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A50)</f>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>13</v>
+        <v>589</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>644</v>
@@ -3213,56 +3244,69 @@
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A51)</f>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>48</v>
+        <v>535</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A52)</f>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A53)</f>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A54)</f>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A55)</f>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>436</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>644</v>
@@ -3271,2059 +3315,2087 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A56)</f>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A57)</f>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>46</v>
+        <v>516</v>
       </c>
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A58)</f>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>593</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A59)</f>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A60)</f>
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A61)</f>
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A62)</f>
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A63)</f>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C64" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A64)</f>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>575</v>
+        <v>217</v>
       </c>
       <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f t="shared" ref="A66:A129" si="1">ROW(A65)</f>
+        <f>ROW(A65)</f>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A67)</f>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A68)</f>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>403</v>
+        <v>209</v>
       </c>
       <c r="C69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A69)</f>
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>387</v>
+        <v>56</v>
       </c>
       <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A70)</f>
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A71)</f>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A72)</f>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>149</v>
+        <v>575</v>
       </c>
       <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A73)</f>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A74)</f>
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A75)</f>
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A76)</f>
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>494</v>
+        <v>403</v>
       </c>
       <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A77)</f>
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A78)</f>
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>436</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A79)</f>
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C80" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <f>ROW(A80)</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <f>ROW(A81)</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <f>ROW(A82)</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <f>ROW(A83)</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <f>ROW(A84)</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <f>ROW(A85)</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <f>ROW(A86)</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <f>ROW(A87)</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <f>ROW(A88)</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <f>ROW(A89)</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <f>ROW(A90)</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <f>ROW(A91)</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <f>ROW(A92)</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <f>ROW(A93)</f>
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <f>ROW(A94)</f>
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <f>ROW(A95)</f>
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C92" s="1"/>
-    </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="C96" s="1"/>
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A96)</f>
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C97" s="1"/>
+        <v>622</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A97)</f>
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>513</v>
+        <v>303</v>
       </c>
       <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A98)</f>
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>85</v>
+        <v>633</v>
       </c>
       <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A99)</f>
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>281</v>
+        <v>631</v>
       </c>
       <c r="C100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A100)</f>
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A101)</f>
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="C102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A102)</f>
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="C103" s="1"/>
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A103)</f>
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="C104" s="1"/>
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A104)</f>
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>509</v>
+        <v>187</v>
       </c>
       <c r="C105" s="1"/>
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A105)</f>
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>165</v>
+        <v>513</v>
       </c>
       <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A106)</f>
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A107)</f>
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>34</v>
+        <v>281</v>
       </c>
       <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A108)</f>
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>626</v>
+        <v>338</v>
       </c>
       <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A109)</f>
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C110" s="1"/>
+        <v>422</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A110)</f>
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>629</v>
+        <v>146</v>
       </c>
       <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A111)</f>
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A112)</f>
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>509</v>
       </c>
       <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A113)</f>
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A114)</f>
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>386</v>
+        <v>196</v>
       </c>
       <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A115)</f>
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>440</v>
+        <v>34</v>
       </c>
       <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A116)</f>
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A117)</f>
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>65</v>
+        <v>625</v>
       </c>
       <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A118)</f>
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D119" t="s">
-        <v>647</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A119)</f>
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A120)</f>
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>496</v>
+        <v>137</v>
       </c>
       <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A121)</f>
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>650</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A122)</f>
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A123)</f>
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>280</v>
+        <v>440</v>
       </c>
       <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A124)</f>
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>205</v>
+        <v>548</v>
       </c>
       <c r="C125" s="1"/>
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A125)</f>
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>484</v>
+        <v>65</v>
       </c>
       <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A126)</f>
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A127)</f>
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C128" s="1"/>
+        <v>597</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D128" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A128)</f>
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>273</v>
+        <v>496</v>
       </c>
       <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <f t="shared" ref="A130:A193" si="2">ROW(A129)</f>
+        <f>ROW(A129)</f>
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C130" s="1"/>
+        <v>394</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A130)</f>
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A131)</f>
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="C132" s="1"/>
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A132)</f>
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>126</v>
+        <v>205</v>
       </c>
       <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A133)</f>
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>229</v>
+        <v>484</v>
       </c>
       <c r="C134" s="1"/>
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A134)</f>
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="C135" s="1"/>
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A135)</f>
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>574</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A136)</f>
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>495</v>
+        <v>273</v>
       </c>
       <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A137)</f>
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>444</v>
+        <v>70</v>
       </c>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A138)</f>
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>553</v>
+        <v>347</v>
       </c>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A139)</f>
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>492</v>
+        <v>33</v>
       </c>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A140)</f>
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>291</v>
+        <v>126</v>
       </c>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A141)</f>
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A142)</f>
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A143)</f>
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <f>ROW(A144)</f>
+        <v>144</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <f>ROW(A145)</f>
+        <v>145</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <f>ROW(A146)</f>
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <f>ROW(A147)</f>
+        <v>147</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <f>ROW(A148)</f>
+        <v>148</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <f>ROW(A149)</f>
+        <v>149</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <f>ROW(A150)</f>
+        <v>150</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <f>ROW(A151)</f>
+        <v>151</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <f>ROW(A152)</f>
+        <v>152</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <f t="shared" si="2"/>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <f>ROW(A153)</f>
+        <v>153</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <f>ROW(A154)</f>
+        <v>154</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <f t="shared" si="2"/>
-        <v>147</v>
-      </c>
-      <c r="B148" s="2" t="s">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <f>ROW(A155)</f>
+        <v>155</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="B149" s="2" t="s">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <f>ROW(A156)</f>
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>676</v>
+      </c>
+      <c r="C157" t="s">
+        <v>675</v>
+      </c>
+      <c r="D157" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <f>ROW(A157)</f>
+        <v>157</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <f t="shared" si="2"/>
-        <v>149</v>
-      </c>
-      <c r="B150" s="2" t="s">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <f>ROW(A158)</f>
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="B151" s="2" t="s">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <f>ROW(A159)</f>
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>675</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <f t="shared" si="2"/>
-        <v>157</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A160)</f>
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A161)</f>
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A162)</f>
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A163)</f>
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>68</v>
+        <v>558</v>
       </c>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A164)</f>
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>551</v>
+        <v>501</v>
       </c>
       <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A165)</f>
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>416</v>
+        <v>54</v>
       </c>
       <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A166)</f>
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="C167" s="1"/>
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A167)</f>
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>289</v>
+        <v>581</v>
       </c>
       <c r="C168" s="1"/>
     </row>
     <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A168)</f>
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="C169" s="1"/>
+        <v>628</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A169)</f>
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C170" s="1"/>
+        <v>429</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A170)</f>
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>323</v>
+        <v>111</v>
       </c>
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A171)</f>
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>302</v>
+        <v>238</v>
       </c>
       <c r="C172" s="1"/>
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A172)</f>
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A173)</f>
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>9</v>
+        <v>551</v>
       </c>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A174)</f>
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A175)</f>
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <f>ROW(A176)</f>
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <f>ROW(A177)</f>
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <f>ROW(A178)</f>
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <f>ROW(A179)</f>
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <f>ROW(A180)</f>
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <f>ROW(A181)</f>
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <f>ROW(A182)</f>
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <f>ROW(A183)</f>
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <f>ROW(A184)</f>
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-      <c r="B177" s="2" t="s">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <f>ROW(A185)</f>
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <f t="shared" si="2"/>
-        <v>177</v>
-      </c>
-      <c r="B178" s="2" t="s">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <f>ROW(A186)</f>
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="B179" s="2" t="s">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <f>ROW(A187)</f>
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
-      <c r="B180" s="2" t="s">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <f>ROW(A188)</f>
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="B181" s="2" t="s">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <f>ROW(A189)</f>
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-      <c r="B182" s="2" t="s">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <f>ROW(A190)</f>
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
-      <c r="B183" s="2" t="s">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <f>ROW(A191)</f>
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <f>ROW(A192)</f>
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <f>ROW(A193)</f>
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <f>ROW(A194)</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <f>ROW(A195)</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <f>ROW(A196)</f>
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1">
+        <f>ROW(A197)</f>
+        <v>197</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="1">
+        <f>ROW(A198)</f>
+        <v>198</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <f>ROW(A199)</f>
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <f>ROW(A200)</f>
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <f>ROW(A201)</f>
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <f>ROW(A202)</f>
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <f>ROW(A203)</f>
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <f>ROW(A204)</f>
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <f>ROW(A205)</f>
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <f>ROW(A206)</f>
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <f>ROW(A207)</f>
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <f>ROW(A208)</f>
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <f>ROW(A209)</f>
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <f>ROW(A210)</f>
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1">
+        <f>ROW(A211)</f>
+        <v>211</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D212" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <f>ROW(A212)</f>
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <f>ROW(A213)</f>
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C214" s="1"/>
+      <c r="D214" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <f>ROW(A214)</f>
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C215" s="1"/>
+      <c r="D215" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1">
+        <f>ROW(A215)</f>
+        <v>215</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <f>ROW(A216)</f>
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <f>ROW(A217)</f>
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <f>ROW(A218)</f>
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <f>ROW(A219)</f>
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <f>ROW(A220)</f>
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <f>ROW(A221)</f>
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <f>ROW(A222)</f>
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <f>ROW(A223)</f>
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="1">
+        <f>ROW(A224)</f>
+        <v>224</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <f>ROW(A225)</f>
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1">
+        <f>ROW(A226)</f>
+        <v>226</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <f t="shared" si="2"/>
-        <v>185</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <f t="shared" si="2"/>
-        <v>186</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <f t="shared" si="2"/>
-        <v>187</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <f t="shared" si="2"/>
-        <v>188</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <f t="shared" si="2"/>
-        <v>189</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <f t="shared" si="2"/>
-        <v>191</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <f t="shared" ref="A194:A257" si="3">ROW(A193)</f>
-        <v>193</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <f t="shared" si="3"/>
-        <v>194</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <f t="shared" si="3"/>
-        <v>195</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1">
-        <f t="shared" si="3"/>
-        <v>197</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1">
-        <f t="shared" si="3"/>
-        <v>198</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <f t="shared" si="3"/>
-        <v>199</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <f t="shared" si="3"/>
-        <v>201</v>
-      </c>
-      <c r="B202" s="2" t="s">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="1">
+        <f>ROW(A227)</f>
+        <v>227</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
-        <f t="shared" si="3"/>
-        <v>202</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D203" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
-        <f t="shared" si="3"/>
-        <v>203</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
-        <f t="shared" si="3"/>
-        <v>204</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C205" s="1"/>
-      <c r="D205" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <f t="shared" si="3"/>
-        <v>205</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C206" s="1"/>
-      <c r="D206" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <f t="shared" si="3"/>
-        <v>206</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <f t="shared" si="3"/>
-        <v>207</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <f t="shared" si="3"/>
-        <v>208</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <f t="shared" si="3"/>
-        <v>209</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="1">
-        <f t="shared" si="3"/>
-        <v>211</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <f t="shared" si="3"/>
-        <v>212</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <f t="shared" si="3"/>
-        <v>213</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <f t="shared" si="3"/>
-        <v>214</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1">
-        <f t="shared" si="3"/>
-        <v>215</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <f t="shared" si="3"/>
-        <v>216</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <f t="shared" si="3"/>
-        <v>217</v>
-      </c>
-      <c r="B218" s="2" t="s">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1">
+        <f>ROW(A228)</f>
+        <v>228</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <f t="shared" si="3"/>
-        <v>218</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <f t="shared" si="3"/>
-        <v>219</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <f t="shared" si="3"/>
-        <v>221</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <f t="shared" si="3"/>
-        <v>222</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1">
-        <f t="shared" si="3"/>
-        <v>224</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
-        <f t="shared" si="3"/>
-        <v>225</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1">
-        <f t="shared" si="3"/>
-        <v>226</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1">
-        <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1">
-        <f t="shared" si="3"/>
-        <v>228</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A229)</f>
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1">
+        <f>ROW(A230)</f>
+        <v>230</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="1">
+        <f>ROW(A231)</f>
+        <v>231</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1">
+        <f>ROW(A232)</f>
+        <v>232</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1">
+        <f>ROW(A233)</f>
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1">
+        <f>ROW(A234)</f>
+        <v>234</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1">
+        <f>ROW(A235)</f>
+        <v>235</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <f>ROW(A236)</f>
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1">
+        <f>ROW(A237)</f>
+        <v>237</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <f>ROW(A238)</f>
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="B231" s="2" t="s">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <f>ROW(A239)</f>
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1">
-        <f t="shared" si="3"/>
-        <v>231</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1">
-        <f t="shared" si="3"/>
-        <v>232</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1">
-        <f t="shared" si="3"/>
-        <v>233</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1">
-        <f t="shared" si="3"/>
-        <v>235</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
-        <f t="shared" si="3"/>
-        <v>236</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
-        <f t="shared" si="3"/>
-        <v>237</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
-        <f t="shared" si="3"/>
-        <v>239</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>644</v>
-      </c>
+      <c r="C240" s="1"/>
     </row>
     <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A240)</f>
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>595</v>
+        <v>540</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A241)</f>
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="C242" s="1"/>
     </row>
     <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A242)</f>
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C243" s="1"/>
+        <v>539</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A243)</f>
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A244)</f>
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C245" s="1"/>
+        <v>627</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A245)</f>
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>561</v>
+        <v>125</v>
       </c>
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A246)</f>
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>4</v>
+        <v>426</v>
       </c>
       <c r="C247" s="1"/>
     </row>
     <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A247)</f>
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>565</v>
+        <v>305</v>
       </c>
       <c r="C248" s="1"/>
     </row>
     <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A248)</f>
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C249" s="1"/>
+        <v>468</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A249)</f>
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C250" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A250)</f>
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>113</v>
+        <v>529</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>644</v>
@@ -5331,241 +5403,239 @@
     </row>
     <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A251)</f>
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A252)</f>
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C253" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A253)</f>
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C254" s="1"/>
     </row>
     <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A254)</f>
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="C255" s="1"/>
     </row>
     <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A255)</f>
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="C256" s="1"/>
     </row>
     <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A256)</f>
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <f t="shared" ref="A258:A321" si="4">ROW(A257)</f>
+        <f>ROW(A257)</f>
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>404</v>
+        <v>26</v>
       </c>
       <c r="C258" s="1"/>
     </row>
     <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A258)</f>
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>89</v>
+        <v>267</v>
       </c>
       <c r="C259" s="1"/>
     </row>
     <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A259)</f>
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C260" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A260)</f>
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>642</v>
+        <v>274</v>
       </c>
       <c r="C261" s="1"/>
     </row>
     <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A261)</f>
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C262" s="1"/>
     </row>
     <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A262)</f>
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="C263" s="1"/>
     </row>
     <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A263)</f>
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>498</v>
+        <v>461</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A264)</f>
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A265)</f>
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>354</v>
+        <v>554</v>
       </c>
       <c r="C266" s="1"/>
     </row>
     <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A266)</f>
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A267)</f>
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A268)</f>
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C269" s="1"/>
     </row>
     <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A269)</f>
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>160</v>
+        <v>642</v>
       </c>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A270)</f>
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>485</v>
+        <v>173</v>
       </c>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A271)</f>
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>455</v>
+        <v>247</v>
       </c>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A272)</f>
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C273" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A273)</f>
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>571</v>
+        <v>49</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>645</v>
@@ -5573,563 +5643,558 @@
     </row>
     <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A274)</f>
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>186</v>
+        <v>354</v>
       </c>
       <c r="C275" s="1"/>
     </row>
     <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A275)</f>
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="C276" s="1"/>
     </row>
     <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A276)</f>
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>596</v>
+        <v>18</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A277)</f>
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>83</v>
+        <v>609</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A278)</f>
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>657</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C279" s="1"/>
     </row>
     <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A279)</f>
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="C280" s="1"/>
     </row>
     <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A280)</f>
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>95</v>
+        <v>455</v>
       </c>
       <c r="C281" s="1"/>
     </row>
     <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A281)</f>
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C282" s="1"/>
     </row>
     <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A282)</f>
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A283)</f>
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="C284" s="1"/>
     </row>
     <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A284)</f>
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C285" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A285)</f>
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A286)</f>
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C287" s="1"/>
+        <v>512</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A287)</f>
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <f>ROW(A288)</f>
+        <v>288</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <f>ROW(A289)</f>
+        <v>289</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <f>ROW(A290)</f>
+        <v>290</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <f>ROW(A291)</f>
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <f>ROW(A292)</f>
+        <v>292</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <f>ROW(A293)</f>
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <f>ROW(A294)</f>
+        <v>294</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <f>ROW(A295)</f>
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <f>ROW(A296)</f>
+        <v>296</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1">
-        <f t="shared" si="4"/>
-        <v>288</v>
-      </c>
-      <c r="B289" s="2" t="s">
+    <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <f>ROW(A297)</f>
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1">
-        <f t="shared" si="4"/>
-        <v>289</v>
-      </c>
-      <c r="B290" s="2" t="s">
+    <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <f>ROW(A298)</f>
+        <v>298</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C290" s="1"/>
-    </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1">
-        <f t="shared" si="4"/>
-        <v>290</v>
-      </c>
-      <c r="B291" s="2" t="s">
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <f>ROW(A299)</f>
+        <v>299</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="1"/>
-    </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1">
-        <f t="shared" si="4"/>
-        <v>291</v>
-      </c>
-      <c r="B292" s="2" t="s">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <f>ROW(A300)</f>
+        <v>300</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1">
-        <f t="shared" si="4"/>
-        <v>292</v>
-      </c>
-      <c r="B293" s="2" t="s">
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <f>ROW(A301)</f>
+        <v>301</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1">
-        <f t="shared" si="4"/>
-        <v>293</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C294" s="1" t="s">
+    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <f>ROW(A302)</f>
+        <v>302</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1">
-        <f t="shared" si="4"/>
-        <v>294</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C295" s="1" t="s">
+    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <f>ROW(A303)</f>
+        <v>303</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>644</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
-        <f t="shared" si="4"/>
-        <v>295</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
-        <f t="shared" si="4"/>
-        <v>296</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C297" s="1"/>
-      <c r="D297" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <f t="shared" si="4"/>
-        <v>297</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C298" s="1"/>
-    </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <f t="shared" si="4"/>
-        <v>298</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C299" s="1"/>
-    </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <f t="shared" si="4"/>
-        <v>299</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="1">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="1">
-        <f t="shared" si="4"/>
-        <v>301</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <f t="shared" si="4"/>
-        <v>302</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C303" s="1"/>
-    </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
-        <f t="shared" si="4"/>
-        <v>303</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A304)</f>
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C305" s="1"/>
+        <v>381</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A305)</f>
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>393</v>
+        <v>534</v>
+      </c>
+      <c r="C306" s="1"/>
+      <c r="D306" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A306)</f>
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="C307" s="1"/>
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A307)</f>
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="C308" s="1"/>
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A308)</f>
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>107</v>
+        <v>568</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A309)</f>
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C310" s="1"/>
+        <v>538</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A310)</f>
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C311" s="1"/>
+        <v>616</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A311)</f>
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C312" s="1"/>
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A312)</f>
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C313" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A313)</f>
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D314" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C314" s="1"/>
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A314)</f>
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>646</v>
+        <v>393</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A315)</f>
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C316" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A316)</f>
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A317)</f>
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>563</v>
+        <v>107</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A318)</f>
         <v>318</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C319" s="1"/>
+      <c r="B319" t="s">
+        <v>677</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D319" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A319)</f>
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>567</v>
+        <v>623</v>
       </c>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A320)</f>
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="C321" s="1"/>
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <f t="shared" ref="A322:A385" si="5">ROW(A321)</f>
+        <f>ROW(A321)</f>
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C322" s="1"/>
+        <v>559</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A322)</f>
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="C323" s="1"/>
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A323)</f>
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>91</v>
+        <v>470</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>644</v>
@@ -6137,44 +6202,45 @@
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A324)</f>
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C325" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A325)</f>
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>506</v>
+        <v>572</v>
       </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A326)</f>
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C327" s="1"/>
-      <c r="D327" t="s">
-        <v>647</v>
+        <v>22</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A327)</f>
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>646</v>
@@ -6182,511 +6248,510 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A328)</f>
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>310</v>
+        <v>189</v>
       </c>
       <c r="C329" s="1"/>
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A329)</f>
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>128</v>
+        <v>567</v>
       </c>
       <c r="C330" s="1"/>
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A330)</f>
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>611</v>
+        <v>545</v>
       </c>
       <c r="C331" s="1"/>
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A331)</f>
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C332" s="1"/>
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A332)</f>
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>228</v>
+        <v>583</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A333)</f>
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C334" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A334)</f>
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>103</v>
+        <v>296</v>
       </c>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A335)</f>
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <f>ROW(A336)</f>
+        <v>336</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="1"/>
+      <c r="D337" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <f>ROW(A337)</f>
+        <v>337</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <f>ROW(A338)</f>
+        <v>338</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <f>ROW(A339)</f>
+        <v>339</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <f>ROW(A340)</f>
+        <v>340</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <f>ROW(A341)</f>
+        <v>341</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <f>ROW(A342)</f>
+        <v>342</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <f>ROW(A343)</f>
+        <v>343</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <f>ROW(A344)</f>
+        <v>344</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <f>ROW(A345)</f>
+        <v>345</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C336" s="1"/>
-    </row>
-    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1">
-        <f t="shared" si="5"/>
-        <v>336</v>
-      </c>
-      <c r="B337" s="2" t="s">
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <f>ROW(A346)</f>
+        <v>346</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C337" s="1"/>
-    </row>
-    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1">
-        <f t="shared" si="5"/>
-        <v>337</v>
-      </c>
-      <c r="B338" s="2" t="s">
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <f>ROW(A347)</f>
+        <v>347</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C338" s="1"/>
-    </row>
-    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1">
-        <f t="shared" si="5"/>
-        <v>338</v>
-      </c>
-      <c r="B339" s="2" t="s">
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <f>ROW(A348)</f>
+        <v>348</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C339" s="1"/>
-    </row>
-    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1">
-        <f t="shared" si="5"/>
-        <v>339</v>
-      </c>
-      <c r="B340" s="2" t="s">
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <f>ROW(A349)</f>
+        <v>349</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <f>ROW(A350)</f>
+        <v>350</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <f>ROW(A351)</f>
+        <v>351</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="C352" s="1" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1">
-        <f t="shared" si="5"/>
-        <v>340</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C341" s="1"/>
-    </row>
-    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1">
-        <f t="shared" si="5"/>
-        <v>341</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D342" s="1" t="s">
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <f>ROW(A352)</f>
+        <v>352</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <f>ROW(A353)</f>
+        <v>353</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <f>ROW(A354)</f>
+        <v>354</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <f>ROW(A355)</f>
+        <v>355</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <f>ROW(A356)</f>
+        <v>356</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E357" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <f>ROW(A357)</f>
+        <v>357</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <f>ROW(A358)</f>
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>678</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D359" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1">
-        <f t="shared" si="5"/>
-        <v>342</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1">
-        <f t="shared" si="5"/>
-        <v>343</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C344" s="1"/>
-    </row>
-    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="1">
-        <f t="shared" si="5"/>
-        <v>344</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C345" s="1"/>
-    </row>
-    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="1">
-        <f t="shared" si="5"/>
-        <v>345</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C346" s="1"/>
-    </row>
-    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1">
-        <f t="shared" si="5"/>
-        <v>346</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E347" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1">
-        <f t="shared" si="5"/>
-        <v>347</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C348" s="1" t="s">
+    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <f>ROW(A359)</f>
+        <v>359</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <f>ROW(A360)</f>
+        <v>360</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <f>ROW(A361)</f>
+        <v>361</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1">
-        <f t="shared" si="5"/>
-        <v>348</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C349" s="1"/>
-    </row>
-    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1">
-        <f t="shared" si="5"/>
-        <v>349</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C350" s="1"/>
-    </row>
-    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1">
-        <f t="shared" si="5"/>
-        <v>351</v>
-      </c>
-      <c r="B352" s="2" t="s">
+    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <f>ROW(A362)</f>
+        <v>362</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C352" s="1"/>
-    </row>
-    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="1">
-        <f t="shared" si="5"/>
-        <v>352</v>
-      </c>
-      <c r="B353" s="2" t="s">
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <f>ROW(A363)</f>
+        <v>363</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C353" s="1"/>
-    </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="1">
-        <f t="shared" si="5"/>
-        <v>353</v>
-      </c>
-      <c r="B354" s="2" t="s">
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <f>ROW(A364)</f>
+        <v>364</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C354" s="1"/>
-    </row>
-    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="1">
-        <f t="shared" si="5"/>
-        <v>354</v>
-      </c>
-      <c r="B355" s="2" t="s">
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <f>ROW(A365)</f>
+        <v>365</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C355" s="1"/>
-    </row>
-    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="1">
-        <f t="shared" si="5"/>
-        <v>355</v>
-      </c>
-      <c r="B356" s="2" t="s">
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <f>ROW(A366)</f>
+        <v>366</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C356" s="1"/>
-    </row>
-    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="1">
-        <f t="shared" si="5"/>
-        <v>356</v>
-      </c>
-      <c r="B357" s="2" t="s">
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <f>ROW(A367)</f>
+        <v>367</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C357" s="1"/>
-    </row>
-    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="1">
-        <f t="shared" si="5"/>
-        <v>357</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C358" s="1"/>
-    </row>
-    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="1">
-        <f t="shared" si="5"/>
-        <v>358</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C359" s="1"/>
-    </row>
-    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="1">
-        <f t="shared" si="5"/>
-        <v>359</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C360" s="1"/>
-    </row>
-    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1">
-        <f t="shared" si="5"/>
-        <v>360</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C361" s="1"/>
-    </row>
-    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1">
-        <f t="shared" si="5"/>
-        <v>361</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="1">
-        <f t="shared" si="5"/>
-        <v>362</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C363" s="1"/>
-    </row>
-    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1">
-        <f t="shared" si="5"/>
-        <v>363</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1">
-        <f t="shared" si="5"/>
-        <v>364</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C365" s="1"/>
-    </row>
-    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="1">
-        <f t="shared" si="5"/>
-        <v>365</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1">
-        <f t="shared" si="5"/>
-        <v>366</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C367" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="1">
-        <f t="shared" si="5"/>
-        <v>367</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A368)</f>
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>339</v>
+        <v>136</v>
       </c>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A369)</f>
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C370" s="1"/>
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A370)</f>
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="C371" s="1"/>
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A371)</f>
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>607</v>
+        <v>543</v>
       </c>
       <c r="C372" s="1"/>
-      <c r="E372" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A372)</f>
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>541</v>
+        <v>313</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A373)</f>
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>231</v>
+        <v>547</v>
       </c>
       <c r="C374" s="1"/>
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A374)</f>
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>585</v>
+        <v>140</v>
       </c>
       <c r="C375" s="1" t="s">
         <v>644</v>
@@ -6697,895 +6762,971 @@
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A375)</f>
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D376" t="s">
-        <v>647</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="C376" s="1"/>
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A376)</f>
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A377)</f>
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>148</v>
+        <v>350</v>
       </c>
       <c r="C378" s="1"/>
-      <c r="D378" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A378)</f>
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="C379" s="1"/>
-      <c r="D379" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A379)</f>
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C380" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D380" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A380)</f>
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>424</v>
+        <v>335</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A381)</f>
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>55</v>
+        <v>607</v>
       </c>
       <c r="C382" s="1"/>
+      <c r="E382" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A382)</f>
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C383" s="1"/>
+        <v>541</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A383)</f>
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>549</v>
+        <v>231</v>
       </c>
       <c r="C384" s="1"/>
-      <c r="D384" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A384)</f>
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D385" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D385" t="s">
         <v>647</v>
-      </c>
-      <c r="E385" t="s">
-        <v>660</v>
-      </c>
-      <c r="F385" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <f t="shared" ref="A386:A408" si="6">ROW(A385)</f>
+        <f>ROW(A385)</f>
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>669</v>
+        <v>399</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D386" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D386" t="s">
         <v>647</v>
-      </c>
-      <c r="E386" t="s">
-        <v>660</v>
-      </c>
-      <c r="F386" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A386)</f>
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>667</v>
+        <v>108</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D387" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E387" t="s">
-        <v>660</v>
-      </c>
-      <c r="F387" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A387)</f>
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>674</v>
+        <v>148</v>
       </c>
       <c r="C388" s="1"/>
-      <c r="D388" s="1" t="s">
+      <c r="D388" t="s">
         <v>647</v>
-      </c>
-      <c r="E388" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="F388" s="5" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A388)</f>
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="C389" s="1"/>
-      <c r="E389" s="4" t="s">
-        <v>656</v>
+      <c r="D389" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A389)</f>
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D390" s="1"/>
+        <v>370</v>
+      </c>
+      <c r="C390" s="1"/>
     </row>
     <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A390)</f>
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>580</v>
+        <v>424</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A391)</f>
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>560</v>
+        <v>55</v>
       </c>
       <c r="C392" s="1"/>
     </row>
     <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A392)</f>
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C393" s="1"/>
     </row>
     <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A393)</f>
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>655</v>
+        <v>549</v>
+      </c>
+      <c r="C394" s="1"/>
+      <c r="D394" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A394)</f>
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C395" s="1"/>
-      <c r="D395" t="s">
+        <v>668</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D395" s="1" t="s">
         <v>647</v>
+      </c>
+      <c r="E395" t="s">
+        <v>660</v>
+      </c>
+      <c r="F395" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A395)</f>
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="E396" t="s">
+        <v>660</v>
+      </c>
+      <c r="F396" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A396)</f>
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C397" s="1"/>
+        <v>667</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E397" t="s">
+        <v>660</v>
+      </c>
+      <c r="F397" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A397)</f>
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C398" s="1"/>
       <c r="D398" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="E398" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A398)</f>
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C399" s="1"/>
-      <c r="E399" t="s">
-        <v>654</v>
+      <c r="E399" s="4" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A399)</f>
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D400" s="1"/>
+    </row>
+    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <f>ROW(A400)</f>
+        <v>400</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <f>ROW(A401)</f>
+        <v>401</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C402" s="1"/>
+    </row>
+    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <f>ROW(A402)</f>
+        <v>402</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <f>ROW(A403)</f>
+        <v>403</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <f>ROW(A404)</f>
+        <v>404</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C405" s="1"/>
+      <c r="D405" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <f>ROW(A405)</f>
+        <v>405</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <f>ROW(A406)</f>
+        <v>406</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C407" s="1"/>
+    </row>
+    <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <f>ROW(A407)</f>
+        <v>407</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <f t="shared" ref="A407:A418" si="1">ROW(A408)</f>
+        <v>408</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C409" s="1"/>
+      <c r="E409" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <f t="shared" si="1"/>
+        <v>409</v>
+      </c>
+      <c r="B410" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C400" s="1"/>
-      <c r="D400" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="1">
-        <f t="shared" si="6"/>
-        <v>400</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="C401" s="1"/>
-    </row>
-    <row r="402" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="1">
-        <f t="shared" si="6"/>
-        <v>401</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C402" s="1"/>
-    </row>
-    <row r="403" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="1">
-        <f t="shared" si="6"/>
-        <v>402</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C403" s="1"/>
-    </row>
-    <row r="404" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="1">
-        <f t="shared" si="6"/>
-        <v>403</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C404" s="1"/>
-    </row>
-    <row r="405" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="1">
-        <f t="shared" si="6"/>
-        <v>404</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C405" s="1"/>
-    </row>
-    <row r="406" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="1">
-        <f t="shared" si="6"/>
-        <v>405</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="1">
-        <f t="shared" si="6"/>
-        <v>406</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C407" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D407" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="1">
-        <f t="shared" si="6"/>
-        <v>407</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C408" s="1"/>
-      <c r="D408" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A409">
-        <v>408</v>
-      </c>
-      <c r="B409" t="s">
-        <v>676</v>
-      </c>
-      <c r="C409" t="s">
-        <v>675</v>
-      </c>
-      <c r="D409" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A410">
-        <v>409</v>
-      </c>
-      <c r="B410" t="s">
-        <v>677</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>675</v>
-      </c>
+      <c r="C410" s="1"/>
       <c r="D410" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A411">
+    <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <f t="shared" si="1"/>
         <v>410</v>
       </c>
-      <c r="B411" t="s">
-        <v>678</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D411" t="s">
+      <c r="B411" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C411" s="1"/>
+    </row>
+    <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <f t="shared" si="1"/>
+        <v>411</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C412" s="1"/>
+    </row>
+    <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <f t="shared" si="1"/>
+        <v>412</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C413" s="1"/>
+    </row>
+    <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <f t="shared" si="1"/>
+        <v>413</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C414" s="1"/>
+    </row>
+    <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <f t="shared" si="1"/>
+        <v>414</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C415" s="1"/>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <f t="shared" si="1"/>
+        <v>415</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D417" t="s">
         <v>647</v>
       </c>
     </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <f t="shared" si="1"/>
+        <v>417</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C418" s="1"/>
+      <c r="D418" t="s">
+        <v>647</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F411" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F408">
+  <autoFilter ref="A1:F418" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F408">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F408">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F420">
     <sortCondition ref="B1"/>
   </sortState>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="B199" r:id="rId1" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B230" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B198" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B297" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B44" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B386" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B385" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B301" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B234" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B232" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B373" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B308" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B361" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B200" r:id="rId14" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B321" r:id="rId15" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B394" r:id="rId16" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B363" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B117" r:id="rId18" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B384" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B400" r:id="rId20" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B165" r:id="rId21" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B311" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B139" r:id="rId23" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B257" r:id="rId24" display="https://leetcode.com/problems/n-queens" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B256" r:id="rId25" display="https://leetcode.com/problems/n-queens-ii" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B226" r:id="rId26" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B231" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B155" r:id="rId28" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B312" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B392" r:id="rId30" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B246" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B83" r:id="rId32" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B318" r:id="rId33" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B347" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B248" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B407" r:id="rId36" display="https://leetcode.com/problems/word-search" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B320" r:id="rId37" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B300" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B181" r:id="rId39" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B214" r:id="rId40" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B274" r:id="rId41" display="https://leetcode.com/problems/partition-list" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B316" r:id="rId42" display="https://leetcode.com/problems/scramble-string" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B233" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B136" r:id="rId44" display="https://leetcode.com/problems/gray-code" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B65" r:id="rId45" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B305" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B16" r:id="rId47" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B390" r:id="rId48" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B391" r:id="rId49" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B159" r:id="rId50" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B396" r:id="rId51" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B296" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B314" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B375" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B17" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B24" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B219" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B42" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B41" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B48" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B208" r:id="rId1" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B239" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B207" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B306" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B52" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B396" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B395" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B310" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B243" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B241" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B383" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B317" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B372" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B209" r:id="rId14" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B331" r:id="rId15" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B404" r:id="rId16" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B374" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B125" r:id="rId18" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B394" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B410" r:id="rId20" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B174" r:id="rId21" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B321" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B147" r:id="rId23" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B266" r:id="rId24" display="https://leetcode.com/problems/n-queens" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B265" r:id="rId25" display="https://leetcode.com/problems/n-queens-ii" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B235" r:id="rId26" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B240" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B164" r:id="rId28" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B322" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B402" r:id="rId30" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B255" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B91" r:id="rId32" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B328" r:id="rId33" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B357" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B257" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B417" r:id="rId36" display="https://leetcode.com/problems/word-search" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B330" r:id="rId37" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B309" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B190" r:id="rId39" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B223" r:id="rId40" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B283" r:id="rId41" display="https://leetcode.com/problems/partition-list" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B326" r:id="rId42" display="https://leetcode.com/problems/scramble-string" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B242" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B144" r:id="rId44" display="https://leetcode.com/problems/gray-code" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B73" r:id="rId45" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B314" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B18" r:id="rId47" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B400" r:id="rId48" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B401" r:id="rId49" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B168" r:id="rId50" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B408" r:id="rId51" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B333" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B192" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B406" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B20" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B40" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B230" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B51" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B50" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B59" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="B9" r:id="rId61" display="https://leetcode.com/problems/balanced-binary-tree" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B241" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B277" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B119" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B79" r:id="rId65" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B283" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B282" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B18" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B404" r:id="rId69" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B405" r:id="rId70" display="https://leetcode.com/problems/word-ladder" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B192" r:id="rId71" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B370" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B372" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B269" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B29" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B331" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B49" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B402" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B401" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B188" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B302" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B21" r:id="rId82" display="https://leetcode.com/problems/binary-tree-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B20" r:id="rId83" display="https://leetcode.com/problems/binary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B203" r:id="rId84" display="https://leetcode.com/problems/lru-cache" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B348" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B213" r:id="rId86" display="https://leetcode.com/problems/max-points-on-a-line" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B89" r:id="rId87" display="https://leetcode.com/problems/evaluate-reverse-polish-notation" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B310" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B225" r:id="rId89" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B110" r:id="rId90" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B109" r:id="rId91" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B236" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B160" r:id="rId93" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B111" r:id="rId94" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B222" r:id="rId95" display="https://leetcode.com/problems/maximum-gap" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B92" r:id="rId96" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B206" r:id="rId97" display="https://leetcode.com/problems/majority-element" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B91" r:id="rId98" display="https://leetcode.com/problems/excel-sheet-column-number" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B180" r:id="rId99" display="https://leetcode.com/problems/largest-number" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B303" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B253" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B291" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B128" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B87" r:id="rId65" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B304" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B303" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B22" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B414" r:id="rId69" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B415" r:id="rId70" display="https://leetcode.com/problems/word-ladder" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B201" r:id="rId71" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B385" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B382" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B278" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B37" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B341" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B57" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B412" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B411" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B197" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B311" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B25" r:id="rId82" display="https://leetcode.com/problems/binary-tree-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B24" r:id="rId83" display="https://leetcode.com/problems/binary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B212" r:id="rId84" display="https://leetcode.com/problems/lru-cache" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B358" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B222" r:id="rId86" display="https://leetcode.com/problems/max-points-on-a-line" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B97" r:id="rId87" display="https://leetcode.com/problems/evaluate-reverse-polish-notation" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B320" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B234" r:id="rId89" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B118" r:id="rId90" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B117" r:id="rId91" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B245" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B169" r:id="rId93" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B119" r:id="rId94" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B231" r:id="rId95" display="https://leetcode.com/problems/maximum-gap" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B100" r:id="rId96" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B215" r:id="rId97" display="https://leetcode.com/problems/majority-element" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B99" r:id="rId98" display="https://leetcode.com/problems/excel-sheet-column-number" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B189" r:id="rId99" display="https://leetcode.com/problems/largest-number" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B312" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="B11" r:id="rId101" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B403" r:id="rId102" display="https://leetcode.com/problems/word-frequency" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B23" r:id="rId103" display="https://leetcode.com/problems/binary-tree-right-side-view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B261" r:id="rId104" display="https://leetcode.com/problems/number-of-islands" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B307" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B152" r:id="rId106" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B317" r:id="rId107" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B334" r:id="rId108" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B291" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B202" r:id="rId110" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B268" r:id="rId111" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B150" r:id="rId112" display="https://leetcode.com/problems/implement-queue-using-stacks" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B175" r:id="rId113" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B205" r:id="rId114" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B151" r:id="rId115" display="https://leetcode.com/problems/implement-stack-using-queues" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B51" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B215" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B379" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B37" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B174" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B327" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B406" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B413" r:id="rId102" display="https://leetcode.com/problems/word-frequency" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B29" r:id="rId103" display="https://leetcode.com/problems/binary-tree-right-side-view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B270" r:id="rId104" display="https://leetcode.com/problems/number-of-islands" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B316" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B211" r:id="rId106" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B327" r:id="rId107" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B344" r:id="rId108" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B300" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B228" r:id="rId110" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B277" r:id="rId111" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B159" r:id="rId112" display="https://leetcode.com/problems/implement-queue-using-stacks" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B184" r:id="rId113" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B214" r:id="rId114" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B160" r:id="rId115" display="https://leetcode.com/problems/implement-stack-using-queues" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B64" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B224" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B389" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B45" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B183" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B337" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B416" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="B2" r:id="rId123" display="https://leetcode.com/problems/add-and-search-word-data-structure-design" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B247" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B19" r:id="rId125" display="https://leetcode.com/problems/binary-tree-paths" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B332" r:id="rId126" display="https://leetcode.com/problems/single-number-iii" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B249" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B158" r:id="rId128" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B145" r:id="rId129" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B144" r:id="rId130" display="https://leetcode.com/problems/h-index-ii" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B94" r:id="rId131" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B279" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B114" r:id="rId133" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B132" r:id="rId134" display="https://leetcode.com/problems/game-of-life" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B108" r:id="rId135" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B323" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B195" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B256" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B23" r:id="rId125" display="https://leetcode.com/problems/binary-tree-paths" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B342" r:id="rId126" display="https://leetcode.com/problems/single-number-iii" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B258" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B167" r:id="rId128" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B153" r:id="rId129" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B152" r:id="rId130" display="https://leetcode.com/problems/h-index-ii" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B102" r:id="rId131" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B288" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B122" r:id="rId133" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B140" r:id="rId134" display="https://leetcode.com/problems/game-of-life" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B116" r:id="rId135" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B334" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B204" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
     <hyperlink ref="B12" r:id="rId138" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B244" r:id="rId139" display="https://leetcode.com/problems/minimum-height-trees" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B27" r:id="rId140" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B53" r:id="rId141" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B299" r:id="rId142" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B58" r:id="rId143" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B35" r:id="rId144" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B52" r:id="rId145" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B265" r:id="rId146" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B194" r:id="rId147" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B322" r:id="rId148" display="https://leetcode.com/problems/self-crossing" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B146" r:id="rId149" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B157" r:id="rId150" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B382" r:id="rId151" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B62" r:id="rId152" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B176" r:id="rId153" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B154" r:id="rId154" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B189" r:id="rId155" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B118" r:id="rId156" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B191" r:id="rId157" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B280" r:id="rId158" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B164" r:id="rId159" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B63" r:id="rId160" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B324" r:id="rId161" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B259" r:id="rId162" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B285" r:id="rId139" display="https://leetcode.com/problems/minimum-height-trees" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B35" r:id="rId140" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B61" r:id="rId141" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B308" r:id="rId142" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B66" r:id="rId143" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B43" r:id="rId144" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B60" r:id="rId145" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B274" r:id="rId146" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B203" r:id="rId147" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B332" r:id="rId148" display="https://leetcode.com/problems/self-crossing" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B154" r:id="rId149" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId150" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B392" r:id="rId151" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B70" r:id="rId152" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B185" r:id="rId153" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B163" r:id="rId154" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B198" r:id="rId155" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B126" r:id="rId156" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B200" r:id="rId157" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B289" r:id="rId158" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B173" r:id="rId159" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B71" r:id="rId160" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B350" r:id="rId161" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B268" r:id="rId162" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
     <hyperlink ref="B3" r:id="rId163" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B99" r:id="rId164" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B177" r:id="rId165" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B278" r:id="rId166" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B112" r:id="rId167" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B107" r:id="rId164" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B186" r:id="rId165" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B292" r:id="rId166" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B120" r:id="rId167" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
     <hyperlink ref="B5" r:id="rId168" display="https://leetcode.com/problems/all-oone-data-structure" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B47" r:id="rId169" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B357" r:id="rId170" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B273" r:id="rId171" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B349" r:id="rId172" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B366" r:id="rId173" display="https://leetcode.com/problems/sum-of-left-leaves" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B130" r:id="rId174" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B346" r:id="rId175" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B245" r:id="rId176" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B281" r:id="rId177" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B186" r:id="rId178" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B54" r:id="rId179" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B38" r:id="rId180" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B335" r:id="rId181" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B285" r:id="rId182" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B153" r:id="rId183" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B309" r:id="rId184" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B377" r:id="rId185" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B75" r:id="rId186" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B162" r:id="rId187" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B254" r:id="rId188" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B251" r:id="rId189" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B102" r:id="rId190" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B127" r:id="rId191" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B197" r:id="rId192" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B34" r:id="rId193" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B46" r:id="rId194" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B201" r:id="rId195" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B45" r:id="rId196" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B292" r:id="rId197" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B237" r:id="rId198" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B133" r:id="rId199" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B84" r:id="rId200" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B330" r:id="rId201" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B76" r:id="rId202" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B128" r:id="rId203" display="https://leetcode.com/problems/friend-circles" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B220" r:id="rId204" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B358" r:id="rId205" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B113" r:id="rId206" display="https://leetcode.com/problems/find-the-closest-palindrome" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B362" r:id="rId207" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B86" r:id="rId208" display="https://leetcode.com/problems/erect-the-fence" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B147" r:id="rId209" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B103" r:id="rId210" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B378" r:id="rId211" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B73" r:id="rId212" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B167" r:id="rId213" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B388" r:id="rId214" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B82" r:id="rId215" display="https://leetcode.com/problems/dota2-senate" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B304" r:id="rId216" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B270" r:id="rId217" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B223" r:id="rId218" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B72" r:id="rId219" display="https://leetcode.com/problems/design-circular-deque" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B64" r:id="rId220" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B8" r:id="rId221" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B93" r:id="rId222" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B338" r:id="rId223" display="https://leetcode.com/problems/smallest-range" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B106" r:id="rId224" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B229" r:id="rId225" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B355" r:id="rId226" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B178" r:id="rId227" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B228" r:id="rId228" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B262" r:id="rId229" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B193" r:id="rId230" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B60" r:id="rId231" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B149" r:id="rId232" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B170" r:id="rId233" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B383" r:id="rId234" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B208" r:id="rId235" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B275" r:id="rId236" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B97" r:id="rId237" display="https://leetcode.com/problems/falling-squares" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B319" r:id="rId238" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B173" r:id="rId239" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B74" r:id="rId240" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B13" r:id="rId241" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B293" r:id="rId242" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B107" r:id="rId243" display="https://leetcode.com/problems/find-k-th-smallest-pair-distance" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B351" r:id="rId244" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B125" r:id="rId245" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B7" r:id="rId246" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B61" r:id="rId247" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B67" r:id="rId248" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B33" r:id="rId249" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B253" r:id="rId250" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B286" r:id="rId251" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B57" r:id="rId252" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B55" r:id="rId253" display="https://leetcode.com/problems/couples-holding-hands" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B210" r:id="rId254" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B333" r:id="rId255" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B134" r:id="rId256" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B374" r:id="rId257" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B179" r:id="rId258" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B242" r:id="rId259" display="https://leetcode.com/problems/minimum-distance-between-bst-nodes" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B163" r:id="rId260" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B88" r:id="rId261" display="https://leetcode.com/problems/escape-the-ghosts" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B81" r:id="rId262" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B59" r:id="rId263" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B395" r:id="rId264" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B263" r:id="rId265" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B313" r:id="rId266" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B339" r:id="rId267" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B31" r:id="rId268" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B104" r:id="rId269" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B350" r:id="rId270" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B212" r:id="rId271" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B95" r:id="rId272" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B182" r:id="rId273" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B22" r:id="rId274" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B28" r:id="rId275" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B187" r:id="rId276" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B250" r:id="rId277" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B135" r:id="rId278" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B129" r:id="rId279" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B252" r:id="rId280" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B284" r:id="rId281" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B124" r:id="rId282" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B100" r:id="rId283" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B364" r:id="rId284" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B148" r:id="rId285" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B204" r:id="rId286" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B168" r:id="rId287" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B141" r:id="rId288" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B196" r:id="rId289" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B142" r:id="rId290" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B325" r:id="rId291" display="https://leetcode.com/problems/shifting-letters" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B216" r:id="rId292" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B172" r:id="rId293" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B90" r:id="rId294" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B184" r:id="rId295" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B315" r:id="rId296" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B329" r:id="rId297" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B4" r:id="rId298" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B342" r:id="rId299" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B287" r:id="rId300" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B183" r:id="rId301" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B171" r:id="rId302" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B235" r:id="rId303" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B354" r:id="rId304" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B66" r:id="rId305" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B25" r:id="rId306" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B371" r:id="rId307" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B96" r:id="rId308" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B43" r:id="rId309" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B101" r:id="rId310" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B369" r:id="rId311" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B6" r:id="rId312" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B267" r:id="rId313" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B393" r:id="rId314" display="https://leetcode.com/problems/valid-permutations-for-di-sequence" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B131" r:id="rId315" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B368" r:id="rId316" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B336" r:id="rId317" display="https://leetcode.com/problems/smallest-range-i" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B344" r:id="rId318" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B337" r:id="rId319" display="https://leetcode.com/problems/smallest-range-ii" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B266" r:id="rId320" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B345" r:id="rId321" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B408" r:id="rId322" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B190" r:id="rId323" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B123" r:id="rId324" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B380" r:id="rId325" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B243" r:id="rId326" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B169" r:id="rId327" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B294" r:id="rId328" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B78" r:id="rId329" display="https://leetcode.com/problems/distinct-subsequences-ii" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B115" r:id="rId330" display="https://leetcode.com/problems/find-the-shortest-superstring" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B70" r:id="rId331" display="https://leetcode.com/problems/delete-columns-to-make-sorted" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B306" r:id="rId332" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B122" r:id="rId333" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B397" r:id="rId334" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B68" r:id="rId335" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B376" r:id="rId336" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B290" r:id="rId337" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B32" r:id="rId338" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B69" r:id="rId339" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B258" r:id="rId340" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B15" r:id="rId341" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B120" r:id="rId342" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B85" r:id="rId343" display="https://leetcode.com/problems/equal-rational-numbers" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B166" r:id="rId344" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B359" r:id="rId345" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B352" r:id="rId346" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B80" r:id="rId347" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B381" r:id="rId348" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B238" r:id="rId349" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B365" r:id="rId350" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B161" r:id="rId351" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B398" r:id="rId352" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B340" r:id="rId353" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B360" r:id="rId354" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B56" r:id="rId355" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B116" r:id="rId356" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B218" r:id="rId357" display="https://leetcode.com/problems/maximum-binary-tree-ii" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B138" r:id="rId358" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B211" r:id="rId359" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B217" r:id="rId360" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B40" r:id="rId361" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B272" r:id="rId362" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B255" r:id="rId363" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B260" r:id="rId364" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B367" r:id="rId365" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B399" r:id="rId366" display="https://leetcode.com/problems/video-stitching" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B221" r:id="rId367" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B295" r:id="rId368" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B207" r:id="rId369" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B227" r:id="rId370" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B356" r:id="rId371" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B36" r:id="rId372" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B389" r:id="rId373" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B87" r:id="rId374" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B14" r:id="rId375" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B126" r:id="rId376" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B271" r:id="rId377" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B143" r:id="rId378" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B140" r:id="rId379" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B77" r:id="rId380" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B137" r:id="rId381" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B121" r:id="rId382" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B264" r:id="rId383" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B156" r:id="rId384" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B341" r:id="rId385" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B328" r:id="rId386" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B326" r:id="rId387" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B353" r:id="rId388" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B30" r:id="rId389" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B105" r:id="rId390" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B276" r:id="rId391" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B98" r:id="rId392" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B50" r:id="rId393" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B71" r:id="rId394" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B288" r:id="rId395" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B289" r:id="rId396" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B26" r:id="rId397" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B298" r:id="rId398" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B343" r:id="rId399" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B240" r:id="rId400" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B224" r:id="rId401" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B39" r:id="rId402" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B209" r:id="rId403" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B239" r:id="rId404" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B56" r:id="rId169" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B368" r:id="rId170" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B282" r:id="rId171" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B360" r:id="rId172" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B138" r:id="rId173" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B356" r:id="rId174" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B254" r:id="rId175" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B290" r:id="rId176" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId177" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B62" r:id="rId178" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B46" r:id="rId179" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B345" r:id="rId180" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B294" r:id="rId181" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B162" r:id="rId182" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B318" r:id="rId183" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B387" r:id="rId184" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B83" r:id="rId185" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B171" r:id="rId186" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B263" r:id="rId187" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B286" r:id="rId188" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B127" r:id="rId189" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B135" r:id="rId190" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B206" r:id="rId191" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B42" r:id="rId192" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B54" r:id="rId193" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B210" r:id="rId194" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B53" r:id="rId195" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B301" r:id="rId196" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B246" r:id="rId197" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B141" r:id="rId198" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B92" r:id="rId199" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B340" r:id="rId200" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B88" r:id="rId201" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B136" r:id="rId202" display="https://leetcode.com/problems/friend-circles" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B238" r:id="rId203" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B369" r:id="rId204" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B121" r:id="rId205" display="https://leetcode.com/problems/find-the-closest-palindrome" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B375" r:id="rId206" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B94" r:id="rId207" display="https://leetcode.com/problems/erect-the-fence" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B155" r:id="rId208" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B111" r:id="rId209" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B388" r:id="rId210" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B81" r:id="rId211" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B176" r:id="rId212" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B398" r:id="rId213" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B90" r:id="rId214" display="https://leetcode.com/problems/dota2-senate" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B313" r:id="rId215" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B279" r:id="rId216" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B232" r:id="rId217" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B80" r:id="rId218" display="https://leetcode.com/problems/design-circular-deque" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B72" r:id="rId219" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B8" r:id="rId220" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B101" r:id="rId221" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B348" r:id="rId222" display="https://leetcode.com/problems/smallest-range" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B114" r:id="rId223" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B250" r:id="rId224" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B366" r:id="rId225" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B187" r:id="rId226" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B237" r:id="rId227" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B271" r:id="rId228" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B202" r:id="rId229" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B68" r:id="rId230" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B158" r:id="rId231" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B179" r:id="rId232" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B393" r:id="rId233" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B217" r:id="rId234" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B284" r:id="rId235" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B105" r:id="rId236" display="https://leetcode.com/problems/falling-squares" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B329" r:id="rId237" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B182" r:id="rId238" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B82" r:id="rId239" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B13" r:id="rId240" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B302" r:id="rId241" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B115" r:id="rId242" display="https://leetcode.com/problems/find-k-th-smallest-pair-distance" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B362" r:id="rId243" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B133" r:id="rId244" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B7" r:id="rId245" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B69" r:id="rId246" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B75" r:id="rId247" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B41" r:id="rId248" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B262" r:id="rId249" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B295" r:id="rId250" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B65" r:id="rId251" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B63" r:id="rId252" display="https://leetcode.com/problems/couples-holding-hands" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B219" r:id="rId253" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B343" r:id="rId254" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B142" r:id="rId255" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B384" r:id="rId256" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B188" r:id="rId257" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B260" r:id="rId258" display="https://leetcode.com/problems/minimum-distance-between-bst-nodes" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B172" r:id="rId259" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B96" r:id="rId260" display="https://leetcode.com/problems/escape-the-ghosts" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B89" r:id="rId261" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B67" r:id="rId262" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B405" r:id="rId263" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B272" r:id="rId264" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B323" r:id="rId265" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B349" r:id="rId266" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B39" r:id="rId267" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B112" r:id="rId268" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B361" r:id="rId269" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B221" r:id="rId270" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B103" r:id="rId271" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B191" r:id="rId272" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B26" r:id="rId273" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B36" r:id="rId274" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B196" r:id="rId275" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B259" r:id="rId276" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B143" r:id="rId277" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B137" r:id="rId278" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B261" r:id="rId279" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B293" r:id="rId280" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B132" r:id="rId281" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B108" r:id="rId282" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B377" r:id="rId283" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B156" r:id="rId284" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B213" r:id="rId285" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B177" r:id="rId286" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B149" r:id="rId287" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B205" r:id="rId288" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B150" r:id="rId289" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B335" r:id="rId290" display="https://leetcode.com/problems/shifting-letters" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B225" r:id="rId291" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B181" r:id="rId292" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B98" r:id="rId293" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B193" r:id="rId294" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B325" r:id="rId295" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B339" r:id="rId296" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B4" r:id="rId297" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B373" r:id="rId298" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B296" r:id="rId299" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B227" r:id="rId300" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B180" r:id="rId301" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B244" r:id="rId302" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B365" r:id="rId303" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B74" r:id="rId304" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B33" r:id="rId305" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B381" r:id="rId306" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B104" r:id="rId307" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B55" r:id="rId308" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B109" r:id="rId309" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B379" r:id="rId310" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B6" r:id="rId311" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B276" r:id="rId312" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B403" r:id="rId313" display="https://leetcode.com/problems/valid-permutations-for-di-sequence" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B139" r:id="rId314" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B378" r:id="rId315" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B346" r:id="rId316" display="https://leetcode.com/problems/smallest-range-i" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B354" r:id="rId317" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B347" r:id="rId318" display="https://leetcode.com/problems/smallest-range-ii" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B275" r:id="rId319" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B355" r:id="rId320" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B418" r:id="rId321" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B199" r:id="rId322" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B131" r:id="rId323" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B390" r:id="rId324" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B252" r:id="rId325" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B178" r:id="rId326" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B305" r:id="rId327" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B86" r:id="rId328" display="https://leetcode.com/problems/distinct-subsequences-ii" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B123" r:id="rId329" display="https://leetcode.com/problems/find-the-shortest-superstring" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B78" r:id="rId330" display="https://leetcode.com/problems/delete-columns-to-make-sorted" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B315" r:id="rId331" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B130" r:id="rId332" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B407" r:id="rId333" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B76" r:id="rId334" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B386" r:id="rId335" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B299" r:id="rId336" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B48" r:id="rId337" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B77" r:id="rId338" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B267" r:id="rId339" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B17" r:id="rId340" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B161" r:id="rId341" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B93" r:id="rId342" display="https://leetcode.com/problems/equal-rational-numbers" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B175" r:id="rId343" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B370" r:id="rId344" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B363" r:id="rId345" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B110" r:id="rId346" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B391" r:id="rId347" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B247" r:id="rId348" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B376" r:id="rId349" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B170" r:id="rId350" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B32" r:id="rId351" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B352" r:id="rId352" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B371" r:id="rId353" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B79" r:id="rId354" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B124" r:id="rId355" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B229" r:id="rId356" display="https://leetcode.com/problems/maximum-binary-tree-ii" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B146" r:id="rId357" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B220" r:id="rId358" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B226" r:id="rId359" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B49" r:id="rId360" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B281" r:id="rId361" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B264" r:id="rId362" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B269" r:id="rId363" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B380" r:id="rId364" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B409" r:id="rId365" display="https://leetcode.com/problems/video-stitching" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B249" r:id="rId366" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B324" r:id="rId367" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B216" r:id="rId368" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B236" r:id="rId369" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B367" r:id="rId370" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B44" r:id="rId371" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B399" r:id="rId372" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B95" r:id="rId373" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B14" r:id="rId374" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B134" r:id="rId375" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B280" r:id="rId376" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B151" r:id="rId377" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B148" r:id="rId378" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B85" r:id="rId379" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B145" r:id="rId380" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B129" r:id="rId381" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B273" r:id="rId382" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B165" r:id="rId383" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B351" r:id="rId384" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B338" r:id="rId385" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B336" r:id="rId386" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B364" r:id="rId387" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B38" r:id="rId388" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B113" r:id="rId389" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B287" r:id="rId390" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B106" r:id="rId391" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B58" r:id="rId392" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B84" r:id="rId393" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B297" r:id="rId394" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B298" r:id="rId395" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B34" r:id="rId396" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B307" r:id="rId397" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B353" r:id="rId398" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B251" r:id="rId399" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B233" r:id="rId400" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B47" r:id="rId401" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B218" r:id="rId402" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B248" r:id="rId403" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId405"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId404"/>
 </worksheet>
 </file>
 

--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C56DA-0645-4AE2-A987-846A2D592F6B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B0904-3730-4B5C-9203-C3DC5C655CDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="691">
   <si>
     <t>Medium</t>
   </si>
@@ -2116,6 +2116,15 @@
   </si>
   <si>
     <t>Identical Tree   </t>
+  </si>
+  <si>
+    <t>Validate Complete Binary Tree </t>
+  </si>
+  <si>
+    <t>Convert Binary Tree To Doubly Linked List</t>
+  </si>
+  <si>
+    <t>need to code revisited</t>
   </si>
 </sst>
 </file>
@@ -2489,11 +2498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:F418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2524,9 +2533,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A22" si="0">ROW(A1)</f>
+        <f t="shared" ref="A2:A3" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2542,7 +2551,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2559,7 +2568,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>ROW(A3)</f>
+        <f t="shared" ref="A4:A67" si="1">ROW(A3)</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2572,9 +2581,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f>ROW(A4)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2589,7 +2598,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f>ROW(A5)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2602,9 +2611,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f>ROW(A6)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2617,7 +2626,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f>ROW(A7)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2632,7 +2641,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f>ROW(A8)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2645,9 +2654,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f>ROW(A9)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2658,9 +2667,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f>ROW(A10)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2671,9 +2680,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f>ROW(A11)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2684,9 +2693,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f>ROW(A12)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2699,7 +2708,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f>ROW(A13)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2714,7 +2723,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f>ROW(A14)</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2729,7 +2738,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f>ROW(A15)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2744,7 +2753,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f>ROW(A16)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2759,7 +2768,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f>ROW(A17)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2774,7 +2783,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f>ROW(A18)</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2789,7 +2798,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f>ROW(A19)</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2804,7 +2813,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f>ROW(A20)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2819,7 +2828,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f>ROW(A21)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2834,7 +2843,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f>ROW(A22)</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2849,7 +2858,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f>ROW(A23)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2864,7 +2873,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f>ROW(A24)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2879,7 +2888,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f>ROW(A25)</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2894,7 +2903,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f>ROW(A26)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2909,7 +2918,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f>ROW(A27)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2924,7 +2933,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f>ROW(A28)</f>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2939,7 +2948,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f>ROW(A29)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2954,7 +2963,7 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f>ROW(A30)</f>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2967,96 +2976,94 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f>ROW(A31)</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>685</v>
+        <v>329</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f>ROW(A32)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>329</v>
+        <v>522</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D33" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f>ROW(A33)</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f>ROW(A34)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f>ROW(A35)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>263</v>
+        <v>610</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f>ROW(A36)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>610</v>
+        <v>508</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f>ROW(A37)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>508</v>
+        <v>251</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
@@ -3065,52 +3072,54 @@
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f>ROW(A38)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>587</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>ROW(A39)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>587</v>
+        <v>211</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D40" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <f>ROW(A40)</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f>ROW(A41)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>648</v>
@@ -3119,78 +3128,78 @@
         <v>647</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f>ROW(A42)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>476</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <f>ROW(A43)</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <f>ROW(A44)</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f>ROW(A45)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>648</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f>ROW(A46)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>688</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>644</v>
+      </c>
       <c r="D47" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f>ROW(A47)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>644</v>
@@ -3201,11 +3210,11 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f>ROW(A48)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>644</v>
@@ -3216,11 +3225,11 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f>ROW(A49)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>644</v>
@@ -3229,57 +3238,57 @@
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f>ROW(A50)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f>ROW(A51)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>535</v>
+        <v>123</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
+      <c r="E52" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <f>ROW(A52)</f>
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="E53" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f>ROW(A53)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>337</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>647</v>
@@ -3287,11 +3296,11 @@
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <f>ROW(A54)</f>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>644</v>
@@ -3299,55 +3308,51 @@
       <c r="D55" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <f>ROW(A55)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>612</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f>ROW(A56)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <f>ROW(A57)</f>
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <f>ROW(A58)</f>
-        <v>58</v>
-      </c>
       <c r="B59" s="2" t="s">
         <v>593</v>
       </c>
@@ -3358,9 +3363,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f>ROW(A59)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3371,9 +3376,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f>ROW(A60)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3381,9 +3386,9 @@
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f>ROW(A61)</f>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3391,9 +3396,9 @@
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f>ROW(A62)</f>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3403,7 +3408,7 @@
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f>ROW(A63)</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3416,9 +3421,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f>ROW(A64)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3426,9 +3431,9 @@
       </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f>ROW(A65)</f>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3436,9 +3441,9 @@
       </c>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f>ROW(A66)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3446,9 +3451,9 @@
       </c>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f>ROW(A67)</f>
+        <f t="shared" ref="A68:A131" si="2">ROW(A67)</f>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3458,9 +3463,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f>ROW(A68)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3468,9 +3473,9 @@
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f>ROW(A69)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3478,9 +3483,9 @@
       </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f>ROW(A70)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3488,9 +3493,9 @@
       </c>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f>ROW(A71)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3498,9 +3503,9 @@
       </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f>ROW(A72)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3508,9 +3513,9 @@
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f>ROW(A73)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3518,9 +3523,9 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f>ROW(A74)</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3528,9 +3533,9 @@
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f>ROW(A75)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3538,9 +3543,9 @@
       </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f>ROW(A76)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3548,9 +3553,9 @@
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f>ROW(A77)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3560,7 +3565,7 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f>ROW(A78)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3573,9 +3578,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f>ROW(A79)</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3583,9 +3588,9 @@
       </c>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <f>ROW(A80)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3593,9 +3598,9 @@
       </c>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <f>ROW(A81)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3603,9 +3608,9 @@
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f>ROW(A82)</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3615,7 +3620,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f>ROW(A83)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3628,9 +3633,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f>ROW(A84)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3638,9 +3643,9 @@
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <f>ROW(A85)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3648,9 +3653,9 @@
       </c>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <f>ROW(A86)</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3660,7 +3665,7 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <f>ROW(A87)</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3673,9 +3678,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <f>ROW(A88)</f>
+        <f t="shared" si="2"/>
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3683,9 +3688,9 @@
       </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <f>ROW(A89)</f>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3693,9 +3698,9 @@
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <f>ROW(A90)</f>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3703,9 +3708,9 @@
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <f>ROW(A91)</f>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3713,9 +3718,9 @@
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <f>ROW(A92)</f>
+        <f t="shared" si="2"/>
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3723,9 +3728,9 @@
       </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <f>ROW(A93)</f>
+        <f t="shared" si="2"/>
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3733,9 +3738,9 @@
       </c>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <f>ROW(A94)</f>
+        <f t="shared" si="2"/>
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3743,9 +3748,9 @@
       </c>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <f>ROW(A95)</f>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3753,18 +3758,18 @@
       </c>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <f>ROW(A96)</f>
+        <f t="shared" si="2"/>
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <f>ROW(A97)</f>
+        <f t="shared" si="2"/>
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3772,9 +3777,9 @@
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <f>ROW(A98)</f>
+        <f t="shared" si="2"/>
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3782,9 +3787,9 @@
       </c>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <f>ROW(A99)</f>
+        <f t="shared" si="2"/>
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3792,9 +3797,9 @@
       </c>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <f>ROW(A100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3802,9 +3807,9 @@
       </c>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <f>ROW(A101)</f>
+        <f t="shared" si="2"/>
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3812,9 +3817,9 @@
       </c>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <f>ROW(A102)</f>
+        <f t="shared" si="2"/>
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3822,9 +3827,9 @@
       </c>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <f>ROW(A103)</f>
+        <f t="shared" si="2"/>
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3832,9 +3837,9 @@
       </c>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <f>ROW(A104)</f>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3842,9 +3847,9 @@
       </c>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <f>ROW(A105)</f>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3852,9 +3857,9 @@
       </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <f>ROW(A106)</f>
+        <f t="shared" si="2"/>
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3862,9 +3867,9 @@
       </c>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <f>ROW(A107)</f>
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3872,9 +3877,9 @@
       </c>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <f>ROW(A108)</f>
+        <f t="shared" si="2"/>
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3884,7 +3889,7 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <f>ROW(A109)</f>
+        <f t="shared" si="2"/>
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3897,9 +3902,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <f>ROW(A110)</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3907,9 +3912,9 @@
       </c>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <f>ROW(A111)</f>
+        <f t="shared" si="2"/>
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3917,9 +3922,9 @@
       </c>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <f>ROW(A112)</f>
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3927,9 +3932,9 @@
       </c>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <f>ROW(A113)</f>
+        <f t="shared" si="2"/>
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3937,9 +3942,9 @@
       </c>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <f>ROW(A114)</f>
+        <f t="shared" si="2"/>
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3947,9 +3952,9 @@
       </c>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <f>ROW(A115)</f>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3957,9 +3962,9 @@
       </c>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <f>ROW(A116)</f>
+        <f t="shared" si="2"/>
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3967,9 +3972,9 @@
       </c>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <f>ROW(A117)</f>
+        <f t="shared" si="2"/>
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3977,9 +3982,9 @@
       </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <f>ROW(A118)</f>
+        <f t="shared" si="2"/>
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3987,9 +3992,9 @@
       </c>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <f>ROW(A119)</f>
+        <f t="shared" si="2"/>
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -3997,9 +4002,9 @@
       </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <f>ROW(A120)</f>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -4007,9 +4012,9 @@
       </c>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <f>ROW(A121)</f>
+        <f t="shared" si="2"/>
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -4017,9 +4022,9 @@
       </c>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <f>ROW(A122)</f>
+        <f t="shared" si="2"/>
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -4027,9 +4032,9 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <f>ROW(A123)</f>
+        <f t="shared" si="2"/>
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -4037,9 +4042,9 @@
       </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <f>ROW(A124)</f>
+        <f t="shared" si="2"/>
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -4047,9 +4052,9 @@
       </c>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <f>ROW(A125)</f>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -4059,7 +4064,7 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <f>ROW(A126)</f>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -4074,7 +4079,7 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <f>ROW(A127)</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -4087,9 +4092,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <f>ROW(A128)</f>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -4097,9 +4102,9 @@
       </c>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <f>ROW(A129)</f>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -4109,9 +4114,9 @@
         <v>650</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <f>ROW(A130)</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4119,9 +4124,9 @@
       </c>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <f>ROW(A131)</f>
+        <f t="shared" ref="A132:A195" si="3">ROW(A131)</f>
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4129,9 +4134,9 @@
       </c>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <f>ROW(A132)</f>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4139,9 +4144,9 @@
       </c>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <f>ROW(A133)</f>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4149,9 +4154,9 @@
       </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <f>ROW(A134)</f>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -4159,9 +4164,9 @@
       </c>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <f>ROW(A135)</f>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4169,9 +4174,9 @@
       </c>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <f>ROW(A136)</f>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4179,9 +4184,9 @@
       </c>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <f>ROW(A137)</f>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4189,9 +4194,9 @@
       </c>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <f>ROW(A138)</f>
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4199,9 +4204,9 @@
       </c>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <f>ROW(A139)</f>
+        <f t="shared" si="3"/>
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -4209,9 +4214,9 @@
       </c>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <f>ROW(A140)</f>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4219,9 +4224,9 @@
       </c>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <f>ROW(A141)</f>
+        <f t="shared" si="3"/>
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4229,9 +4234,9 @@
       </c>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <f>ROW(A142)</f>
+        <f t="shared" si="3"/>
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4239,9 +4244,9 @@
       </c>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <f>ROW(A143)</f>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4249,9 +4254,9 @@
       </c>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <f>ROW(A144)</f>
+        <f t="shared" si="3"/>
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4259,9 +4264,9 @@
       </c>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <f>ROW(A145)</f>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4269,9 +4274,9 @@
       </c>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <f>ROW(A146)</f>
+        <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4279,9 +4284,9 @@
       </c>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <f>ROW(A147)</f>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4289,9 +4294,9 @@
       </c>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <f>ROW(A148)</f>
+        <f t="shared" si="3"/>
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -4299,9 +4304,9 @@
       </c>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <f>ROW(A149)</f>
+        <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4309,9 +4314,9 @@
       </c>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <f>ROW(A150)</f>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4319,9 +4324,9 @@
       </c>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <f>ROW(A151)</f>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4329,9 +4334,9 @@
       </c>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <f>ROW(A152)</f>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4339,9 +4344,9 @@
       </c>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <f>ROW(A153)</f>
+        <f t="shared" si="3"/>
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -4349,9 +4354,9 @@
       </c>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <f>ROW(A154)</f>
+        <f t="shared" si="3"/>
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4359,9 +4364,9 @@
       </c>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <f>ROW(A155)</f>
+        <f t="shared" si="3"/>
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -4369,9 +4374,9 @@
       </c>
       <c r="C156" s="1"/>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <f>ROW(A156)</f>
+        <f t="shared" si="3"/>
         <v>156</v>
       </c>
       <c r="B157" t="s">
@@ -4384,9 +4389,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <f>ROW(A157)</f>
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -4394,9 +4399,9 @@
       </c>
       <c r="C158" s="1"/>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <f>ROW(A158)</f>
+        <f t="shared" si="3"/>
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -4406,9 +4411,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <f>ROW(A159)</f>
+        <f t="shared" si="3"/>
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -4420,7 +4425,7 @@
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f>ROW(A160)</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -4430,9 +4435,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <f>ROW(A161)</f>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -4440,9 +4445,9 @@
       </c>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <f>ROW(A162)</f>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4450,9 +4455,9 @@
       </c>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <f>ROW(A163)</f>
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -4460,9 +4465,9 @@
       </c>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <f>ROW(A164)</f>
+        <f t="shared" si="3"/>
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4470,9 +4475,9 @@
       </c>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <f>ROW(A165)</f>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -4480,9 +4485,9 @@
       </c>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <f>ROW(A166)</f>
+        <f t="shared" si="3"/>
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -4490,9 +4495,9 @@
       </c>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <f>ROW(A167)</f>
+        <f t="shared" si="3"/>
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -4500,9 +4505,9 @@
       </c>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <f>ROW(A168)</f>
+        <f t="shared" si="3"/>
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -4512,9 +4517,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <f>ROW(A169)</f>
+        <f t="shared" si="3"/>
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -4524,9 +4529,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <f>ROW(A170)</f>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4534,9 +4539,9 @@
       </c>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <f>ROW(A171)</f>
+        <f t="shared" si="3"/>
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -4544,9 +4549,9 @@
       </c>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <f>ROW(A172)</f>
+        <f t="shared" si="3"/>
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -4554,9 +4559,9 @@
       </c>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <f>ROW(A173)</f>
+        <f t="shared" si="3"/>
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -4564,9 +4569,9 @@
       </c>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <f>ROW(A174)</f>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -4574,9 +4579,9 @@
       </c>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <f>ROW(A175)</f>
+        <f t="shared" si="3"/>
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -4584,9 +4589,9 @@
       </c>
       <c r="C176" s="1"/>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <f>ROW(A176)</f>
+        <f t="shared" si="3"/>
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -4594,9 +4599,9 @@
       </c>
       <c r="C177" s="1"/>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <f>ROW(A177)</f>
+        <f t="shared" si="3"/>
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -4604,9 +4609,9 @@
       </c>
       <c r="C178" s="1"/>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <f>ROW(A178)</f>
+        <f t="shared" si="3"/>
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -4614,9 +4619,9 @@
       </c>
       <c r="C179" s="1"/>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <f>ROW(A179)</f>
+        <f t="shared" si="3"/>
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -4624,9 +4629,9 @@
       </c>
       <c r="C180" s="1"/>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <f>ROW(A180)</f>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -4634,9 +4639,9 @@
       </c>
       <c r="C181" s="1"/>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <f>ROW(A181)</f>
+        <f t="shared" si="3"/>
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -4644,9 +4649,9 @@
       </c>
       <c r="C182" s="1"/>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <f>ROW(A182)</f>
+        <f t="shared" si="3"/>
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -4654,9 +4659,9 @@
       </c>
       <c r="C183" s="1"/>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <f>ROW(A183)</f>
+        <f t="shared" si="3"/>
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -4664,9 +4669,9 @@
       </c>
       <c r="C184" s="1"/>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <f>ROW(A184)</f>
+        <f t="shared" si="3"/>
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4676,9 +4681,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <f>ROW(A185)</f>
+        <f t="shared" si="3"/>
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -4686,9 +4691,9 @@
       </c>
       <c r="C186" s="1"/>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <f>ROW(A186)</f>
+        <f t="shared" si="3"/>
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -4696,9 +4701,9 @@
       </c>
       <c r="C187" s="1"/>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <f>ROW(A187)</f>
+        <f t="shared" si="3"/>
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -4706,9 +4711,9 @@
       </c>
       <c r="C188" s="1"/>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <f>ROW(A188)</f>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -4716,9 +4721,9 @@
       </c>
       <c r="C189" s="1"/>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <f>ROW(A189)</f>
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -4726,9 +4731,9 @@
       </c>
       <c r="C190" s="1"/>
     </row>
-    <row r="191" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <f>ROW(A190)</f>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -4738,7 +4743,7 @@
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <f>ROW(A191)</f>
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -4751,9 +4756,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <f>ROW(A192)</f>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -4761,9 +4766,9 @@
       </c>
       <c r="C193" s="1"/>
     </row>
-    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <f>ROW(A193)</f>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -4771,9 +4776,9 @@
       </c>
       <c r="C194" s="1"/>
     </row>
-    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <f>ROW(A194)</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -4783,9 +4788,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <f>ROW(A195)</f>
+        <f t="shared" ref="A196:A259" si="4">ROW(A195)</f>
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -4795,9 +4800,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <f>ROW(A196)</f>
+        <f t="shared" si="4"/>
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -4807,9 +4812,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <f>ROW(A197)</f>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -4819,9 +4824,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <f>ROW(A198)</f>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -4829,9 +4834,9 @@
       </c>
       <c r="C199" s="1"/>
     </row>
-    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <f>ROW(A199)</f>
+        <f t="shared" si="4"/>
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -4839,9 +4844,9 @@
       </c>
       <c r="C200" s="1"/>
     </row>
-    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <f>ROW(A200)</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -4849,9 +4854,9 @@
       </c>
       <c r="C201" s="1"/>
     </row>
-    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <f>ROW(A201)</f>
+        <f t="shared" si="4"/>
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -4859,9 +4864,9 @@
       </c>
       <c r="C202" s="1"/>
     </row>
-    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <f>ROW(A202)</f>
+        <f t="shared" si="4"/>
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -4871,9 +4876,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <f>ROW(A203)</f>
+        <f t="shared" si="4"/>
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -4881,9 +4886,9 @@
       </c>
       <c r="C204" s="1"/>
     </row>
-    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <f>ROW(A204)</f>
+        <f t="shared" si="4"/>
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -4891,9 +4896,9 @@
       </c>
       <c r="C205" s="1"/>
     </row>
-    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <f>ROW(A205)</f>
+        <f t="shared" si="4"/>
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -4901,9 +4906,9 @@
       </c>
       <c r="C206" s="1"/>
     </row>
-    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <f>ROW(A206)</f>
+        <f t="shared" si="4"/>
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -4911,9 +4916,9 @@
       </c>
       <c r="C207" s="1"/>
     </row>
-    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <f>ROW(A207)</f>
+        <f t="shared" si="4"/>
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -4921,9 +4926,9 @@
       </c>
       <c r="C208" s="1"/>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <f>ROW(A208)</f>
+        <f t="shared" si="4"/>
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -4931,9 +4936,9 @@
       </c>
       <c r="C209" s="1"/>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <f>ROW(A209)</f>
+        <f t="shared" si="4"/>
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -4943,7 +4948,7 @@
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <f>ROW(A210)</f>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -4953,9 +4958,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <f>ROW(A211)</f>
+        <f t="shared" si="4"/>
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -4968,9 +4973,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <f>ROW(A212)</f>
+        <f t="shared" si="4"/>
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -4980,9 +4985,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <f>ROW(A213)</f>
+        <f t="shared" si="4"/>
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -4993,9 +4998,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <f>ROW(A214)</f>
+        <f t="shared" si="4"/>
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -5006,9 +5011,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <f>ROW(A215)</f>
+        <f t="shared" si="4"/>
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -5018,9 +5023,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <f>ROW(A216)</f>
+        <f t="shared" si="4"/>
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -5030,9 +5035,9 @@
         <v>655</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <f>ROW(A217)</f>
+        <f t="shared" si="4"/>
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -5040,9 +5045,9 @@
       </c>
       <c r="C218" s="1"/>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <f>ROW(A218)</f>
+        <f t="shared" si="4"/>
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -5050,9 +5055,9 @@
       </c>
       <c r="C219" s="1"/>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <f>ROW(A219)</f>
+        <f t="shared" si="4"/>
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -5060,9 +5065,9 @@
       </c>
       <c r="C220" s="1"/>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <f>ROW(A220)</f>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -5070,9 +5075,9 @@
       </c>
       <c r="C221" s="1"/>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <f>ROW(A221)</f>
+        <f t="shared" si="4"/>
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -5080,9 +5085,9 @@
       </c>
       <c r="C222" s="1"/>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <f>ROW(A222)</f>
+        <f t="shared" si="4"/>
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -5092,9 +5097,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <f>ROW(A223)</f>
+        <f t="shared" si="4"/>
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -5104,9 +5109,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f>ROW(A224)</f>
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -5114,9 +5119,9 @@
       </c>
       <c r="C225" s="1"/>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <f>ROW(A225)</f>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -5126,7 +5131,7 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <f>ROW(A226)</f>
+        <f t="shared" si="4"/>
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -5138,7 +5143,7 @@
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <f>ROW(A227)</f>
+        <f t="shared" si="4"/>
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -5153,7 +5158,7 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <f>ROW(A228)</f>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -5165,7 +5170,7 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <f>ROW(A229)</f>
+        <f t="shared" si="4"/>
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -5175,9 +5180,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <f>ROW(A230)</f>
+        <f t="shared" si="4"/>
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -5185,9 +5190,9 @@
       </c>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <f>ROW(A231)</f>
+        <f t="shared" si="4"/>
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -5195,9 +5200,9 @@
       </c>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <f>ROW(A232)</f>
+        <f t="shared" si="4"/>
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -5205,9 +5210,9 @@
       </c>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <f>ROW(A233)</f>
+        <f t="shared" si="4"/>
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -5215,9 +5220,9 @@
       </c>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <f>ROW(A234)</f>
+        <f t="shared" si="4"/>
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -5225,9 +5230,9 @@
       </c>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <f>ROW(A235)</f>
+        <f t="shared" si="4"/>
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -5235,9 +5240,9 @@
       </c>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <f>ROW(A236)</f>
+        <f t="shared" si="4"/>
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -5247,7 +5252,7 @@
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <f>ROW(A237)</f>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
@@ -5257,9 +5262,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <f>ROW(A238)</f>
+        <f t="shared" si="4"/>
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -5267,9 +5272,9 @@
       </c>
       <c r="C239" s="1"/>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <f>ROW(A239)</f>
+        <f t="shared" si="4"/>
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -5277,9 +5282,9 @@
       </c>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <f>ROW(A240)</f>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -5289,9 +5294,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <f>ROW(A241)</f>
+        <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -5299,9 +5304,9 @@
       </c>
       <c r="C242" s="1"/>
     </row>
-    <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <f>ROW(A242)</f>
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -5311,9 +5316,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <f>ROW(A243)</f>
+        <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -5323,9 +5328,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <f>ROW(A244)</f>
+        <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -5335,9 +5340,9 @@
         <v>675</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <f>ROW(A245)</f>
+        <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -5345,9 +5350,9 @@
       </c>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <f>ROW(A246)</f>
+        <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -5355,9 +5360,9 @@
       </c>
       <c r="C247" s="1"/>
     </row>
-    <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <f>ROW(A247)</f>
+        <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -5367,7 +5372,7 @@
     </row>
     <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <f>ROW(A248)</f>
+        <f t="shared" si="4"/>
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -5379,7 +5384,7 @@
     </row>
     <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <f>ROW(A249)</f>
+        <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -5391,7 +5396,7 @@
     </row>
     <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <f>ROW(A250)</f>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -5401,9 +5406,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <f>ROW(A251)</f>
+        <f t="shared" si="4"/>
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -5413,7 +5418,7 @@
     </row>
     <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <f>ROW(A252)</f>
+        <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -5423,9 +5428,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <f>ROW(A253)</f>
+        <f t="shared" si="4"/>
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -5433,9 +5438,9 @@
       </c>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <f>ROW(A254)</f>
+        <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -5443,9 +5448,9 @@
       </c>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <f>ROW(A255)</f>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -5453,9 +5458,9 @@
       </c>
       <c r="C256" s="1"/>
     </row>
-    <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <f>ROW(A256)</f>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -5463,9 +5468,9 @@
       </c>
       <c r="C257" s="1"/>
     </row>
-    <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
-        <f>ROW(A257)</f>
+        <f t="shared" si="4"/>
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
@@ -5473,9 +5478,9 @@
       </c>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f>ROW(A258)</f>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -5485,7 +5490,7 @@
     </row>
     <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f>ROW(A259)</f>
+        <f t="shared" ref="A260" si="5">ROW(A259)</f>
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -5495,9 +5500,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f>ROW(A260)</f>
+        <f t="shared" ref="A261:A323" si="6">ROW(A260)</f>
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -5505,9 +5510,9 @@
       </c>
       <c r="C261" s="1"/>
     </row>
-    <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <f>ROW(A261)</f>
+        <f t="shared" si="6"/>
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -5515,9 +5520,9 @@
       </c>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <f>ROW(A262)</f>
+        <f t="shared" si="6"/>
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -5525,9 +5530,9 @@
       </c>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <f>ROW(A263)</f>
+        <f t="shared" si="6"/>
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -5537,9 +5542,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <f>ROW(A264)</f>
+        <f t="shared" si="6"/>
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -5547,9 +5552,9 @@
       </c>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <f>ROW(A265)</f>
+        <f t="shared" si="6"/>
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -5557,9 +5562,9 @@
       </c>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f>ROW(A266)</f>
+        <f t="shared" si="6"/>
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -5567,9 +5572,9 @@
       </c>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f>ROW(A267)</f>
+        <f t="shared" si="6"/>
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -5577,9 +5582,9 @@
       </c>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <f>ROW(A268)</f>
+        <f t="shared" si="6"/>
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -5587,9 +5592,9 @@
       </c>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <f>ROW(A269)</f>
+        <f t="shared" si="6"/>
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -5597,9 +5602,9 @@
       </c>
       <c r="C270" s="1"/>
     </row>
-    <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <f>ROW(A270)</f>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -5607,9 +5612,9 @@
       </c>
       <c r="C271" s="1"/>
     </row>
-    <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <f>ROW(A271)</f>
+        <f t="shared" si="6"/>
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -5617,9 +5622,9 @@
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <f>ROW(A272)</f>
+        <f t="shared" si="6"/>
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -5629,9 +5634,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <f>ROW(A273)</f>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -5641,9 +5646,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f>ROW(A274)</f>
+        <f t="shared" si="6"/>
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -5651,9 +5656,9 @@
       </c>
       <c r="C275" s="1"/>
     </row>
-    <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f>ROW(A275)</f>
+        <f t="shared" si="6"/>
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -5661,9 +5666,9 @@
       </c>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <f>ROW(A276)</f>
+        <f t="shared" si="6"/>
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -5673,9 +5678,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <f>ROW(A277)</f>
+        <f t="shared" si="6"/>
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -5685,9 +5690,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <f>ROW(A278)</f>
+        <f t="shared" si="6"/>
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -5695,9 +5700,9 @@
       </c>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <f>ROW(A279)</f>
+        <f t="shared" si="6"/>
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -5705,9 +5710,9 @@
       </c>
       <c r="C280" s="1"/>
     </row>
-    <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <f>ROW(A280)</f>
+        <f t="shared" si="6"/>
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -5715,9 +5720,9 @@
       </c>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <f>ROW(A281)</f>
+        <f t="shared" si="6"/>
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -5725,9 +5730,9 @@
       </c>
       <c r="C282" s="1"/>
     </row>
-    <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f>ROW(A282)</f>
+        <f t="shared" si="6"/>
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -5737,9 +5742,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f>ROW(A283)</f>
+        <f t="shared" si="6"/>
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -5749,7 +5754,7 @@
     </row>
     <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <f>ROW(A284)</f>
+        <f t="shared" si="6"/>
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -5761,7 +5766,7 @@
     </row>
     <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <f>ROW(A285)</f>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -5773,7 +5778,7 @@
     </row>
     <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <f>ROW(A286)</f>
+        <f t="shared" si="6"/>
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -5783,9 +5788,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <f>ROW(A287)</f>
+        <f t="shared" si="6"/>
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -5795,9 +5800,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <f>ROW(A288)</f>
+        <f t="shared" si="6"/>
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -5807,9 +5812,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <f>ROW(A289)</f>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -5819,7 +5824,7 @@
     </row>
     <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <f>ROW(A290)</f>
+        <f t="shared" si="6"/>
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -5831,7 +5836,7 @@
     </row>
     <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <f>ROW(A291)</f>
+        <f t="shared" si="6"/>
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -5841,9 +5846,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <f>ROW(A292)</f>
+        <f t="shared" si="6"/>
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -5851,9 +5856,9 @@
       </c>
       <c r="C293" s="1"/>
     </row>
-    <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <f>ROW(A293)</f>
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -5861,9 +5866,9 @@
       </c>
       <c r="C294" s="1"/>
     </row>
-    <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <f>ROW(A294)</f>
+        <f t="shared" si="6"/>
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -5873,9 +5878,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <f>ROW(A295)</f>
+        <f t="shared" si="6"/>
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -5883,9 +5888,9 @@
       </c>
       <c r="C296" s="1"/>
     </row>
-    <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <f>ROW(A296)</f>
+        <f t="shared" si="6"/>
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -5895,9 +5900,9 @@
         <v>651</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <f>ROW(A297)</f>
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -5907,9 +5912,9 @@
         <v>651</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <f>ROW(A298)</f>
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -5917,9 +5922,9 @@
       </c>
       <c r="C299" s="1"/>
     </row>
-    <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <f>ROW(A299)</f>
+        <f t="shared" si="6"/>
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -5927,9 +5932,9 @@
       </c>
       <c r="C300" s="1"/>
     </row>
-    <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <f>ROW(A300)</f>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -5937,9 +5942,9 @@
       </c>
       <c r="C301" s="1"/>
     </row>
-    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <f>ROW(A301)</f>
+        <f t="shared" si="6"/>
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -5951,7 +5956,7 @@
     </row>
     <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <f>ROW(A302)</f>
+        <f t="shared" si="6"/>
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -5963,7 +5968,7 @@
     </row>
     <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <f>ROW(A303)</f>
+        <f t="shared" si="6"/>
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -5975,7 +5980,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <f>ROW(A304)</f>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -5985,9 +5990,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <f>ROW(A305)</f>
+        <f t="shared" si="6"/>
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -5998,9 +6003,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f>ROW(A306)</f>
+        <f t="shared" si="6"/>
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -6008,9 +6013,9 @@
       </c>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f>ROW(A307)</f>
+        <f t="shared" si="6"/>
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -6018,9 +6023,9 @@
       </c>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <f>ROW(A308)</f>
+        <f t="shared" si="6"/>
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -6030,9 +6035,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <f>ROW(A309)</f>
+        <f t="shared" si="6"/>
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -6042,9 +6047,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <f>ROW(A310)</f>
+        <f t="shared" si="6"/>
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -6054,9 +6059,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <f>ROW(A311)</f>
+        <f t="shared" si="6"/>
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -6064,9 +6069,9 @@
       </c>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <f>ROW(A312)</f>
+        <f t="shared" si="6"/>
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -6076,9 +6081,9 @@
         <v>643</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <f>ROW(A313)</f>
+        <f t="shared" si="6"/>
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -6086,18 +6091,18 @@
       </c>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <f>ROW(A314)</f>
+        <f t="shared" si="6"/>
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <f>ROW(A315)</f>
+        <f t="shared" si="6"/>
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -6107,9 +6112,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <f>ROW(A316)</f>
+        <f t="shared" si="6"/>
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -6119,9 +6124,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <f>ROW(A317)</f>
+        <f t="shared" si="6"/>
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -6131,9 +6136,9 @@
         <v>649</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <f>ROW(A318)</f>
+        <f t="shared" si="6"/>
         <v>318</v>
       </c>
       <c r="B319" t="s">
@@ -6146,9 +6151,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <f>ROW(A319)</f>
+        <f t="shared" si="6"/>
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -6156,9 +6161,9 @@
       </c>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <f>ROW(A320)</f>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -6166,9 +6171,9 @@
       </c>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <f>ROW(A321)</f>
+        <f t="shared" si="6"/>
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -6178,9 +6183,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <f>ROW(A322)</f>
+        <f t="shared" si="6"/>
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -6190,7 +6195,7 @@
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f>ROW(A323)</f>
+        <f t="shared" ref="A324" si="7">ROW(A323)</f>
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -6200,9 +6205,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <f>ROW(A324)</f>
+        <f t="shared" ref="A325:A387" si="8">ROW(A324)</f>
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -6212,9 +6217,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <f>ROW(A325)</f>
+        <f t="shared" si="8"/>
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -6222,9 +6227,9 @@
       </c>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <f>ROW(A326)</f>
+        <f t="shared" si="8"/>
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -6234,9 +6239,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <f>ROW(A327)</f>
+        <f t="shared" si="8"/>
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -6246,9 +6251,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <f>ROW(A328)</f>
+        <f t="shared" si="8"/>
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -6256,9 +6261,9 @@
       </c>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <f>ROW(A329)</f>
+        <f t="shared" si="8"/>
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -6266,9 +6271,9 @@
       </c>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f>ROW(A330)</f>
+        <f t="shared" si="8"/>
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -6276,9 +6281,9 @@
       </c>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f>ROW(A331)</f>
+        <f t="shared" si="8"/>
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -6288,7 +6293,7 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <f>ROW(A332)</f>
+        <f t="shared" si="8"/>
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -6300,7 +6305,7 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <f>ROW(A333)</f>
+        <f t="shared" si="8"/>
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -6313,9 +6318,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f>ROW(A334)</f>
+        <f t="shared" si="8"/>
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -6323,9 +6328,9 @@
       </c>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <f>ROW(A335)</f>
+        <f t="shared" si="8"/>
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -6333,9 +6338,9 @@
       </c>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <f>ROW(A336)</f>
+        <f t="shared" si="8"/>
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -6346,9 +6351,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <f>ROW(A337)</f>
+        <f t="shared" si="8"/>
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -6358,9 +6363,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <f>ROW(A338)</f>
+        <f t="shared" si="8"/>
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -6368,9 +6373,9 @@
       </c>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <f>ROW(A339)</f>
+        <f t="shared" si="8"/>
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -6378,9 +6383,9 @@
       </c>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <f>ROW(A340)</f>
+        <f t="shared" si="8"/>
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -6388,9 +6393,9 @@
       </c>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <f>ROW(A341)</f>
+        <f t="shared" si="8"/>
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -6398,9 +6403,9 @@
       </c>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <f>ROW(A342)</f>
+        <f t="shared" si="8"/>
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -6410,9 +6415,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <f>ROW(A343)</f>
+        <f t="shared" si="8"/>
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -6420,9 +6425,9 @@
       </c>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <f>ROW(A344)</f>
+        <f t="shared" si="8"/>
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -6430,9 +6435,9 @@
       </c>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <f>ROW(A345)</f>
+        <f t="shared" si="8"/>
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -6440,9 +6445,9 @@
       </c>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <f>ROW(A346)</f>
+        <f t="shared" si="8"/>
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -6450,9 +6455,9 @@
       </c>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <f>ROW(A347)</f>
+        <f t="shared" si="8"/>
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
@@ -6460,9 +6465,9 @@
       </c>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <f>ROW(A348)</f>
+        <f t="shared" si="8"/>
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -6472,7 +6477,7 @@
     </row>
     <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <f>ROW(A349)</f>
+        <f t="shared" si="8"/>
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -6482,9 +6487,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <f>ROW(A350)</f>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -6494,7 +6499,7 @@
     </row>
     <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <f>ROW(A351)</f>
+        <f t="shared" si="8"/>
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -6504,9 +6509,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <f>ROW(A352)</f>
+        <f t="shared" si="8"/>
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -6516,9 +6521,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <f>ROW(A353)</f>
+        <f t="shared" si="8"/>
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
@@ -6526,9 +6531,9 @@
       </c>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <f>ROW(A354)</f>
+        <f t="shared" si="8"/>
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -6536,9 +6541,9 @@
       </c>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <f>ROW(A355)</f>
+        <f t="shared" si="8"/>
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -6546,9 +6551,9 @@
       </c>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <f>ROW(A356)</f>
+        <f t="shared" si="8"/>
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -6561,9 +6566,9 @@
         <v>658</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <f>ROW(A357)</f>
+        <f t="shared" si="8"/>
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -6573,9 +6578,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <f>ROW(A358)</f>
+        <f t="shared" si="8"/>
         <v>358</v>
       </c>
       <c r="B359" t="s">
@@ -6588,9 +6593,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <f>ROW(A359)</f>
+        <f t="shared" si="8"/>
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -6598,9 +6603,9 @@
       </c>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <f>ROW(A360)</f>
+        <f t="shared" si="8"/>
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -6608,9 +6613,9 @@
       </c>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <f>ROW(A361)</f>
+        <f t="shared" si="8"/>
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -6620,9 +6625,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <f>ROW(A362)</f>
+        <f t="shared" si="8"/>
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -6630,9 +6635,9 @@
       </c>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <f>ROW(A363)</f>
+        <f t="shared" si="8"/>
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -6640,9 +6645,9 @@
       </c>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <f>ROW(A364)</f>
+        <f t="shared" si="8"/>
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -6650,9 +6655,9 @@
       </c>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <f>ROW(A365)</f>
+        <f t="shared" si="8"/>
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -6660,9 +6665,9 @@
       </c>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <f>ROW(A366)</f>
+        <f t="shared" si="8"/>
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -6670,9 +6675,9 @@
       </c>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <f>ROW(A367)</f>
+        <f t="shared" si="8"/>
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -6680,9 +6685,9 @@
       </c>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <f>ROW(A368)</f>
+        <f t="shared" si="8"/>
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -6690,9 +6695,9 @@
       </c>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <f>ROW(A369)</f>
+        <f t="shared" si="8"/>
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -6700,9 +6705,9 @@
       </c>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f>ROW(A370)</f>
+        <f t="shared" si="8"/>
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -6710,9 +6715,9 @@
       </c>
       <c r="C371" s="1"/>
     </row>
-    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <f>ROW(A371)</f>
+        <f t="shared" si="8"/>
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -6722,7 +6727,7 @@
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <f>ROW(A372)</f>
+        <f t="shared" si="8"/>
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -6735,9 +6740,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <f>ROW(A373)</f>
+        <f t="shared" si="8"/>
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -6747,7 +6752,7 @@
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <f>ROW(A374)</f>
+        <f t="shared" si="8"/>
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -6760,9 +6765,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <f>ROW(A375)</f>
+        <f t="shared" si="8"/>
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -6772,7 +6777,7 @@
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <f>ROW(A376)</f>
+        <f t="shared" si="8"/>
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -6782,9 +6787,9 @@
         <v>644</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <f>ROW(A377)</f>
+        <f t="shared" si="8"/>
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -6792,9 +6797,9 @@
       </c>
       <c r="C378" s="1"/>
     </row>
-    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <f>ROW(A378)</f>
+        <f t="shared" si="8"/>
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -6804,7 +6809,7 @@
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <f>ROW(A379)</f>
+        <f t="shared" si="8"/>
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -6817,9 +6822,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <f>ROW(A380)</f>
+        <f t="shared" si="8"/>
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -6829,9 +6834,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <f>ROW(A381)</f>
+        <f t="shared" si="8"/>
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -6842,9 +6847,9 @@
         <v>659</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <f>ROW(A382)</f>
+        <f t="shared" si="8"/>
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -6854,9 +6859,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <f>ROW(A383)</f>
+        <f t="shared" si="8"/>
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -6866,7 +6871,7 @@
     </row>
     <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <f>ROW(A384)</f>
+        <f t="shared" si="8"/>
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -6879,9 +6884,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <f>ROW(A385)</f>
+        <f t="shared" si="8"/>
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -6894,9 +6899,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <f>ROW(A386)</f>
+        <f t="shared" si="8"/>
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -6906,9 +6911,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <f>ROW(A387)</f>
+        <f t="shared" ref="A388:A408" si="9">ROW(A387)</f>
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -6919,9 +6924,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <f>ROW(A388)</f>
+        <f t="shared" si="9"/>
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -6932,9 +6937,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f>ROW(A389)</f>
+        <f t="shared" si="9"/>
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -6942,9 +6947,9 @@
       </c>
       <c r="C390" s="1"/>
     </row>
-    <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <f>ROW(A390)</f>
+        <f t="shared" si="9"/>
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -6954,9 +6959,9 @@
         <v>657</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <f>ROW(A391)</f>
+        <f t="shared" si="9"/>
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -6964,9 +6969,9 @@
       </c>
       <c r="C392" s="1"/>
     </row>
-    <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <f>ROW(A392)</f>
+        <f t="shared" si="9"/>
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -6974,9 +6979,9 @@
       </c>
       <c r="C393" s="1"/>
     </row>
-    <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <f>ROW(A393)</f>
+        <f t="shared" si="9"/>
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -6987,9 +6992,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f>ROW(A394)</f>
+        <f t="shared" si="9"/>
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -7008,9 +7013,9 @@
         <v>666</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f>ROW(A395)</f>
+        <f t="shared" si="9"/>
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -7029,9 +7034,9 @@
         <v>666</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <f>ROW(A396)</f>
+        <f t="shared" si="9"/>
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -7050,9 +7055,9 @@
         <v>666</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <f>ROW(A397)</f>
+        <f t="shared" si="9"/>
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -7069,9 +7074,9 @@
         <v>670</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <f>ROW(A398)</f>
+        <f t="shared" si="9"/>
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -7082,9 +7087,9 @@
         <v>656</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <f>ROW(A399)</f>
+        <f t="shared" si="9"/>
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -7095,9 +7100,9 @@
       </c>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <f>ROW(A400)</f>
+        <f t="shared" si="9"/>
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -7107,9 +7112,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <f>ROW(A401)</f>
+        <f t="shared" si="9"/>
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -7117,9 +7122,9 @@
       </c>
       <c r="C402" s="1"/>
     </row>
-    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <f>ROW(A402)</f>
+        <f t="shared" si="9"/>
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -7129,9 +7134,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <f>ROW(A403)</f>
+        <f t="shared" si="9"/>
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -7141,9 +7146,9 @@
         <v>655</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <f>ROW(A404)</f>
+        <f t="shared" si="9"/>
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -7156,7 +7161,7 @@
     </row>
     <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <f>ROW(A405)</f>
+        <f t="shared" si="9"/>
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -7169,9 +7174,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <f>ROW(A406)</f>
+        <f t="shared" si="9"/>
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -7181,7 +7186,7 @@
     </row>
     <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <f>ROW(A407)</f>
+        <f t="shared" si="9"/>
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -7194,9 +7199,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <f t="shared" ref="A407:A418" si="1">ROW(A408)</f>
+        <f t="shared" ref="A409:A418" si="10">ROW(A408)</f>
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -7207,9 +7212,9 @@
         <v>654</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -7220,9 +7225,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -7230,9 +7235,9 @@
       </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -7240,9 +7245,9 @@
       </c>
       <c r="C412" s="1"/>
     </row>
-    <row r="413" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
@@ -7250,9 +7255,9 @@
       </c>
       <c r="C413" s="1"/>
     </row>
-    <row r="414" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
@@ -7260,9 +7265,9 @@
       </c>
       <c r="C414" s="1"/>
     </row>
-    <row r="415" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -7270,9 +7275,9 @@
       </c>
       <c r="C415" s="1"/>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
@@ -7282,9 +7287,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -7297,9 +7302,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -7312,6 +7317,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F418" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Tree"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F408">
       <sortCondition ref="B1"/>
     </sortState>
@@ -7325,7 +7335,7 @@
     <hyperlink ref="B239" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B207" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B306" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B52" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B51" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="B396" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="B395" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="B310" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
@@ -7376,10 +7386,10 @@
     <hyperlink ref="B192" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
     <hyperlink ref="B406" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="B20" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B40" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B39" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="B230" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B51" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B50" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B50" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B49" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="B59" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="B9" r:id="rId61" display="https://leetcode.com/problems/balanced-binary-tree" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="B253" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
@@ -7395,9 +7405,9 @@
     <hyperlink ref="B385" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="B382" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="B278" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B37" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B36" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="B341" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B57" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B56" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="B412" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
     <hyperlink ref="B411" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="B197" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
@@ -7439,7 +7449,7 @@
     <hyperlink ref="B64" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="B224" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
     <hyperlink ref="B389" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B45" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B44" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
     <hyperlink ref="B183" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="B337" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
     <hyperlink ref="B416" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
@@ -7460,11 +7470,11 @@
     <hyperlink ref="B204" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
     <hyperlink ref="B12" r:id="rId138" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
     <hyperlink ref="B285" r:id="rId139" display="https://leetcode.com/problems/minimum-height-trees" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B35" r:id="rId140" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B34" r:id="rId140" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
     <hyperlink ref="B61" r:id="rId141" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
     <hyperlink ref="B308" r:id="rId142" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="B66" r:id="rId143" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B43" r:id="rId144" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B42" r:id="rId144" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
     <hyperlink ref="B60" r:id="rId145" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="B274" r:id="rId146" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
     <hyperlink ref="B203" r:id="rId147" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
@@ -7489,7 +7499,7 @@
     <hyperlink ref="B292" r:id="rId166" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
     <hyperlink ref="B120" r:id="rId167" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
     <hyperlink ref="B5" r:id="rId168" display="https://leetcode.com/problems/all-oone-data-structure" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B56" r:id="rId169" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B55" r:id="rId169" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
     <hyperlink ref="B368" r:id="rId170" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
     <hyperlink ref="B282" r:id="rId171" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
     <hyperlink ref="B360" r:id="rId172" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
@@ -7499,7 +7509,7 @@
     <hyperlink ref="B290" r:id="rId176" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
     <hyperlink ref="B195" r:id="rId177" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
     <hyperlink ref="B62" r:id="rId178" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B46" r:id="rId179" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B45" r:id="rId179" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
     <hyperlink ref="B345" r:id="rId180" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
     <hyperlink ref="B294" r:id="rId181" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
     <hyperlink ref="B162" r:id="rId182" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
@@ -7512,10 +7522,10 @@
     <hyperlink ref="B127" r:id="rId189" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
     <hyperlink ref="B135" r:id="rId190" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
     <hyperlink ref="B206" r:id="rId191" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B42" r:id="rId192" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B54" r:id="rId193" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B41" r:id="rId192" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B53" r:id="rId193" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
     <hyperlink ref="B210" r:id="rId194" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B53" r:id="rId195" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B52" r:id="rId195" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
     <hyperlink ref="B301" r:id="rId196" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
     <hyperlink ref="B246" r:id="rId197" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
     <hyperlink ref="B141" r:id="rId198" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
@@ -7568,7 +7578,7 @@
     <hyperlink ref="B7" r:id="rId245" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
     <hyperlink ref="B69" r:id="rId246" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
     <hyperlink ref="B75" r:id="rId247" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B41" r:id="rId248" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B40" r:id="rId248" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
     <hyperlink ref="B262" r:id="rId249" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
     <hyperlink ref="B295" r:id="rId250" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
     <hyperlink ref="B65" r:id="rId251" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
@@ -7587,14 +7597,14 @@
     <hyperlink ref="B272" r:id="rId264" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
     <hyperlink ref="B323" r:id="rId265" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
     <hyperlink ref="B349" r:id="rId266" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B39" r:id="rId267" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B38" r:id="rId267" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
     <hyperlink ref="B112" r:id="rId268" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
     <hyperlink ref="B361" r:id="rId269" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
     <hyperlink ref="B221" r:id="rId270" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
     <hyperlink ref="B103" r:id="rId271" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
     <hyperlink ref="B191" r:id="rId272" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
     <hyperlink ref="B26" r:id="rId273" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B36" r:id="rId274" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B35" r:id="rId274" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
     <hyperlink ref="B196" r:id="rId275" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
     <hyperlink ref="B259" r:id="rId276" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
     <hyperlink ref="B143" r:id="rId277" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
@@ -7625,10 +7635,10 @@
     <hyperlink ref="B244" r:id="rId302" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
     <hyperlink ref="B365" r:id="rId303" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
     <hyperlink ref="B74" r:id="rId304" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B33" r:id="rId305" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B32" r:id="rId305" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
     <hyperlink ref="B381" r:id="rId306" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
     <hyperlink ref="B104" r:id="rId307" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B55" r:id="rId308" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B54" r:id="rId308" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
     <hyperlink ref="B109" r:id="rId309" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
     <hyperlink ref="B379" r:id="rId310" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
     <hyperlink ref="B6" r:id="rId311" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
@@ -7657,7 +7667,7 @@
     <hyperlink ref="B76" r:id="rId334" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
     <hyperlink ref="B386" r:id="rId335" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
     <hyperlink ref="B299" r:id="rId336" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B48" r:id="rId337" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B47" r:id="rId337" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
     <hyperlink ref="B77" r:id="rId338" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
     <hyperlink ref="B267" r:id="rId339" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
     <hyperlink ref="B17" r:id="rId340" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
@@ -7671,7 +7681,7 @@
     <hyperlink ref="B247" r:id="rId348" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
     <hyperlink ref="B376" r:id="rId349" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
     <hyperlink ref="B170" r:id="rId350" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B32" r:id="rId351" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B31" r:id="rId351" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
     <hyperlink ref="B352" r:id="rId352" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
     <hyperlink ref="B371" r:id="rId353" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
     <hyperlink ref="B79" r:id="rId354" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
@@ -7680,7 +7690,7 @@
     <hyperlink ref="B146" r:id="rId357" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
     <hyperlink ref="B220" r:id="rId358" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
     <hyperlink ref="B226" r:id="rId359" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B49" r:id="rId360" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B48" r:id="rId360" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
     <hyperlink ref="B281" r:id="rId361" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
     <hyperlink ref="B264" r:id="rId362" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
     <hyperlink ref="B269" r:id="rId363" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
@@ -7691,7 +7701,7 @@
     <hyperlink ref="B216" r:id="rId368" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
     <hyperlink ref="B236" r:id="rId369" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
     <hyperlink ref="B367" r:id="rId370" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B44" r:id="rId371" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B43" r:id="rId371" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
     <hyperlink ref="B399" r:id="rId372" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
     <hyperlink ref="B95" r:id="rId373" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
     <hyperlink ref="B14" r:id="rId374" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
@@ -7708,20 +7718,20 @@
     <hyperlink ref="B338" r:id="rId385" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
     <hyperlink ref="B336" r:id="rId386" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
     <hyperlink ref="B364" r:id="rId387" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B38" r:id="rId388" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B37" r:id="rId388" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
     <hyperlink ref="B113" r:id="rId389" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
     <hyperlink ref="B287" r:id="rId390" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
     <hyperlink ref="B106" r:id="rId391" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B58" r:id="rId392" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B57" r:id="rId392" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
     <hyperlink ref="B84" r:id="rId393" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
     <hyperlink ref="B297" r:id="rId394" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
     <hyperlink ref="B298" r:id="rId395" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B34" r:id="rId396" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B33" r:id="rId396" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
     <hyperlink ref="B307" r:id="rId397" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
     <hyperlink ref="B353" r:id="rId398" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
     <hyperlink ref="B251" r:id="rId399" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
     <hyperlink ref="B233" r:id="rId400" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B47" r:id="rId401" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B46" r:id="rId401" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
     <hyperlink ref="B218" r:id="rId402" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
     <hyperlink ref="B248" r:id="rId403" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
   </hyperlinks>

--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783B0904-3730-4B5C-9203-C3DC5C655CDD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5485ECC-BE81-4062-AC4A-2A9CA574DE1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <sheet name="23" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$418</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$414</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="692">
   <si>
     <t>Medium</t>
   </si>
@@ -2125,6 +2125,9 @@
   </si>
   <si>
     <t>need to code revisited</t>
+  </si>
+  <si>
+    <t>Minimum Cost Tree From Leaf Values</t>
   </si>
 </sst>
 </file>
@@ -2499,10 +2502,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:F418"/>
+  <dimension ref="A1:F414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="F371" sqref="F371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3340,7 +3343,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>689</v>
@@ -4423,7 +4426,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -4434,8 +4437,11 @@
       <c r="C161" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <f t="shared" si="3"/>
         <v>161</v>
@@ -4445,7 +4451,7 @@
       </c>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <f t="shared" si="3"/>
         <v>162</v>
@@ -4455,7 +4461,7 @@
       </c>
       <c r="C163" s="1"/>
     </row>
-    <row r="164" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -4465,7 +4471,7 @@
       </c>
       <c r="C164" s="1"/>
     </row>
-    <row r="165" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <f t="shared" si="3"/>
         <v>164</v>
@@ -4475,7 +4481,7 @@
       </c>
       <c r="C165" s="1"/>
     </row>
-    <row r="166" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <f t="shared" si="3"/>
         <v>165</v>
@@ -4485,7 +4491,7 @@
       </c>
       <c r="C166" s="1"/>
     </row>
-    <row r="167" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <f t="shared" si="3"/>
         <v>166</v>
@@ -4495,7 +4501,7 @@
       </c>
       <c r="C167" s="1"/>
     </row>
-    <row r="168" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <f t="shared" si="3"/>
         <v>167</v>
@@ -4505,7 +4511,7 @@
       </c>
       <c r="C168" s="1"/>
     </row>
-    <row r="169" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <f t="shared" si="3"/>
         <v>168</v>
@@ -4517,7 +4523,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <f t="shared" si="3"/>
         <v>169</v>
@@ -4529,7 +4535,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -4539,7 +4545,7 @@
       </c>
       <c r="C171" s="1"/>
     </row>
-    <row r="172" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <f t="shared" si="3"/>
         <v>171</v>
@@ -4549,7 +4555,7 @@
       </c>
       <c r="C172" s="1"/>
     </row>
-    <row r="173" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <f t="shared" si="3"/>
         <v>172</v>
@@ -4559,7 +4565,7 @@
       </c>
       <c r="C173" s="1"/>
     </row>
-    <row r="174" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -4569,7 +4575,7 @@
       </c>
       <c r="C174" s="1"/>
     </row>
-    <row r="175" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <f t="shared" si="3"/>
         <v>174</v>
@@ -4579,7 +4585,7 @@
       </c>
       <c r="C175" s="1"/>
     </row>
-    <row r="176" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <f t="shared" si="3"/>
         <v>175</v>
@@ -4790,7 +4796,7 @@
     </row>
     <row r="196" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <f t="shared" ref="A196:A259" si="4">ROW(A195)</f>
+        <f t="shared" ref="A196:A257" si="4">ROW(A195)</f>
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -4946,7 +4952,7 @@
       </c>
       <c r="C210" s="1"/>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <f t="shared" si="4"/>
         <v>210</v>
@@ -4955,7 +4961,7 @@
         <v>3</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5140,6 +5146,9 @@
       <c r="C227" s="1" t="s">
         <v>644</v>
       </c>
+      <c r="D227" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
@@ -5162,23 +5171,24 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>441</v>
+        <v>588</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D229" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <f t="shared" si="4"/>
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="C230" s="1"/>
     </row>
     <row r="231" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
@@ -5186,7 +5196,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>630</v>
+        <v>159</v>
       </c>
       <c r="C231" s="1"/>
     </row>
@@ -5196,7 +5206,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>159</v>
+        <v>530</v>
       </c>
       <c r="C232" s="1"/>
     </row>
@@ -5206,7 +5216,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>530</v>
+        <v>624</v>
       </c>
       <c r="C233" s="1"/>
     </row>
@@ -5216,7 +5226,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>624</v>
+        <v>556</v>
       </c>
       <c r="C234" s="1"/>
     </row>
@@ -5226,7 +5236,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="C235" s="1"/>
     </row>
@@ -5236,31 +5246,29 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>473</v>
+        <v>171</v>
       </c>
       <c r="C236" s="1"/>
     </row>
     <row r="237" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1">
-        <f t="shared" si="4"/>
-        <v>236</v>
+      <c r="A237" s="1" t="e">
+        <f>ROW(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>171</v>
+        <v>532</v>
       </c>
       <c r="C237" s="1"/>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
@@ -5268,9 +5276,11 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C239" s="1"/>
+        <v>540</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="240" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
@@ -5278,183 +5288,193 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>557</v>
+        <v>573</v>
       </c>
       <c r="C240" s="1"/>
     </row>
-    <row r="241" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <f t="shared" si="4"/>
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <f t="shared" si="4"/>
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>539</v>
+        <v>627</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <f t="shared" si="4"/>
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <f t="shared" si="4"/>
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <f t="shared" si="4"/>
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>125</v>
+        <v>305</v>
       </c>
       <c r="C246" s="1"/>
     </row>
-    <row r="247" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C247" s="1"/>
-    </row>
-    <row r="248" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <f t="shared" si="4"/>
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C248" s="1"/>
-    </row>
-    <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <f t="shared" si="4"/>
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>468</v>
+        <v>691</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <f t="shared" si="4"/>
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D251" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <f t="shared" si="4"/>
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>374</v>
+        <v>93</v>
       </c>
       <c r="C252" s="1"/>
     </row>
-    <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <f t="shared" si="4"/>
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <f t="shared" si="4"/>
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C254" s="1"/>
     </row>
-    <row r="255" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C255" s="1"/>
     </row>
-    <row r="256" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C256" s="1"/>
     </row>
@@ -5464,712 +5484,735 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>565</v>
+        <v>267</v>
       </c>
       <c r="C257" s="1"/>
     </row>
     <row r="258" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="1">
-        <f t="shared" si="4"/>
-        <v>257</v>
+      <c r="A258" s="1" t="e">
+        <f>ROW(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="C258" s="1"/>
     </row>
     <row r="259" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A259:A320" si="5">ROW(A258)</f>
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f t="shared" ref="A260" si="5">ROW(A259)</f>
+        <f t="shared" si="5"/>
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C260" s="1"/>
     </row>
     <row r="261" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f t="shared" ref="A261:A323" si="6">ROW(A260)</f>
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C261" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="262" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>212</v>
+        <v>555</v>
       </c>
       <c r="C262" s="1"/>
     </row>
     <row r="263" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>112</v>
+        <v>554</v>
       </c>
       <c r="C263" s="1"/>
     </row>
     <row r="264" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="C264" s="1"/>
     </row>
     <row r="265" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>555</v>
+        <v>89</v>
       </c>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>554</v>
+        <v>462</v>
       </c>
       <c r="C266" s="1"/>
     </row>
     <row r="267" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>404</v>
+        <v>642</v>
       </c>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>462</v>
+        <v>247</v>
       </c>
       <c r="C269" s="1"/>
     </row>
     <row r="270" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="C270" s="1"/>
+        <v>498</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="271" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C271" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="272" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>247</v>
+        <v>354</v>
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C275" s="1"/>
-    </row>
-    <row r="276" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>609</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C277" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <f t="shared" si="5"/>
+        <v>277</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <f t="shared" si="5"/>
+        <v>278</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <f t="shared" si="5"/>
+        <v>279</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="1">
-        <f t="shared" si="6"/>
-        <v>277</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1">
-        <f t="shared" si="6"/>
-        <v>278</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C279" s="1"/>
-    </row>
-    <row r="280" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="1">
-        <f t="shared" si="6"/>
-        <v>279</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C280" s="1"/>
-    </row>
-    <row r="281" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>455</v>
+        <v>186</v>
       </c>
       <c r="C281" s="1"/>
     </row>
-    <row r="282" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C282" s="1"/>
-    </row>
-    <row r="283" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C284" s="1"/>
-    </row>
-    <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D287" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C288" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <f t="shared" si="5"/>
+        <v>289</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <f t="shared" si="5"/>
+        <v>290</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1">
-        <f t="shared" si="6"/>
-        <v>288</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1">
-        <f t="shared" si="6"/>
-        <v>289</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C290" s="1"/>
-    </row>
-    <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1">
-        <f t="shared" si="6"/>
-        <v>290</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C291" s="1" t="s">
+    <row r="292" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <f t="shared" si="5"/>
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <f t="shared" si="5"/>
+        <v>292</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <f t="shared" si="5"/>
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <f t="shared" si="5"/>
+        <v>294</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <f t="shared" si="5"/>
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <f t="shared" si="5"/>
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <f t="shared" si="5"/>
+        <v>298</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1">
-        <f t="shared" si="6"/>
-        <v>291</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C292" s="1" t="s">
+      <c r="D299" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <f t="shared" si="5"/>
+        <v>299</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1">
-        <f t="shared" si="6"/>
-        <v>292</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C293" s="1"/>
-    </row>
-    <row r="294" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1">
-        <f t="shared" si="6"/>
-        <v>293</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C294" s="1"/>
-    </row>
-    <row r="295" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1">
-        <f t="shared" si="6"/>
-        <v>294</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
-        <f t="shared" si="6"/>
-        <v>295</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C296" s="1"/>
-    </row>
-    <row r="297" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
-        <f t="shared" si="6"/>
-        <v>296</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <f t="shared" si="6"/>
-        <v>297</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1">
-        <f t="shared" si="6"/>
-        <v>298</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C299" s="1"/>
-    </row>
-    <row r="300" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1">
-        <f t="shared" si="6"/>
-        <v>299</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C300" s="1"/>
-    </row>
-    <row r="301" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D300" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C301" s="1"/>
-    </row>
-    <row r="302" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+      <c r="C302" s="1"/>
+      <c r="D302" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>381</v>
+        <v>568</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C306" s="1"/>
-      <c r="D306" t="s">
-        <v>647</v>
+        <v>538</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C307" s="1"/>
+        <v>616</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="308" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>43</v>
+        <v>638</v>
       </c>
       <c r="C308" s="1"/>
     </row>
     <row r="309" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>568</v>
+        <v>161</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C310" s="1"/>
     </row>
     <row r="311" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>645</v>
+        <v>393</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C312" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="313" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>161</v>
+        <v>542</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="C314" s="1"/>
+        <v>107</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="315" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>314</v>
       </c>
-      <c r="B315" s="2" t="s">
-        <v>393</v>
+      <c r="B315" t="s">
+        <v>677</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D315" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C316" s="1"/>
     </row>
     <row r="317" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C317" s="1"/>
     </row>
     <row r="318" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>107</v>
+        <v>559</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
-      <c r="B319" t="s">
-        <v>677</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D319" t="s">
+      <c r="B319" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <f t="shared" si="5"/>
+        <v>319</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D320" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="1">
-        <f t="shared" si="6"/>
-        <v>319</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C320" s="1"/>
     </row>
     <row r="321" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A321:A383" si="6">ROW(A320)</f>
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C321" s="1"/>
+        <v>309</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="322" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
@@ -6177,11 +6220,9 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C322" s="1"/>
     </row>
     <row r="323" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
@@ -6189,390 +6230,399 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C323" s="1"/>
-    </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f t="shared" ref="A324" si="7">ROW(A323)</f>
+        <f t="shared" si="6"/>
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>470</v>
+        <v>563</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <f t="shared" ref="A325:A387" si="8">ROW(A324)</f>
+        <f t="shared" si="6"/>
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="C325" s="1"/>
     </row>
     <row r="326" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C326" s="1"/>
     </row>
     <row r="327" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="C327" s="1"/>
     </row>
     <row r="328" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C329" s="1"/>
-    </row>
-    <row r="330" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>583</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C330" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="331" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>545</v>
+        <v>296</v>
       </c>
       <c r="C331" s="1"/>
     </row>
     <row r="332" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>51</v>
+        <v>506</v>
       </c>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C333" s="1"/>
+      <c r="D333" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>35</v>
+        <v>505</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>506</v>
+        <v>128</v>
       </c>
       <c r="C336" s="1"/>
     </row>
     <row r="337" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>8</v>
+        <v>611</v>
       </c>
       <c r="C337" s="1"/>
-      <c r="D337" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="338" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="C338" s="1"/>
     </row>
     <row r="339" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C339" s="1"/>
+        <v>228</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="340" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="C340" s="1"/>
     </row>
     <row r="341" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>611</v>
+        <v>103</v>
       </c>
       <c r="C341" s="1"/>
     </row>
     <row r="342" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>24</v>
+        <v>351</v>
       </c>
       <c r="C342" s="1"/>
     </row>
     <row r="343" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C343" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C343" s="1"/>
     </row>
     <row r="344" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="C344" s="1"/>
     </row>
     <row r="345" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>103</v>
+        <v>250</v>
       </c>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C346" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D346" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="347" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>353</v>
+        <v>502</v>
       </c>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C348" s="1"/>
+        <v>431</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="349" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C349" s="1"/>
-    </row>
-    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C350" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C350" s="1"/>
     </row>
     <row r="351" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>502</v>
+        <v>355</v>
       </c>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C352" s="1"/>
     </row>
     <row r="353" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+      <c r="E353" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C354" s="1"/>
+        <v>620</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="355" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>354</v>
       </c>
-      <c r="B355" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C355" s="1"/>
+      <c r="B355" t="s">
+        <v>678</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D355" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="356" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C356" s="1"/>
     </row>
     <row r="357" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E357" t="s">
-        <v>658</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="C357" s="1"/>
     </row>
     <row r="358" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>620</v>
+        <v>199</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>645</v>
@@ -6580,1163 +6630,1112 @@
     </row>
     <row r="359" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
-      <c r="B359" t="s">
-        <v>678</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D359" t="s">
-        <v>647</v>
-      </c>
+      <c r="B359" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C359" s="1"/>
     </row>
     <row r="360" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>73</v>
+        <v>507</v>
       </c>
       <c r="C360" s="1"/>
     </row>
     <row r="361" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="C361" s="1"/>
     </row>
     <row r="362" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C362" s="1" t="s">
-        <v>645</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C362" s="1"/>
     </row>
     <row r="363" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>507</v>
+        <v>76</v>
       </c>
       <c r="C364" s="1"/>
     </row>
     <row r="365" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>325</v>
+        <v>136</v>
       </c>
       <c r="C365" s="1"/>
     </row>
     <row r="366" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>168</v>
+        <v>417</v>
       </c>
       <c r="C366" s="1"/>
     </row>
     <row r="367" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="C367" s="1"/>
     </row>
     <row r="368" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>76</v>
+        <v>543</v>
       </c>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C369" s="1"/>
+        <v>313</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="370" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>417</v>
+        <v>547</v>
       </c>
       <c r="C370" s="1"/>
     </row>
-    <row r="371" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C371" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="372" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>543</v>
+        <v>428</v>
       </c>
       <c r="C372" s="1"/>
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D373" s="1" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="374" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>547</v>
+        <v>350</v>
       </c>
       <c r="C374" s="1"/>
     </row>
-    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C375" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="1">
+        <f t="shared" si="6"/>
+        <v>375</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="D376" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="1">
-        <f t="shared" si="8"/>
-        <v>375</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C376" s="1"/>
-    </row>
-    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>350</v>
+        <v>607</v>
       </c>
       <c r="C378" s="1"/>
+      <c r="E378" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="379" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C379" s="1"/>
-    </row>
-    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C380" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="1">
+        <f t="shared" si="6"/>
+        <v>380</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D380" t="s">
+      <c r="D381" t="s">
         <v>647</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="1">
-        <f t="shared" si="8"/>
-        <v>380</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="382" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C382" s="1"/>
-      <c r="E382" t="s">
-        <v>659</v>
+        <v>399</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D382" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>541</v>
+        <v>108</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="384" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A384:A404" si="7">ROW(A383)</f>
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="C384" s="1"/>
-    </row>
-    <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D384" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C385" s="1"/>
       <c r="D385" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D386" t="s">
-        <v>647</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="C386" s="1"/>
     </row>
     <row r="387" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>108</v>
+        <v>424</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <f t="shared" ref="A388:A408" si="9">ROW(A387)</f>
+        <f t="shared" si="7"/>
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="C388" s="1"/>
-      <c r="D388" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="389" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="C389" s="1"/>
-      <c r="D389" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="390" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>370</v>
+        <v>549</v>
       </c>
       <c r="C390" s="1"/>
+      <c r="D390" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="391" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>424</v>
+        <v>668</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E391" t="s">
+        <v>660</v>
+      </c>
+      <c r="F391" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C392" s="1"/>
+        <v>669</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E392" t="s">
+        <v>660</v>
+      </c>
+      <c r="F392" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="393" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C393" s="1"/>
+        <v>667</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E393" t="s">
+        <v>660</v>
+      </c>
+      <c r="F393" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="394" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>549</v>
+        <v>674</v>
       </c>
       <c r="C394" s="1"/>
-      <c r="D394" t="s">
+      <c r="D394" s="1" t="s">
         <v>647</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D395" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E395" t="s">
-        <v>660</v>
-      </c>
-      <c r="F395" t="s">
-        <v>666</v>
+        <v>477</v>
+      </c>
+      <c r="C395" s="1"/>
+      <c r="E395" s="4" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>669</v>
+        <v>579</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D396" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E396" t="s">
-        <v>660</v>
-      </c>
-      <c r="F396" t="s">
-        <v>666</v>
-      </c>
+        <v>648</v>
+      </c>
+      <c r="D396" s="1"/>
     </row>
     <row r="397" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>667</v>
+        <v>580</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D397" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E397" t="s">
-        <v>660</v>
-      </c>
-      <c r="F397" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>674</v>
+        <v>560</v>
       </c>
       <c r="C398" s="1"/>
-      <c r="D398" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E398" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="F398" s="5" t="s">
-        <v>670</v>
-      </c>
     </row>
     <row r="399" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C399" s="1"/>
-      <c r="E399" s="4" t="s">
-        <v>656</v>
+        <v>346</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>579</v>
+        <v>546</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D400" s="1"/>
+        <v>655</v>
+      </c>
     </row>
     <row r="401" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="C401" s="1"/>
+      <c r="D401" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C402" s="1"/>
+        <v>585</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="403" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="C403" s="1"/>
+    </row>
+    <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>655</v>
+        <v>644</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A405:A414" si="8">ROW(A404)</f>
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>246</v>
+        <v>466</v>
       </c>
       <c r="C405" s="1"/>
-      <c r="D405" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E405" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D406" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C406" s="1"/>
+      <c r="D406" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>396</v>
+        <v>614</v>
       </c>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D408" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="C408" s="1"/>
     </row>
     <row r="409" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <f t="shared" ref="A409:A418" si="10">ROW(A408)</f>
+        <f t="shared" si="8"/>
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>466</v>
+        <v>640</v>
       </c>
       <c r="C409" s="1"/>
-      <c r="E409" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="410" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>550</v>
+        <v>603</v>
       </c>
       <c r="C410" s="1"/>
-      <c r="D410" t="s">
-        <v>647</v>
-      </c>
     </row>
     <row r="411" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C411" s="1"/>
     </row>
-    <row r="412" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C412" s="1"/>
-    </row>
-    <row r="413" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C413" s="1"/>
-    </row>
-    <row r="414" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>566</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D413" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>603</v>
+        <v>359</v>
       </c>
       <c r="C414" s="1"/>
-    </row>
-    <row r="415" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A415" s="1">
-        <f t="shared" si="10"/>
-        <v>414</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C415" s="1"/>
-    </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="1">
-        <f t="shared" si="10"/>
-        <v>415</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C416" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="1">
-        <f t="shared" si="10"/>
-        <v>416</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C417" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D417" t="s">
+      <c r="D414" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="1">
-        <f t="shared" si="10"/>
-        <v>417</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C418" s="1"/>
-      <c r="D418" t="s">
-        <v>647</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F418" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
+  <autoFilter ref="A1:F414" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
     <filterColumn colId="2">
       <filters>
         <filter val="Tree"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F408">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F404">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F420">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F416">
     <sortCondition ref="B1"/>
   </sortState>
   <dataConsolidate/>
   <hyperlinks>
     <hyperlink ref="B208" r:id="rId1" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B239" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B237" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B207" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B306" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B302" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B51" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B396" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B395" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B310" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B243" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B241" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B383" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B317" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B372" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B392" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B391" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B306" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B241" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B239" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B379" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B313" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B368" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="B209" r:id="rId14" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B331" r:id="rId15" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B404" r:id="rId16" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B374" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B327" r:id="rId15" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B400" r:id="rId16" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B370" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="B125" r:id="rId18" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B394" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B410" r:id="rId20" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B390" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B406" r:id="rId20" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="B174" r:id="rId21" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B321" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B317" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="B147" r:id="rId23" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B266" r:id="rId24" display="https://leetcode.com/problems/n-queens" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B265" r:id="rId25" display="https://leetcode.com/problems/n-queens-ii" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B235" r:id="rId26" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B240" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B263" r:id="rId24" display="https://leetcode.com/problems/n-queens" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B262" r:id="rId25" display="https://leetcode.com/problems/n-queens-ii" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B234" r:id="rId26" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B238" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="B164" r:id="rId28" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B322" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B402" r:id="rId30" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B255" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B318" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B398" r:id="rId30" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B253" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="B91" r:id="rId32" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B328" r:id="rId33" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B357" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B257" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B417" r:id="rId36" display="https://leetcode.com/problems/word-search" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B330" r:id="rId37" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B309" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B324" r:id="rId33" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B353" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B255" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B413" r:id="rId36" display="https://leetcode.com/problems/word-search" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B326" r:id="rId37" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B305" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="B190" r:id="rId39" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="B223" r:id="rId40" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B283" r:id="rId41" display="https://leetcode.com/problems/partition-list" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B326" r:id="rId42" display="https://leetcode.com/problems/scramble-string" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B242" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B280" r:id="rId41" display="https://leetcode.com/problems/partition-list" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B322" r:id="rId42" display="https://leetcode.com/problems/scramble-string" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B240" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B144" r:id="rId44" display="https://leetcode.com/problems/gray-code" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B73" r:id="rId45" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B314" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B310" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="B18" r:id="rId47" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B400" r:id="rId48" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B401" r:id="rId49" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B396" r:id="rId48" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B397" r:id="rId49" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="B168" r:id="rId50" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B408" r:id="rId51" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B333" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B404" r:id="rId51" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B329" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
     <hyperlink ref="B192" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B406" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B402" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="B20" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
     <hyperlink ref="B39" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B230" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B229" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="B50" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="B49" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="B59" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="B9" r:id="rId61" display="https://leetcode.com/problems/balanced-binary-tree" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B253" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B291" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B251" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B287" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
     <hyperlink ref="B128" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="B87" r:id="rId65" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B304" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B303" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B300" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B299" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="B22" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B414" r:id="rId69" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B415" r:id="rId70" display="https://leetcode.com/problems/word-ladder" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B410" r:id="rId69" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B411" r:id="rId70" display="https://leetcode.com/problems/word-ladder" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
     <hyperlink ref="B201" r:id="rId71" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B385" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B382" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B278" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B381" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B378" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B275" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
     <hyperlink ref="B36" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B341" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B337" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="B56" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B412" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B411" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B408" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B407" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="B197" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B311" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B307" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="B25" r:id="rId82" display="https://leetcode.com/problems/binary-tree-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="B24" r:id="rId83" display="https://leetcode.com/problems/binary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
     <hyperlink ref="B212" r:id="rId84" display="https://leetcode.com/problems/lru-cache" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B358" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B354" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
     <hyperlink ref="B222" r:id="rId86" display="https://leetcode.com/problems/max-points-on-a-line" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="B97" r:id="rId87" display="https://leetcode.com/problems/evaluate-reverse-polish-notation" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B320" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B234" r:id="rId89" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B316" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B233" r:id="rId89" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="B118" r:id="rId90" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="B117" r:id="rId91" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B245" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B243" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="B169" r:id="rId93" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="B119" r:id="rId94" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B231" r:id="rId95" display="https://leetcode.com/problems/maximum-gap" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B230" r:id="rId95" display="https://leetcode.com/problems/maximum-gap" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="B100" r:id="rId96" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
     <hyperlink ref="B215" r:id="rId97" display="https://leetcode.com/problems/majority-element" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="B99" r:id="rId98" display="https://leetcode.com/problems/excel-sheet-column-number" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
     <hyperlink ref="B189" r:id="rId99" display="https://leetcode.com/problems/largest-number" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B312" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B308" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="B11" r:id="rId101" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B413" r:id="rId102" display="https://leetcode.com/problems/word-frequency" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B409" r:id="rId102" display="https://leetcode.com/problems/word-frequency" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="B29" r:id="rId103" display="https://leetcode.com/problems/binary-tree-right-side-view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B270" r:id="rId104" display="https://leetcode.com/problems/number-of-islands" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B316" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B267" r:id="rId104" display="https://leetcode.com/problems/number-of-islands" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B312" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
     <hyperlink ref="B211" r:id="rId106" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B327" r:id="rId107" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B344" r:id="rId108" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B300" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B323" r:id="rId107" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B340" r:id="rId108" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B296" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
     <hyperlink ref="B228" r:id="rId110" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B277" r:id="rId111" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B274" r:id="rId111" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
     <hyperlink ref="B159" r:id="rId112" display="https://leetcode.com/problems/implement-queue-using-stacks" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
     <hyperlink ref="B184" r:id="rId113" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
     <hyperlink ref="B214" r:id="rId114" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
     <hyperlink ref="B160" r:id="rId115" display="https://leetcode.com/problems/implement-stack-using-queues" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
     <hyperlink ref="B64" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
     <hyperlink ref="B224" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B389" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B385" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="B44" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
     <hyperlink ref="B183" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B337" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B416" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B333" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B412" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="B2" r:id="rId123" display="https://leetcode.com/problems/add-and-search-word-data-structure-design" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B256" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B254" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="B23" r:id="rId125" display="https://leetcode.com/problems/binary-tree-paths" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B342" r:id="rId126" display="https://leetcode.com/problems/single-number-iii" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B258" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B338" r:id="rId126" display="https://leetcode.com/problems/single-number-iii" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B256" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
     <hyperlink ref="B167" r:id="rId128" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
     <hyperlink ref="B153" r:id="rId129" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
     <hyperlink ref="B152" r:id="rId130" display="https://leetcode.com/problems/h-index-ii" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
     <hyperlink ref="B102" r:id="rId131" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B288" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B284" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="B122" r:id="rId133" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="B140" r:id="rId134" display="https://leetcode.com/problems/game-of-life" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="B116" r:id="rId135" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B334" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B330" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
     <hyperlink ref="B204" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
     <hyperlink ref="B12" r:id="rId138" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B285" r:id="rId139" display="https://leetcode.com/problems/minimum-height-trees" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B34" r:id="rId140" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B61" r:id="rId141" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B308" r:id="rId142" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B66" r:id="rId143" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B42" r:id="rId144" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B60" r:id="rId145" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B274" r:id="rId146" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B203" r:id="rId147" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B332" r:id="rId148" display="https://leetcode.com/problems/self-crossing" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B154" r:id="rId149" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B166" r:id="rId150" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B392" r:id="rId151" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B70" r:id="rId152" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B185" r:id="rId153" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B163" r:id="rId154" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B198" r:id="rId155" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B126" r:id="rId156" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B200" r:id="rId157" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B289" r:id="rId158" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B173" r:id="rId159" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B71" r:id="rId160" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B350" r:id="rId161" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B268" r:id="rId162" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B3" r:id="rId163" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B107" r:id="rId164" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B186" r:id="rId165" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B292" r:id="rId166" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B120" r:id="rId167" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B5" r:id="rId168" display="https://leetcode.com/problems/all-oone-data-structure" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B55" r:id="rId169" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B368" r:id="rId170" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B282" r:id="rId171" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B360" r:id="rId172" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B138" r:id="rId173" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B356" r:id="rId174" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B254" r:id="rId175" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B290" r:id="rId176" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B195" r:id="rId177" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B62" r:id="rId178" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B45" r:id="rId179" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B345" r:id="rId180" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B294" r:id="rId181" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B162" r:id="rId182" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B318" r:id="rId183" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B387" r:id="rId184" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B83" r:id="rId185" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B171" r:id="rId186" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B263" r:id="rId187" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B286" r:id="rId188" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B127" r:id="rId189" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B135" r:id="rId190" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B206" r:id="rId191" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B41" r:id="rId192" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B53" r:id="rId193" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B210" r:id="rId194" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B52" r:id="rId195" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B301" r:id="rId196" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B246" r:id="rId197" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B141" r:id="rId198" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B92" r:id="rId199" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B340" r:id="rId200" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B88" r:id="rId201" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B136" r:id="rId202" display="https://leetcode.com/problems/friend-circles" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B238" r:id="rId203" display="https://leetcode.com/problems/maximum-depth-of-n-ary-tree" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B369" r:id="rId204" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B121" r:id="rId205" display="https://leetcode.com/problems/find-the-closest-palindrome" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B375" r:id="rId206" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B94" r:id="rId207" display="https://leetcode.com/problems/erect-the-fence" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B155" r:id="rId208" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B111" r:id="rId209" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B388" r:id="rId210" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B81" r:id="rId211" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B176" r:id="rId212" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B398" r:id="rId213" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B90" r:id="rId214" display="https://leetcode.com/problems/dota2-senate" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B313" r:id="rId215" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B279" r:id="rId216" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B232" r:id="rId217" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B80" r:id="rId218" display="https://leetcode.com/problems/design-circular-deque" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B72" r:id="rId219" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B8" r:id="rId220" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B101" r:id="rId221" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B348" r:id="rId222" display="https://leetcode.com/problems/smallest-range" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B114" r:id="rId223" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B250" r:id="rId224" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B366" r:id="rId225" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B187" r:id="rId226" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B237" r:id="rId227" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B271" r:id="rId228" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B202" r:id="rId229" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B68" r:id="rId230" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B158" r:id="rId231" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B179" r:id="rId232" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B393" r:id="rId233" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B217" r:id="rId234" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B284" r:id="rId235" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B105" r:id="rId236" display="https://leetcode.com/problems/falling-squares" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B329" r:id="rId237" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B182" r:id="rId238" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B82" r:id="rId239" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B13" r:id="rId240" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B302" r:id="rId241" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B115" r:id="rId242" display="https://leetcode.com/problems/find-k-th-smallest-pair-distance" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B362" r:id="rId243" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B133" r:id="rId244" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B7" r:id="rId245" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B69" r:id="rId246" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B75" r:id="rId247" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B40" r:id="rId248" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B262" r:id="rId249" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B295" r:id="rId250" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="B65" r:id="rId251" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B63" r:id="rId252" display="https://leetcode.com/problems/couples-holding-hands" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B219" r:id="rId253" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B343" r:id="rId254" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B142" r:id="rId255" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B384" r:id="rId256" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B188" r:id="rId257" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B260" r:id="rId258" display="https://leetcode.com/problems/minimum-distance-between-bst-nodes" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B172" r:id="rId259" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B96" r:id="rId260" display="https://leetcode.com/problems/escape-the-ghosts" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B89" r:id="rId261" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B67" r:id="rId262" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B405" r:id="rId263" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B272" r:id="rId264" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B323" r:id="rId265" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B349" r:id="rId266" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B38" r:id="rId267" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B112" r:id="rId268" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B361" r:id="rId269" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B221" r:id="rId270" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B103" r:id="rId271" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B191" r:id="rId272" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B26" r:id="rId273" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B35" r:id="rId274" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B196" r:id="rId275" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B259" r:id="rId276" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B143" r:id="rId277" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B137" r:id="rId278" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B261" r:id="rId279" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B293" r:id="rId280" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B132" r:id="rId281" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B108" r:id="rId282" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B377" r:id="rId283" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B156" r:id="rId284" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B213" r:id="rId285" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B177" r:id="rId286" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B149" r:id="rId287" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B205" r:id="rId288" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B150" r:id="rId289" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B335" r:id="rId290" display="https://leetcode.com/problems/shifting-letters" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B225" r:id="rId291" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B181" r:id="rId292" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B98" r:id="rId293" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B193" r:id="rId294" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B325" r:id="rId295" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B339" r:id="rId296" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B4" r:id="rId297" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B373" r:id="rId298" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B296" r:id="rId299" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B227" r:id="rId300" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B180" r:id="rId301" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B244" r:id="rId302" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B365" r:id="rId303" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B74" r:id="rId304" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B32" r:id="rId305" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B381" r:id="rId306" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B104" r:id="rId307" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B54" r:id="rId308" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B109" r:id="rId309" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B379" r:id="rId310" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B6" r:id="rId311" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B276" r:id="rId312" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B403" r:id="rId313" display="https://leetcode.com/problems/valid-permutations-for-di-sequence" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B139" r:id="rId314" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B378" r:id="rId315" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B346" r:id="rId316" display="https://leetcode.com/problems/smallest-range-i" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B354" r:id="rId317" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B347" r:id="rId318" display="https://leetcode.com/problems/smallest-range-ii" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B275" r:id="rId319" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B355" r:id="rId320" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B418" r:id="rId321" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B199" r:id="rId322" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B131" r:id="rId323" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B390" r:id="rId324" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B252" r:id="rId325" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B178" r:id="rId326" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B305" r:id="rId327" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
-    <hyperlink ref="B86" r:id="rId328" display="https://leetcode.com/problems/distinct-subsequences-ii" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
-    <hyperlink ref="B123" r:id="rId329" display="https://leetcode.com/problems/find-the-shortest-superstring" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
-    <hyperlink ref="B78" r:id="rId330" display="https://leetcode.com/problems/delete-columns-to-make-sorted" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B315" r:id="rId331" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
-    <hyperlink ref="B130" r:id="rId332" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
-    <hyperlink ref="B407" r:id="rId333" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
-    <hyperlink ref="B76" r:id="rId334" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B386" r:id="rId335" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B299" r:id="rId336" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B47" r:id="rId337" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
-    <hyperlink ref="B77" r:id="rId338" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
-    <hyperlink ref="B267" r:id="rId339" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
-    <hyperlink ref="B17" r:id="rId340" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B161" r:id="rId341" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
-    <hyperlink ref="B93" r:id="rId342" display="https://leetcode.com/problems/equal-rational-numbers" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B175" r:id="rId343" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B370" r:id="rId344" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B363" r:id="rId345" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B110" r:id="rId346" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B391" r:id="rId347" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B247" r:id="rId348" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B376" r:id="rId349" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B170" r:id="rId350" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
-    <hyperlink ref="B31" r:id="rId351" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B352" r:id="rId352" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B371" r:id="rId353" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B79" r:id="rId354" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B124" r:id="rId355" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B229" r:id="rId356" display="https://leetcode.com/problems/maximum-binary-tree-ii" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
-    <hyperlink ref="B146" r:id="rId357" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B220" r:id="rId358" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B226" r:id="rId359" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B48" r:id="rId360" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B281" r:id="rId361" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B264" r:id="rId362" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B269" r:id="rId363" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B380" r:id="rId364" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B409" r:id="rId365" display="https://leetcode.com/problems/video-stitching" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B249" r:id="rId366" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B324" r:id="rId367" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B216" r:id="rId368" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B236" r:id="rId369" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B367" r:id="rId370" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B43" r:id="rId371" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B399" r:id="rId372" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B95" r:id="rId373" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B14" r:id="rId374" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B134" r:id="rId375" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B280" r:id="rId376" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B151" r:id="rId377" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B148" r:id="rId378" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B85" r:id="rId379" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B145" r:id="rId380" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B129" r:id="rId381" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B273" r:id="rId382" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B165" r:id="rId383" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B351" r:id="rId384" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B338" r:id="rId385" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B336" r:id="rId386" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B364" r:id="rId387" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B37" r:id="rId388" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B113" r:id="rId389" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B287" r:id="rId390" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B106" r:id="rId391" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B57" r:id="rId392" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B84" r:id="rId393" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B297" r:id="rId394" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B298" r:id="rId395" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B33" r:id="rId396" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B307" r:id="rId397" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B353" r:id="rId398" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B251" r:id="rId399" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B233" r:id="rId400" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B46" r:id="rId401" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B218" r:id="rId402" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B248" r:id="rId403" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B34" r:id="rId139" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B61" r:id="rId140" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B304" r:id="rId141" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B66" r:id="rId142" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B42" r:id="rId143" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B60" r:id="rId144" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B271" r:id="rId145" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B203" r:id="rId146" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B328" r:id="rId147" display="https://leetcode.com/problems/self-crossing" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B154" r:id="rId148" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId149" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B388" r:id="rId150" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B70" r:id="rId151" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B185" r:id="rId152" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B163" r:id="rId153" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B198" r:id="rId154" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B126" r:id="rId155" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B200" r:id="rId156" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B285" r:id="rId157" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B173" r:id="rId158" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B71" r:id="rId159" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B346" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B265" r:id="rId161" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B3" r:id="rId162" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B107" r:id="rId163" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B186" r:id="rId164" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B288" r:id="rId165" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B120" r:id="rId166" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B5" r:id="rId167" display="https://leetcode.com/problems/all-oone-data-structure" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B55" r:id="rId168" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B364" r:id="rId169" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B279" r:id="rId170" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B356" r:id="rId171" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B138" r:id="rId172" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B352" r:id="rId173" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B252" r:id="rId174" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B286" r:id="rId175" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B195" r:id="rId176" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B62" r:id="rId177" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B45" r:id="rId178" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B341" r:id="rId179" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B290" r:id="rId180" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B162" r:id="rId181" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B314" r:id="rId182" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B383" r:id="rId183" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B83" r:id="rId184" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B171" r:id="rId185" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B260" r:id="rId186" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B282" r:id="rId187" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B127" r:id="rId188" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B135" r:id="rId189" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B206" r:id="rId190" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B41" r:id="rId191" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B53" r:id="rId192" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B210" r:id="rId193" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B52" r:id="rId194" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B297" r:id="rId195" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B244" r:id="rId196" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B141" r:id="rId197" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B92" r:id="rId198" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B336" r:id="rId199" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B88" r:id="rId200" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B136" r:id="rId201" display="https://leetcode.com/problems/friend-circles" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B365" r:id="rId202" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B121" r:id="rId203" display="https://leetcode.com/problems/find-the-closest-palindrome" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B371" r:id="rId204" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B94" r:id="rId205" display="https://leetcode.com/problems/erect-the-fence" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B155" r:id="rId206" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B111" r:id="rId207" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B384" r:id="rId208" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B81" r:id="rId209" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B176" r:id="rId210" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B394" r:id="rId211" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B90" r:id="rId212" display="https://leetcode.com/problems/dota2-senate" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B309" r:id="rId213" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B276" r:id="rId214" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B231" r:id="rId215" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B80" r:id="rId216" display="https://leetcode.com/problems/design-circular-deque" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B72" r:id="rId217" display="https://leetcode.com/problems/decode-ways-ii" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B8" r:id="rId218" display="https://leetcode.com/problems/average-of-levels-in-binary-tree" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B101" r:id="rId219" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B344" r:id="rId220" display="https://leetcode.com/problems/smallest-range" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B114" r:id="rId221" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B248" r:id="rId222" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B362" r:id="rId223" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B187" r:id="rId224" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B236" r:id="rId225" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B268" r:id="rId226" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B202" r:id="rId227" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B68" r:id="rId228" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B158" r:id="rId229" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B179" r:id="rId230" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B389" r:id="rId231" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B217" r:id="rId232" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B281" r:id="rId233" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B105" r:id="rId234" display="https://leetcode.com/problems/falling-squares" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B325" r:id="rId235" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B182" r:id="rId236" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B82" r:id="rId237" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B13" r:id="rId238" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B298" r:id="rId239" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B115" r:id="rId240" display="https://leetcode.com/problems/find-k-th-smallest-pair-distance" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B358" r:id="rId241" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B133" r:id="rId242" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B7" r:id="rId243" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B69" r:id="rId244" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B75" r:id="rId245" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B40" r:id="rId246" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B259" r:id="rId247" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B291" r:id="rId248" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B65" r:id="rId249" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B63" r:id="rId250" display="https://leetcode.com/problems/couples-holding-hands" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B219" r:id="rId251" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B339" r:id="rId252" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B142" r:id="rId253" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B380" r:id="rId254" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B188" r:id="rId255" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B172" r:id="rId256" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B96" r:id="rId257" display="https://leetcode.com/problems/escape-the-ghosts" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B89" r:id="rId258" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B67" r:id="rId259" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B401" r:id="rId260" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B269" r:id="rId261" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B319" r:id="rId262" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B345" r:id="rId263" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B38" r:id="rId264" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B112" r:id="rId265" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B357" r:id="rId266" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B221" r:id="rId267" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B103" r:id="rId268" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B191" r:id="rId269" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B26" r:id="rId270" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B35" r:id="rId271" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B196" r:id="rId272" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B257" r:id="rId273" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B143" r:id="rId274" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B137" r:id="rId275" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B258" r:id="rId276" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B289" r:id="rId277" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B132" r:id="rId278" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B108" r:id="rId279" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B373" r:id="rId280" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B156" r:id="rId281" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B213" r:id="rId282" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B177" r:id="rId283" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B149" r:id="rId284" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B205" r:id="rId285" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B150" r:id="rId286" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B331" r:id="rId287" display="https://leetcode.com/problems/shifting-letters" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B225" r:id="rId288" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B181" r:id="rId289" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B98" r:id="rId290" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B193" r:id="rId291" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B321" r:id="rId292" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B335" r:id="rId293" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B4" r:id="rId294" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B369" r:id="rId295" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B292" r:id="rId296" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B227" r:id="rId297" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B180" r:id="rId298" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B242" r:id="rId299" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B361" r:id="rId300" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B74" r:id="rId301" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B32" r:id="rId302" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B377" r:id="rId303" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B104" r:id="rId304" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B54" r:id="rId305" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B109" r:id="rId306" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B375" r:id="rId307" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B6" r:id="rId308" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B273" r:id="rId309" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B399" r:id="rId310" display="https://leetcode.com/problems/valid-permutations-for-di-sequence" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B139" r:id="rId311" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B374" r:id="rId312" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B342" r:id="rId313" display="https://leetcode.com/problems/smallest-range-i" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B350" r:id="rId314" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B343" r:id="rId315" display="https://leetcode.com/problems/smallest-range-ii" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B272" r:id="rId316" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B351" r:id="rId317" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B414" r:id="rId318" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B199" r:id="rId319" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B131" r:id="rId320" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B386" r:id="rId321" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B250" r:id="rId322" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B178" r:id="rId323" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B301" r:id="rId324" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B86" r:id="rId325" display="https://leetcode.com/problems/distinct-subsequences-ii" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B123" r:id="rId326" display="https://leetcode.com/problems/find-the-shortest-superstring" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B78" r:id="rId327" display="https://leetcode.com/problems/delete-columns-to-make-sorted" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B311" r:id="rId328" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B130" r:id="rId329" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B403" r:id="rId330" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B76" r:id="rId331" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B382" r:id="rId332" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B295" r:id="rId333" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B47" r:id="rId334" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B77" r:id="rId335" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B264" r:id="rId336" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B17" r:id="rId337" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B161" r:id="rId338" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B93" r:id="rId339" display="https://leetcode.com/problems/equal-rational-numbers" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B175" r:id="rId340" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B366" r:id="rId341" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B359" r:id="rId342" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B110" r:id="rId343" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B387" r:id="rId344" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B245" r:id="rId345" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B372" r:id="rId346" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B170" r:id="rId347" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B31" r:id="rId348" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B348" r:id="rId349" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B367" r:id="rId350" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B79" r:id="rId351" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B124" r:id="rId352" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B146" r:id="rId353" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B220" r:id="rId354" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B226" r:id="rId355" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B48" r:id="rId356" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B278" r:id="rId357" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B261" r:id="rId358" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B266" r:id="rId359" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B376" r:id="rId360" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B405" r:id="rId361" display="https://leetcode.com/problems/video-stitching" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B247" r:id="rId362" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B320" r:id="rId363" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B216" r:id="rId364" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B235" r:id="rId365" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B363" r:id="rId366" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B43" r:id="rId367" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B395" r:id="rId368" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B95" r:id="rId369" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B14" r:id="rId370" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B134" r:id="rId371" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B277" r:id="rId372" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B151" r:id="rId373" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B148" r:id="rId374" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B85" r:id="rId375" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B145" r:id="rId376" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B129" r:id="rId377" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B270" r:id="rId378" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B165" r:id="rId379" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B347" r:id="rId380" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B334" r:id="rId381" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B332" r:id="rId382" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B360" r:id="rId383" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B37" r:id="rId384" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B113" r:id="rId385" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B283" r:id="rId386" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B106" r:id="rId387" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B57" r:id="rId388" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B84" r:id="rId389" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B293" r:id="rId390" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B294" r:id="rId391" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B33" r:id="rId392" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B303" r:id="rId393" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B349" r:id="rId394" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B249" r:id="rId395" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B232" r:id="rId396" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B46" r:id="rId397" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B218" r:id="rId398" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B246" r:id="rId399" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId404"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId400"/>
 </worksheet>
 </file>
 

--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5485ECC-BE81-4062-AC4A-2A9CA574DE1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BABCD6-48F3-4BA4-8C2D-CEC636D94B91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <sheet name="23" sheetId="24" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$414</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'24'!$A$1:$F$413</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2501,11 +2501,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:F414"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="F371" sqref="F371"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2536,9 +2536,9 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f t="shared" ref="A2:A3" si="0">ROW(A1)</f>
+        <f>ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2554,9 +2554,9 @@
         <v>672</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f t="shared" si="0"/>
+        <f>ROW(A2)</f>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2571,7 +2571,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A67" si="1">ROW(A3)</f>
+        <f>ROW(A3)</f>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2584,9 +2584,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A4)</f>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2601,7 +2601,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A5)</f>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2614,9 +2614,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A6)</f>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2629,7 +2629,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A7)</f>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2644,7 +2644,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A8)</f>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2657,9 +2657,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A9)</f>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2670,9 +2670,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A10)</f>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2683,9 +2683,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A11)</f>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2696,9 +2696,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A12)</f>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2711,7 +2711,7 @@
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A13)</f>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2726,7 +2726,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A14)</f>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2741,7 +2741,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A15)</f>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2756,7 +2756,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A16)</f>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2771,7 +2771,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A17)</f>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2786,7 +2786,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A18)</f>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2801,7 +2801,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A19)</f>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2816,7 +2816,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A20)</f>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2831,7 +2831,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A21)</f>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2846,7 +2846,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A22)</f>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2861,7 +2861,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A23)</f>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2876,7 +2876,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A24)</f>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2891,7 +2891,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A25)</f>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2906,7 +2906,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A26)</f>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2921,7 +2921,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A27)</f>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2936,7 +2936,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A28)</f>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2951,7 +2951,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A29)</f>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2966,7 +2966,7 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A30)</f>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2979,94 +2979,96 @@
         <v>647</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A31)</f>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>329</v>
+        <v>587</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A32)</f>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <f>ROW(A33)</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f>ROW(A34)</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A35)</f>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>610</v>
+        <v>263</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A36)</f>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>508</v>
+        <v>610</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A37)</f>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>251</v>
+        <v>508</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
@@ -3075,22 +3077,20 @@
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A38)</f>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>644</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A39)</f>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3101,9 +3101,9 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A40)</f>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3116,9 +3116,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A41)</f>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3131,9 +3131,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A42)</f>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3143,9 +3143,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A43)</f>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3153,9 +3153,9 @@
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A44)</f>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3168,9 +3168,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A45)</f>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3183,11 +3183,11 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A46)</f>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>688</v>
+        <v>450</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>644</v>
@@ -3198,11 +3198,11 @@
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A47)</f>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>644</v>
@@ -3213,11 +3213,11 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A48)</f>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>644</v>
@@ -3228,11 +3228,11 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A49)</f>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>589</v>
+        <v>337</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>644</v>
@@ -3241,9 +3241,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A50)</f>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3254,9 +3254,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A51)</f>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3267,9 +3267,9 @@
         <v>652</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A52)</f>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3284,11 +3284,11 @@
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A53)</f>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>337</v>
+        <v>78</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>644</v>
@@ -3296,68 +3296,68 @@
       <c r="D54" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="E54" s="1" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <f t="shared" si="1"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <f>ROW(A54)</f>
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B56" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A56)</f>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>612</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>645</v>
+      </c>
       <c r="D57" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1"/>
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <f>ROW(A57)</f>
+        <v>57</v>
+      </c>
       <c r="B58" s="2" t="s">
-        <v>689</v>
+        <v>516</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <f>ROW(A57)</f>
-        <v>57</v>
+        <f>ROW(A58)</f>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>593</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>644</v>
@@ -3366,9 +3366,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A59)</f>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3379,9 +3379,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A60)</f>
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3389,9 +3389,9 @@
       </c>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A61)</f>
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3399,9 +3399,9 @@
       </c>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A62)</f>
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3411,11 +3411,11 @@
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A63)</f>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>13</v>
+        <v>436</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>644</v>
@@ -3424,9 +3424,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A64)</f>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3434,9 +3434,9 @@
       </c>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A65)</f>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3444,9 +3444,9 @@
       </c>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f t="shared" si="1"/>
+        <f>ROW(A66)</f>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3454,9 +3454,9 @@
       </c>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f t="shared" ref="A68:A131" si="2">ROW(A67)</f>
+        <f>ROW(A67)</f>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3466,9 +3466,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A68)</f>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3476,9 +3476,9 @@
       </c>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A69)</f>
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3486,9 +3486,9 @@
       </c>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A70)</f>
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3496,9 +3496,9 @@
       </c>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A71)</f>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3506,9 +3506,9 @@
       </c>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A72)</f>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3516,9 +3516,9 @@
       </c>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A73)</f>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3526,9 +3526,9 @@
       </c>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A74)</f>
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3536,9 +3536,9 @@
       </c>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A75)</f>
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3546,9 +3546,9 @@
       </c>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A76)</f>
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3556,9 +3556,9 @@
       </c>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A77)</f>
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3568,11 +3568,11 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A78)</f>
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>436</v>
+        <v>517</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>644</v>
@@ -3581,9 +3581,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A79)</f>
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3591,9 +3591,9 @@
       </c>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A80)</f>
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3601,9 +3601,9 @@
       </c>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A81)</f>
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3611,9 +3611,9 @@
       </c>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A82)</f>
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3623,11 +3623,11 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A83)</f>
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>517</v>
+        <v>130</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>644</v>
@@ -3636,9 +3636,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A84)</f>
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3646,9 +3646,9 @@
       </c>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A85)</f>
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3656,9 +3656,9 @@
       </c>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A86)</f>
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3668,11 +3668,11 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A87)</f>
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
+        <v>422</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>644</v>
@@ -3681,9 +3681,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A88)</f>
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3691,9 +3691,9 @@
       </c>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A89)</f>
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3701,9 +3701,9 @@
       </c>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A90)</f>
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3711,9 +3711,9 @@
       </c>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A91)</f>
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3721,9 +3721,9 @@
       </c>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A92)</f>
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3731,9 +3731,9 @@
       </c>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A93)</f>
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3741,9 +3741,9 @@
       </c>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A94)</f>
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3751,9 +3751,9 @@
       </c>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A95)</f>
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3761,18 +3761,18 @@
       </c>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A96)</f>
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A97)</f>
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3780,9 +3780,9 @@
       </c>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A98)</f>
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3790,9 +3790,9 @@
       </c>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A99)</f>
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3800,9 +3800,9 @@
       </c>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A100)</f>
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3810,9 +3810,9 @@
       </c>
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A101)</f>
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3820,9 +3820,9 @@
       </c>
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A102)</f>
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3830,9 +3830,9 @@
       </c>
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A103)</f>
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3840,9 +3840,9 @@
       </c>
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A104)</f>
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3850,9 +3850,9 @@
       </c>
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A105)</f>
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3860,9 +3860,9 @@
       </c>
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A106)</f>
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3870,9 +3870,9 @@
       </c>
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A107)</f>
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3880,9 +3880,9 @@
       </c>
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A108)</f>
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3892,11 +3892,11 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A109)</f>
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>422</v>
+        <v>114</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>644</v>
@@ -3905,9 +3905,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A110)</f>
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3915,9 +3915,9 @@
       </c>
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A111)</f>
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3925,9 +3925,9 @@
       </c>
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A112)</f>
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3935,9 +3935,9 @@
       </c>
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A113)</f>
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3945,9 +3945,9 @@
       </c>
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A114)</f>
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3955,9 +3955,9 @@
       </c>
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A115)</f>
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3965,9 +3965,9 @@
       </c>
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A116)</f>
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3975,9 +3975,9 @@
       </c>
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A117)</f>
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3985,9 +3985,9 @@
       </c>
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A118)</f>
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3995,9 +3995,9 @@
       </c>
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A119)</f>
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -4005,9 +4005,9 @@
       </c>
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A120)</f>
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -4015,9 +4015,9 @@
       </c>
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A121)</f>
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -4025,9 +4025,9 @@
       </c>
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A122)</f>
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -4035,9 +4035,9 @@
       </c>
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A123)</f>
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -4045,9 +4045,9 @@
       </c>
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A124)</f>
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -4055,9 +4055,9 @@
       </c>
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A125)</f>
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -4067,37 +4067,37 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A126)</f>
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>114</v>
+        <v>597</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A127)</f>
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>597</v>
+        <v>414</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A128)</f>
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -4105,9 +4105,9 @@
       </c>
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A129)</f>
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -4117,9 +4117,9 @@
         <v>650</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <f t="shared" si="2"/>
+        <f>ROW(A130)</f>
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4127,9 +4127,9 @@
       </c>
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <f t="shared" ref="A132:A195" si="3">ROW(A131)</f>
+        <f>ROW(A131)</f>
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4137,9 +4137,9 @@
       </c>
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A132)</f>
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4147,9 +4147,9 @@
       </c>
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A133)</f>
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4157,9 +4157,9 @@
       </c>
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A134)</f>
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -4167,9 +4167,9 @@
       </c>
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A135)</f>
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4177,9 +4177,9 @@
       </c>
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A136)</f>
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4187,9 +4187,9 @@
       </c>
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A137)</f>
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4197,9 +4197,9 @@
       </c>
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A138)</f>
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4207,9 +4207,9 @@
       </c>
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A139)</f>
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -4217,9 +4217,9 @@
       </c>
       <c r="C140" s="1"/>
     </row>
-    <row r="141" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A140)</f>
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4227,9 +4227,9 @@
       </c>
       <c r="C141" s="1"/>
     </row>
-    <row r="142" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A141)</f>
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4237,9 +4237,9 @@
       </c>
       <c r="C142" s="1"/>
     </row>
-    <row r="143" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A142)</f>
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4247,9 +4247,9 @@
       </c>
       <c r="C143" s="1"/>
     </row>
-    <row r="144" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A143)</f>
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4257,9 +4257,9 @@
       </c>
       <c r="C144" s="1"/>
     </row>
-    <row r="145" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A144)</f>
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4267,9 +4267,9 @@
       </c>
       <c r="C145" s="1"/>
     </row>
-    <row r="146" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A145)</f>
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4277,9 +4277,9 @@
       </c>
       <c r="C146" s="1"/>
     </row>
-    <row r="147" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A146)</f>
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4287,9 +4287,9 @@
       </c>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A147)</f>
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4297,9 +4297,9 @@
       </c>
       <c r="C148" s="1"/>
     </row>
-    <row r="149" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A148)</f>
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -4307,9 +4307,9 @@
       </c>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A149)</f>
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4317,9 +4317,9 @@
       </c>
       <c r="C150" s="1"/>
     </row>
-    <row r="151" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A150)</f>
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4327,9 +4327,9 @@
       </c>
       <c r="C151" s="1"/>
     </row>
-    <row r="152" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A151)</f>
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4337,9 +4337,9 @@
       </c>
       <c r="C152" s="1"/>
     </row>
-    <row r="153" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A152)</f>
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4347,9 +4347,9 @@
       </c>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A153)</f>
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -4357,9 +4357,9 @@
       </c>
       <c r="C154" s="1"/>
     </row>
-    <row r="155" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A154)</f>
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4367,796 +4367,796 @@
       </c>
       <c r="C155" s="1"/>
     </row>
-    <row r="156" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A155)</f>
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <f>ROW(A156)</f>
+        <v>156</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <f>ROW(A157)</f>
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
         <v>676</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>675</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <f t="shared" si="3"/>
-        <v>157</v>
-      </c>
-      <c r="B158" s="2" t="s">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <f>ROW(A158)</f>
+        <v>158</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
-      <c r="B159" s="2" t="s">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <f>ROW(A159)</f>
+        <v>159</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A160)</f>
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>414</v>
+        <v>14</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A161)</f>
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <f>ROW(A162)</f>
+        <v>162</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1">
-        <f t="shared" si="3"/>
-        <v>162</v>
-      </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <f>ROW(A163)</f>
+        <v>163</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1">
-        <f t="shared" si="3"/>
-        <v>163</v>
-      </c>
-      <c r="B164" s="2" t="s">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <f>ROW(A164)</f>
+        <v>164</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1">
-        <f t="shared" si="3"/>
-        <v>164</v>
-      </c>
-      <c r="B165" s="2" t="s">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <f>ROW(A165)</f>
+        <v>165</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1">
-        <f t="shared" si="3"/>
-        <v>165</v>
-      </c>
-      <c r="B166" s="2" t="s">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <f>ROW(A166)</f>
+        <v>166</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1">
-        <f t="shared" si="3"/>
-        <v>166</v>
-      </c>
-      <c r="B167" s="2" t="s">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <f>ROW(A167)</f>
+        <v>167</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1">
-        <f t="shared" si="3"/>
-        <v>167</v>
-      </c>
-      <c r="B168" s="2" t="s">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <f>ROW(A168)</f>
+        <v>168</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1">
-        <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
-      <c r="B169" s="2" t="s">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <f>ROW(A169)</f>
+        <v>169</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1">
-        <f t="shared" si="3"/>
-        <v>169</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <f t="shared" si="3"/>
+        <f>ROW(A170)</f>
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <f>ROW(A171)</f>
+        <v>171</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1">
-        <f t="shared" si="3"/>
-        <v>171</v>
-      </c>
-      <c r="B172" s="2" t="s">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <f>ROW(A172)</f>
+        <v>172</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1">
-        <f t="shared" si="3"/>
-        <v>172</v>
-      </c>
-      <c r="B173" s="2" t="s">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <f>ROW(A173)</f>
+        <v>173</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1">
-        <f t="shared" si="3"/>
-        <v>173</v>
-      </c>
-      <c r="B174" s="2" t="s">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <f>ROW(A174)</f>
+        <v>174</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1">
-        <f t="shared" si="3"/>
-        <v>174</v>
-      </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1">
+        <f>ROW(A175)</f>
+        <v>175</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="1">
-        <f t="shared" si="3"/>
-        <v>175</v>
-      </c>
-      <c r="B176" s="2" t="s">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1">
+        <f>ROW(A176)</f>
+        <v>176</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="1">
-        <f t="shared" si="3"/>
-        <v>176</v>
-      </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="1">
+        <f>ROW(A177)</f>
+        <v>177</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="1">
-        <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1">
+        <f>ROW(A178)</f>
+        <v>178</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="1">
-        <f t="shared" si="3"/>
-        <v>178</v>
-      </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="1">
+        <f>ROW(A179)</f>
+        <v>179</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1">
-        <f t="shared" si="3"/>
-        <v>179</v>
-      </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="1">
+        <f>ROW(A180)</f>
+        <v>180</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1">
-        <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <f>ROW(A181)</f>
+        <v>181</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1">
-        <f t="shared" si="3"/>
-        <v>181</v>
-      </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <f>ROW(A182)</f>
+        <v>182</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1">
-        <f t="shared" si="3"/>
-        <v>182</v>
-      </c>
-      <c r="B183" s="2" t="s">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <f>ROW(A183)</f>
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1">
-        <f t="shared" si="3"/>
-        <v>183</v>
-      </c>
-      <c r="B184" s="2" t="s">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <f>ROW(A184)</f>
+        <v>184</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1">
-        <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-      <c r="B185" s="2" t="s">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <f>ROW(A185)</f>
+        <v>185</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1">
-        <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="B186" s="2" t="s">
+    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <f>ROW(A186)</f>
+        <v>186</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1">
-        <f t="shared" si="3"/>
-        <v>186</v>
-      </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <f>ROW(A187)</f>
+        <v>187</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1">
-        <f t="shared" si="3"/>
-        <v>187</v>
-      </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <f>ROW(A188)</f>
+        <v>188</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1">
-        <f t="shared" si="3"/>
-        <v>188</v>
-      </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <f>ROW(A189)</f>
+        <v>189</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1">
-        <f t="shared" si="3"/>
-        <v>189</v>
-      </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <f>ROW(A190)</f>
+        <v>190</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="1:4" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1">
-        <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <f>ROW(A191)</f>
+        <v>191</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1">
-        <f t="shared" si="3"/>
-        <v>191</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <f>ROW(A192)</f>
+        <v>192</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1">
-        <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
-      <c r="B193" s="2" t="s">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1">
+        <f>ROW(A193)</f>
+        <v>193</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1">
+        <f>ROW(A194)</f>
+        <v>194</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1">
-        <f t="shared" si="3"/>
-        <v>194</v>
-      </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1">
+        <f>ROW(A195)</f>
+        <v>195</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1">
-        <f t="shared" ref="A196:A257" si="4">ROW(A195)</f>
-        <v>195</v>
-      </c>
-      <c r="B196" s="2" t="s">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1">
+        <f>ROW(A196)</f>
+        <v>196</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1">
-        <f t="shared" si="4"/>
-        <v>196</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A197)</f>
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>64</v>
+        <v>615</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A198)</f>
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="1">
+        <f>ROW(A199)</f>
+        <v>199</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1">
-        <f t="shared" si="4"/>
-        <v>199</v>
-      </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="1">
+        <f>ROW(A200)</f>
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="B201" s="2" t="s">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1">
+        <f>ROW(A201)</f>
+        <v>201</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1">
-        <f t="shared" si="4"/>
-        <v>201</v>
-      </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1">
+        <f>ROW(A202)</f>
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1">
-        <f t="shared" si="4"/>
-        <v>202</v>
-      </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1">
+        <f>ROW(A203)</f>
+        <v>203</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1">
-        <f t="shared" si="4"/>
-        <v>203</v>
-      </c>
-      <c r="B204" s="2" t="s">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1">
+        <f>ROW(A204)</f>
+        <v>204</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1">
-        <f t="shared" si="4"/>
-        <v>204</v>
-      </c>
-      <c r="B205" s="2" t="s">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1">
+        <f>ROW(A205)</f>
+        <v>205</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1">
-        <f t="shared" si="4"/>
-        <v>205</v>
-      </c>
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1">
+        <f>ROW(A206)</f>
+        <v>206</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1">
-        <f t="shared" si="4"/>
-        <v>206</v>
-      </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1">
+        <f>ROW(A207)</f>
+        <v>207</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1">
-        <f t="shared" si="4"/>
-        <v>207</v>
-      </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="1">
+        <f>ROW(A208)</f>
+        <v>208</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1">
-        <f t="shared" si="4"/>
-        <v>208</v>
-      </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1">
+        <f>ROW(A209)</f>
+        <v>209</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="1">
-        <f t="shared" si="4"/>
-        <v>209</v>
-      </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="1">
+        <f>ROW(A210)</f>
+        <v>210</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <f t="shared" si="4"/>
-        <v>210</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A211)</f>
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1">
+        <f>ROW(A212)</f>
+        <v>212</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D213" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1">
-        <f t="shared" si="4"/>
-        <v>212</v>
-      </c>
-      <c r="B213" s="2" t="s">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="1">
+        <f>ROW(A213)</f>
+        <v>213</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="1">
-        <f t="shared" si="4"/>
-        <v>213</v>
-      </c>
-      <c r="B214" s="2" t="s">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="1">
+        <f>ROW(A214)</f>
+        <v>214</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C214" s="1"/>
-      <c r="D214" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1">
-        <f t="shared" si="4"/>
-        <v>214</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="C215" s="1"/>
       <c r="D215" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A215)</f>
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C216" s="1"/>
+      <c r="D216" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="1">
+        <f>ROW(A216)</f>
+        <v>216</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1">
-        <f t="shared" si="4"/>
-        <v>216</v>
-      </c>
-      <c r="B217" s="2" t="s">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="1">
+        <f>ROW(A217)</f>
+        <v>217</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1">
-        <f t="shared" si="4"/>
-        <v>217</v>
-      </c>
-      <c r="B218" s="2" t="s">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1">
+        <f>ROW(A218)</f>
+        <v>218</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1">
-        <f t="shared" si="4"/>
-        <v>218</v>
-      </c>
-      <c r="B219" s="2" t="s">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="1">
+        <f>ROW(A219)</f>
+        <v>219</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1">
-        <f t="shared" si="4"/>
-        <v>219</v>
-      </c>
-      <c r="B220" s="2" t="s">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1">
+        <f>ROW(A220)</f>
+        <v>220</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="B221" s="2" t="s">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1">
+        <f>ROW(A221)</f>
+        <v>221</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1">
-        <f t="shared" si="4"/>
-        <v>221</v>
-      </c>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1">
+        <f>ROW(A222)</f>
+        <v>222</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1">
-        <f t="shared" si="4"/>
-        <v>222</v>
-      </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="1">
+        <f>ROW(A223)</f>
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1">
-        <f t="shared" si="4"/>
-        <v>223</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A224)</f>
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="1">
+        <f>ROW(A225)</f>
+        <v>225</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1">
-        <f t="shared" si="4"/>
-        <v>225</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="C226" s="1"/>
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A226)</f>
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="C227" s="1"/>
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A227)</f>
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>19</v>
+        <v>588</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>644</v>
@@ -5167,11 +5167,11 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A228)</f>
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>588</v>
+        <v>468</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>644</v>
@@ -5180,9 +5180,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A229)</f>
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -5190,9 +5190,9 @@
       </c>
       <c r="C230" s="1"/>
     </row>
-    <row r="231" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A230)</f>
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -5200,9 +5200,9 @@
       </c>
       <c r="C231" s="1"/>
     </row>
-    <row r="232" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A231)</f>
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -5210,9 +5210,9 @@
       </c>
       <c r="C232" s="1"/>
     </row>
-    <row r="233" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A232)</f>
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -5220,9 +5220,9 @@
       </c>
       <c r="C233" s="1"/>
     </row>
-    <row r="234" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A233)</f>
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -5230,9 +5230,9 @@
       </c>
       <c r="C234" s="1"/>
     </row>
-    <row r="235" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A234)</f>
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -5240,9 +5240,9 @@
       </c>
       <c r="C235" s="1"/>
     </row>
-    <row r="236" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A235)</f>
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -5250,162 +5250,162 @@
       </c>
       <c r="C236" s="1"/>
     </row>
-    <row r="237" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="e">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="1">
+        <f>ROW(A236)</f>
+        <v>236</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="e">
         <f>ROW(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B238" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1">
-        <f t="shared" si="4"/>
-        <v>237</v>
-      </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1">
+        <f>ROW(A238)</f>
+        <v>238</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1">
-        <f t="shared" si="4"/>
-        <v>238</v>
-      </c>
-      <c r="B239" s="2" t="s">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1">
+        <f>ROW(A239)</f>
+        <v>239</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1">
-        <f t="shared" si="4"/>
-        <v>239</v>
-      </c>
-      <c r="B240" s="2" t="s">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1">
+        <f>ROW(A240)</f>
+        <v>240</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="B241" s="2" t="s">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="1">
+        <f>ROW(A241)</f>
+        <v>241</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1">
-        <f t="shared" si="4"/>
-        <v>241</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A242)</f>
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1">
+        <f>ROW(A243)</f>
+        <v>243</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1">
-        <f t="shared" si="4"/>
-        <v>243</v>
-      </c>
-      <c r="B244" s="2" t="s">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1">
+        <f>ROW(A244)</f>
+        <v>244</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1">
-        <f t="shared" si="4"/>
-        <v>244</v>
-      </c>
-      <c r="B245" s="2" t="s">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1">
+        <f>ROW(A245)</f>
+        <v>245</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="C245" s="1"/>
-    </row>
-    <row r="246" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1">
-        <f t="shared" si="4"/>
-        <v>245</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C246" s="1"/>
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A246)</f>
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C247" s="1"/>
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A247)</f>
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>167</v>
+        <v>691</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A248)</f>
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>691</v>
+        <v>595</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A249)</f>
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -5415,80 +5415,80 @@
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <f t="shared" si="4"/>
+        <f>ROW(A250)</f>
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C251" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1">
+        <f>ROW(A251)</f>
+        <v>251</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1">
+        <f>ROW(A252)</f>
+        <v>252</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="1">
+        <f>ROW(A253)</f>
+        <v>253</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="1">
+        <f>ROW(A254)</f>
+        <v>254</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1">
+        <f>ROW(A255)</f>
+        <v>255</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="1">
+        <f>ROW(A256)</f>
+        <v>256</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="1">
-        <f t="shared" si="4"/>
-        <v>251</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C252" s="1"/>
-    </row>
-    <row r="253" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="1">
-        <f t="shared" si="4"/>
-        <v>252</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="C253" s="1"/>
-    </row>
-    <row r="254" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="1">
-        <f t="shared" si="4"/>
-        <v>253</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C254" s="1"/>
-    </row>
-    <row r="255" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="1">
-        <f t="shared" si="4"/>
-        <v>254</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C255" s="1"/>
-    </row>
-    <row r="256" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="1">
-        <f t="shared" si="4"/>
-        <v>255</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C256" s="1"/>
-    </row>
-    <row r="257" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1">
-        <f t="shared" si="4"/>
-        <v>256</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C257" s="1"/>
-    </row>
-    <row r="258" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="e">
         <f>ROW(#REF!)</f>
         <v>#REF!</v>
@@ -5498,9 +5498,9 @@
       </c>
       <c r="C258" s="1"/>
     </row>
-    <row r="259" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f t="shared" ref="A259:A320" si="5">ROW(A258)</f>
+        <f>ROW(A258)</f>
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -5508,9 +5508,9 @@
       </c>
       <c r="C259" s="1"/>
     </row>
-    <row r="260" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A259)</f>
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -5518,9 +5518,9 @@
       </c>
       <c r="C260" s="1"/>
     </row>
-    <row r="261" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A260)</f>
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -5530,9 +5530,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A261)</f>
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -5540,9 +5540,9 @@
       </c>
       <c r="C262" s="1"/>
     </row>
-    <row r="263" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A262)</f>
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -5550,9 +5550,9 @@
       </c>
       <c r="C263" s="1"/>
     </row>
-    <row r="264" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A263)</f>
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -5560,9 +5560,9 @@
       </c>
       <c r="C264" s="1"/>
     </row>
-    <row r="265" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A264)</f>
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -5570,9 +5570,9 @@
       </c>
       <c r="C265" s="1"/>
     </row>
-    <row r="266" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A265)</f>
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -5580,9 +5580,9 @@
       </c>
       <c r="C266" s="1"/>
     </row>
-    <row r="267" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A266)</f>
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -5590,9 +5590,9 @@
       </c>
       <c r="C267" s="1"/>
     </row>
-    <row r="268" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A267)</f>
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -5600,9 +5600,9 @@
       </c>
       <c r="C268" s="1"/>
     </row>
-    <row r="269" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A268)</f>
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -5610,9 +5610,9 @@
       </c>
       <c r="C269" s="1"/>
     </row>
-    <row r="270" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A269)</f>
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -5622,9 +5622,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A270)</f>
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -5634,9 +5634,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A271)</f>
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -5644,9 +5644,9 @@
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A272)</f>
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -5654,9 +5654,9 @@
       </c>
       <c r="C273" s="1"/>
     </row>
-    <row r="274" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A273)</f>
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -5666,9 +5666,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A274)</f>
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -5678,9 +5678,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A275)</f>
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -5688,9 +5688,9 @@
       </c>
       <c r="C276" s="1"/>
     </row>
-    <row r="277" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A276)</f>
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -5698,9 +5698,9 @@
       </c>
       <c r="C277" s="1"/>
     </row>
-    <row r="278" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A277)</f>
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -5708,9 +5708,9 @@
       </c>
       <c r="C278" s="1"/>
     </row>
-    <row r="279" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A278)</f>
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -5718,9 +5718,9 @@
       </c>
       <c r="C279" s="1"/>
     </row>
-    <row r="280" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A279)</f>
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -5730,9 +5730,9 @@
         <v>645</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A280)</f>
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -5742,11 +5742,11 @@
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A281)</f>
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>113</v>
+        <v>512</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>644</v>
@@ -5757,11 +5757,11 @@
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A282)</f>
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>644</v>
@@ -5770,62 +5770,62 @@
         <v>647</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A283)</f>
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <f>ROW(A284)</f>
+        <v>284</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="1">
-        <f t="shared" si="5"/>
-        <v>284</v>
-      </c>
-      <c r="B285" s="2" t="s">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <f>ROW(A285)</f>
+        <v>285</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="1">
-        <f t="shared" si="5"/>
-        <v>285</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C286" s="1"/>
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A286)</f>
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D287" s="1" t="s">
-        <v>647</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C287" s="1"/>
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A287)</f>
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>83</v>
+        <v>600</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>644</v>
@@ -5834,136 +5834,136 @@
         <v>647</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A288)</f>
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <f>ROW(A289)</f>
+        <v>289</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C289" s="1"/>
-    </row>
-    <row r="290" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1">
-        <f t="shared" si="5"/>
-        <v>289</v>
-      </c>
-      <c r="B290" s="2" t="s">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <f>ROW(A290)</f>
+        <v>290</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C290" s="1"/>
-    </row>
-    <row r="291" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1">
-        <f t="shared" si="5"/>
-        <v>290</v>
-      </c>
-      <c r="B291" s="2" t="s">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <f>ROW(A291)</f>
+        <v>291</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1">
-        <f t="shared" si="5"/>
-        <v>291</v>
-      </c>
-      <c r="B292" s="2" t="s">
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <f>ROW(A292)</f>
+        <v>292</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C292" s="1"/>
-    </row>
-    <row r="293" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1">
-        <f t="shared" si="5"/>
-        <v>292</v>
-      </c>
-      <c r="B293" s="2" t="s">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <f>ROW(A293)</f>
+        <v>293</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1">
-        <f t="shared" si="5"/>
-        <v>293</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A294)</f>
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <f>ROW(A295)</f>
+        <v>295</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C295" s="1"/>
-    </row>
-    <row r="296" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1">
-        <f t="shared" si="5"/>
-        <v>295</v>
-      </c>
-      <c r="B296" s="2" t="s">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <f>ROW(A296)</f>
+        <v>296</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C296" s="1"/>
-    </row>
-    <row r="297" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1">
-        <f t="shared" si="5"/>
-        <v>296</v>
-      </c>
-      <c r="B297" s="2" t="s">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <f>ROW(A297)</f>
+        <v>297</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C297" s="1"/>
-    </row>
-    <row r="298" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1">
-        <f t="shared" si="5"/>
-        <v>297</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>657</v>
-      </c>
+      <c r="C298" s="1"/>
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A298)</f>
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>600</v>
+        <v>194</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D299" s="1" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A299)</f>
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>599</v>
+        <v>381</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>644</v>
@@ -5974,237 +5974,240 @@
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A300)</f>
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D301" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A301)</f>
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <f>ROW(A302)</f>
+        <v>302</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C302" s="1"/>
-      <c r="D302" t="s">
+      <c r="C303" s="1"/>
+      <c r="D303" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1">
-        <f t="shared" si="5"/>
-        <v>302</v>
-      </c>
-      <c r="B303" s="2" t="s">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <f>ROW(A303)</f>
+        <v>303</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C303" s="1"/>
-    </row>
-    <row r="304" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="1">
-        <f t="shared" si="5"/>
-        <v>303</v>
-      </c>
-      <c r="B304" s="2" t="s">
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <f>ROW(A304)</f>
+        <v>304</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C304" s="1"/>
-    </row>
-    <row r="305" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1">
-        <f t="shared" si="5"/>
-        <v>304</v>
-      </c>
-      <c r="B305" s="2" t="s">
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <f>ROW(A305)</f>
+        <v>305</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1">
-        <f t="shared" si="5"/>
-        <v>305</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A306)</f>
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>616</v>
+        <v>538</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A307)</f>
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <f>ROW(A308)</f>
+        <v>308</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C308" s="1"/>
-    </row>
-    <row r="309" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1">
-        <f t="shared" si="5"/>
-        <v>308</v>
-      </c>
-      <c r="B309" s="2" t="s">
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <f>ROW(A309)</f>
+        <v>309</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="1">
-        <f t="shared" si="5"/>
-        <v>309</v>
-      </c>
-      <c r="B310" s="2" t="s">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <f>ROW(A310)</f>
+        <v>310</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C310" s="1"/>
-    </row>
-    <row r="311" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="1">
-        <f t="shared" si="5"/>
-        <v>310</v>
-      </c>
-      <c r="B311" s="2" t="s">
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <f>ROW(A311)</f>
+        <v>311</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="1">
-        <f t="shared" si="5"/>
-        <v>311</v>
-      </c>
-      <c r="B312" s="2" t="s">
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <f>ROW(A312)</f>
+        <v>312</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="1">
-        <f t="shared" si="5"/>
-        <v>312</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A313)</f>
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <f>ROW(A314)</f>
+        <v>314</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="C315" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="1">
-        <f t="shared" si="5"/>
-        <v>314</v>
-      </c>
-      <c r="B315" t="s">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <f>ROW(A315)</f>
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
         <v>677</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D316" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1">
-        <f t="shared" si="5"/>
-        <v>315</v>
-      </c>
-      <c r="B316" s="2" t="s">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <f>ROW(A316)</f>
+        <v>316</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C316" s="1"/>
-    </row>
-    <row r="317" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1">
-        <f t="shared" si="5"/>
-        <v>316</v>
-      </c>
-      <c r="B317" s="2" t="s">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <f>ROW(A317)</f>
+        <v>317</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C317" s="1"/>
-    </row>
-    <row r="318" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="1">
-        <f t="shared" si="5"/>
-        <v>317</v>
-      </c>
-      <c r="B318" s="2" t="s">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <f>ROW(A318)</f>
+        <v>318</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="1">
-        <f t="shared" si="5"/>
-        <v>318</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C319" s="1"/>
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <f t="shared" si="5"/>
+        <f>ROW(A319)</f>
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D320" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <f t="shared" ref="A321:A383" si="6">ROW(A320)</f>
+        <f>ROW(A320)</f>
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -6214,9 +6217,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A321)</f>
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -6224,9 +6227,9 @@
       </c>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A322)</f>
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -6236,9 +6239,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A323)</f>
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -6248,9 +6251,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A324)</f>
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -6258,9 +6261,9 @@
       </c>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A325)</f>
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -6268,9 +6271,9 @@
       </c>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A326)</f>
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -6278,9 +6281,9 @@
       </c>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A327)</f>
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -6290,11 +6293,11 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A328)</f>
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>583</v>
+        <v>35</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>644</v>
@@ -6305,22 +6308,22 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A329)</f>
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="C330" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="D330" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A330)</f>
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -6328,9 +6331,9 @@
       </c>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A331)</f>
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -6338,9 +6341,9 @@
       </c>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A332)</f>
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -6351,9 +6354,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A333)</f>
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -6363,9 +6366,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A334)</f>
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -6373,9 +6376,9 @@
       </c>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A335)</f>
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -6383,9 +6386,9 @@
       </c>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A336)</f>
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -6393,9 +6396,9 @@
       </c>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A337)</f>
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -6403,9 +6406,9 @@
       </c>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A338)</f>
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -6415,9 +6418,9 @@
         <v>646</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A339)</f>
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -6425,9 +6428,9 @@
       </c>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A340)</f>
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -6435,9 +6438,9 @@
       </c>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A341)</f>
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -6445,9 +6448,9 @@
       </c>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A342)</f>
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -6455,9 +6458,9 @@
       </c>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A343)</f>
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -6465,9 +6468,9 @@
       </c>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A344)</f>
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -6475,533 +6478,545 @@
       </c>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A345)</f>
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C346" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <f>ROW(A346)</f>
+        <v>346</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D347" s="1" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1">
-        <f t="shared" si="6"/>
-        <v>346</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C347" s="1"/>
-    </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1">
-        <f t="shared" si="6"/>
-        <v>347</v>
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="e">
+        <f>ROW(#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>431</v>
+        <v>526</v>
       </c>
       <c r="C348" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <f>ROW(A348)</f>
+        <v>348</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <f>ROW(A349)</f>
+        <v>349</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <f>ROW(A350)</f>
+        <v>350</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <f>ROW(A351)</f>
+        <v>351</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E352" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <f>ROW(A352)</f>
+        <v>352</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <f>ROW(A353)</f>
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>678</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="D354" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <f>ROW(A354)</f>
+        <v>354</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <f>ROW(A355)</f>
+        <v>355</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <f>ROW(A356)</f>
+        <v>356</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="1">
+        <f>ROW(A357)</f>
+        <v>357</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="1">
+        <f>ROW(A358)</f>
+        <v>358</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="1">
+        <f>ROW(A359)</f>
+        <v>359</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="1">
+        <f>ROW(A360)</f>
+        <v>360</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1">
+        <f>ROW(A361)</f>
+        <v>361</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="1">
+        <f>ROW(A362)</f>
+        <v>362</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="1">
+        <f>ROW(A363)</f>
+        <v>363</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="1">
+        <f>ROW(A364)</f>
+        <v>364</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="1">
+        <f>ROW(A365)</f>
+        <v>365</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="1">
+        <f>ROW(A366)</f>
+        <v>366</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="1">
+        <f>ROW(A367)</f>
+        <v>367</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1">
-        <f t="shared" si="6"/>
-        <v>348</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C349" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1">
-        <f t="shared" si="6"/>
-        <v>349</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C350" s="1"/>
-    </row>
-    <row r="351" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1">
-        <f t="shared" si="6"/>
-        <v>350</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C351" s="1"/>
-    </row>
-    <row r="352" spans="1:4" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1">
-        <f t="shared" si="6"/>
-        <v>351</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C352" s="1"/>
-    </row>
-    <row r="353" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="1">
-        <f t="shared" si="6"/>
-        <v>352</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="E353" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="1">
-        <f t="shared" si="6"/>
-        <v>353</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="1">
-        <f t="shared" si="6"/>
-        <v>354</v>
-      </c>
-      <c r="B355" t="s">
-        <v>678</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D355" t="s">
+      <c r="D368" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="1">
-        <f t="shared" si="6"/>
-        <v>355</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C356" s="1"/>
-    </row>
-    <row r="357" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="1">
-        <f t="shared" si="6"/>
-        <v>356</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C357" s="1"/>
-    </row>
-    <row r="358" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="1">
-        <f t="shared" si="6"/>
-        <v>357</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="1">
-        <f t="shared" si="6"/>
-        <v>358</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C359" s="1"/>
-    </row>
-    <row r="360" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="1">
-        <f t="shared" si="6"/>
-        <v>359</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="C360" s="1"/>
-    </row>
-    <row r="361" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1">
-        <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C361" s="1"/>
-    </row>
-    <row r="362" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1">
-        <f t="shared" si="6"/>
-        <v>361</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C362" s="1"/>
-    </row>
-    <row r="363" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="1">
-        <f t="shared" si="6"/>
-        <v>362</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C363" s="1"/>
-    </row>
-    <row r="364" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1">
-        <f t="shared" si="6"/>
-        <v>363</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C364" s="1"/>
-    </row>
-    <row r="365" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1">
-        <f t="shared" si="6"/>
-        <v>364</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C365" s="1"/>
-    </row>
-    <row r="366" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="1">
-        <f t="shared" si="6"/>
-        <v>365</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C366" s="1"/>
-    </row>
-    <row r="367" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1">
-        <f t="shared" si="6"/>
-        <v>366</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C367" s="1"/>
-    </row>
-    <row r="368" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="1">
-        <f t="shared" si="6"/>
-        <v>367</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C368" s="1"/>
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A368)</f>
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C369" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="1">
+        <f>ROW(A369)</f>
+        <v>369</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="1">
-        <f t="shared" si="6"/>
-        <v>369</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="C370" s="1"/>
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A370)</f>
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C371" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="1">
+        <f>ROW(A371)</f>
+        <v>371</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="D372" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1">
-        <f t="shared" si="6"/>
-        <v>371</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C372" s="1"/>
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A372)</f>
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C373" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="1">
+        <f>ROW(A373)</f>
+        <v>373</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="1">
+        <f>ROW(A374)</f>
+        <v>374</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="1">
-        <f t="shared" si="6"/>
-        <v>373</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C374" s="1"/>
-    </row>
-    <row r="375" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="1">
-        <f t="shared" si="6"/>
-        <v>374</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C375" s="1"/>
+      <c r="D375" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A375)</f>
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>464</v>
+        <v>335</v>
       </c>
       <c r="C376" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="1">
+        <f>ROW(A376)</f>
+        <v>376</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C377" s="1"/>
+      <c r="E377" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="1">
+        <f>ROW(A377)</f>
+        <v>377</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="1">
+        <f>ROW(A378)</f>
+        <v>378</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="1">
+        <f>ROW(A379)</f>
+        <v>379</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D376" t="s">
+      <c r="D380" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="1">
-        <f t="shared" si="6"/>
-        <v>376</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="1">
-        <f t="shared" si="6"/>
-        <v>377</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C378" s="1"/>
-      <c r="E378" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="1">
-        <f t="shared" si="6"/>
-        <v>378</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="1">
-        <f t="shared" si="6"/>
-        <v>379</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C380" s="1"/>
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A380)</f>
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>606</v>
+        <v>399</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D381" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <f t="shared" si="6"/>
+        <f>ROW(A381)</f>
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>399</v>
+        <v>108</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D382" t="s">
+    </row>
+    <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="1">
+        <f>ROW(A382)</f>
+        <v>382</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C383" s="1"/>
+      <c r="D383" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="1">
-        <f t="shared" si="6"/>
-        <v>382</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <f t="shared" ref="A384:A404" si="7">ROW(A383)</f>
+        <f>ROW(A383)</f>
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="C384" s="1"/>
       <c r="D384" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A384)</f>
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>11</v>
+        <v>370</v>
       </c>
       <c r="C385" s="1"/>
-      <c r="D385" t="s">
+    </row>
+    <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="1">
+        <f>ROW(A385)</f>
+        <v>385</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="1">
+        <f>ROW(A386)</f>
+        <v>386</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="1">
+        <f>ROW(A387)</f>
+        <v>387</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="1">
+        <f>ROW(A388)</f>
+        <v>388</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C389" s="1"/>
+      <c r="D389" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="1">
-        <f t="shared" si="7"/>
-        <v>385</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="C386" s="1"/>
-    </row>
-    <row r="387" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="1">
-        <f t="shared" si="7"/>
-        <v>386</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="388" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="1">
-        <f t="shared" si="7"/>
-        <v>387</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C388" s="1"/>
-    </row>
-    <row r="389" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1">
-        <f t="shared" si="7"/>
-        <v>388</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C389" s="1"/>
-    </row>
-    <row r="390" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A389)</f>
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C390" s="1"/>
-      <c r="D390" t="s">
+        <v>668</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D390" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E390" t="s">
+        <v>660</v>
+      </c>
+      <c r="F390" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A390)</f>
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>649</v>
@@ -7016,13 +7031,13 @@
         <v>666</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A391)</f>
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C392" s="1" t="s">
         <v>649</v>
@@ -7037,138 +7052,132 @@
         <v>666</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A392)</f>
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>649</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="C393" s="1"/>
       <c r="D393" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E393" t="s">
-        <v>660</v>
-      </c>
-      <c r="F393" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="394" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E393" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A393)</f>
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>674</v>
+        <v>477</v>
       </c>
       <c r="C394" s="1"/>
-      <c r="D394" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="E394" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="F394" s="5" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="395" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E394" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A394)</f>
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C395" s="1"/>
-      <c r="E395" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>579</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D395" s="1"/>
+    </row>
+    <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A395)</f>
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D396" s="1"/>
-    </row>
-    <row r="397" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A396)</f>
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C397" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C397" s="1"/>
+    </row>
+    <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <f>ROW(A397)</f>
+        <v>397</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="1">
-        <f t="shared" si="7"/>
-        <v>397</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C398" s="1"/>
-    </row>
-    <row r="399" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A398)</f>
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>346</v>
+        <v>546</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="400" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A399)</f>
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C400" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="C400" s="1"/>
+      <c r="D400" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A400)</f>
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C401" s="1"/>
-      <c r="D401" t="s">
+        <v>582</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D401" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A401)</f>
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>585</v>
+        <v>688</v>
       </c>
       <c r="C402" s="1" t="s">
         <v>644</v>
@@ -7177,9 +7186,9 @@
         <v>647</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A402)</f>
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -7189,364 +7198,344 @@
     </row>
     <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <f t="shared" si="7"/>
+        <f>ROW(A403)</f>
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D404" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C404" s="1"/>
+      <c r="E404" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <f>ROW(A404)</f>
+        <v>404</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C405" s="1"/>
+      <c r="D405" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="1">
-        <f t="shared" ref="A405:A414" si="8">ROW(A404)</f>
-        <v>404</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C405" s="1"/>
-      <c r="E405" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A405)</f>
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
       <c r="C406" s="1"/>
-      <c r="D406" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A406)</f>
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C407" s="1"/>
     </row>
-    <row r="408" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A407)</f>
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
       <c r="C408" s="1"/>
     </row>
-    <row r="409" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A408)</f>
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
       <c r="C409" s="1"/>
     </row>
-    <row r="410" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A409)</f>
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C410" s="1"/>
     </row>
-    <row r="411" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A410)</f>
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C411" s="1"/>
-    </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A411)</f>
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>6</v>
+        <v>566</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D412" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <f t="shared" si="8"/>
+        <f>ROW(A412)</f>
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>646</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C413" s="1"/>
       <c r="D413" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A414" s="1">
-        <f t="shared" si="8"/>
-        <v>413</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C414" s="1"/>
-      <c r="D414" t="s">
-        <v>647</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F414" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Tree"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F404">
+  <autoFilter ref="A1:F413" xr:uid="{F2F84B16-39D9-4BF0-A7B0-4320D8C14DEB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F413">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F416">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F415">
     <sortCondition ref="B1"/>
   </sortState>
   <dataConsolidate/>
   <hyperlinks>
-    <hyperlink ref="B208" r:id="rId1" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B237" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B207" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B302" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B209" r:id="rId1" display="https://leetcode.com/problems/longest-substring-without-repeating-characters" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B238" r:id="rId2" display="https://leetcode.com/problems/median-of-two-sorted-arrays" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B208" r:id="rId3" display="https://leetcode.com/problems/longest-palindromic-substring" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B303" r:id="rId4" display="https://leetcode.com/problems/regular-expression-matching" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B51" r:id="rId5" display="https://leetcode.com/problems/container-with-most-water" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B392" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B391" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B306" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B241" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B239" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B379" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B313" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B368" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B209" r:id="rId14" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B391" r:id="rId6" display="https://leetcode.com/problems/3sum" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B390" r:id="rId7" display="https://leetcode.com/problems/3sum-closest" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B307" r:id="rId8" display="https://leetcode.com/problems/remove-nth-node-from-end-of-list" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B242" r:id="rId9" display="https://leetcode.com/problems/merge-two-sorted-lists" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B240" r:id="rId10" display="https://leetcode.com/problems/merge-k-sorted-lists" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B378" r:id="rId11" display="https://leetcode.com/problems/swap-nodes-in-pairs" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B314" r:id="rId12" display="https://leetcode.com/problems/reverse-nodes-in-k-group" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B367" r:id="rId13" display="https://leetcode.com/problems/substring-with-concatenation-of-all-words" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B210" r:id="rId14" display="https://leetcode.com/problems/longest-valid-parentheses" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="B327" r:id="rId15" display="https://leetcode.com/problems/search-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B400" r:id="rId16" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B370" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B399" r:id="rId16" display="https://leetcode.com/problems/valid-sudoku" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B369" r:id="rId17" display="https://leetcode.com/problems/sudoku-solver" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="B125" r:id="rId18" display="https://leetcode.com/problems/first-missing-positive" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B390" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B406" r:id="rId20" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B174" r:id="rId21" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B317" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B389" r:id="rId19" display="https://leetcode.com/problems/trapping-rain-water" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B405" r:id="rId20" display="https://leetcode.com/problems/wildcard-matching" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B175" r:id="rId21" display="https://leetcode.com/problems/jump-game-ii" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B318" r:id="rId22" display="https://leetcode.com/problems/rotate-image" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="B147" r:id="rId23" display="https://leetcode.com/problems/group-anagrams" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="B263" r:id="rId24" display="https://leetcode.com/problems/n-queens" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="B262" r:id="rId25" display="https://leetcode.com/problems/n-queens-ii" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="B234" r:id="rId26" display="https://leetcode.com/problems/maximum-subarray" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B238" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="B164" r:id="rId28" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B318" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B398" r:id="rId30" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B253" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B239" r:id="rId27" display="https://leetcode.com/problems/merge-intervals" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B165" r:id="rId28" display="https://leetcode.com/problems/insert-interval" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B319" r:id="rId29" display="https://leetcode.com/problems/rotate-list" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B397" r:id="rId30" display="https://leetcode.com/problems/unique-paths-ii" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B252" r:id="rId31" display="https://leetcode.com/problems/minimum-path-sum" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
     <hyperlink ref="B91" r:id="rId32" display="https://leetcode.com/problems/edit-distance" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="B324" r:id="rId33" display="https://leetcode.com/problems/search-a-2d-matrix" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B353" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B255" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B413" r:id="rId36" display="https://leetcode.com/problems/word-search" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B352" r:id="rId34" display="https://leetcode.com/problems/sort-colors" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B254" r:id="rId35" display="https://leetcode.com/problems/minimum-window-substring" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B412" r:id="rId36" display="https://leetcode.com/problems/word-search" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="B326" r:id="rId37" display="https://leetcode.com/problems/search-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B305" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B190" r:id="rId39" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B223" r:id="rId40" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B306" r:id="rId38" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B191" r:id="rId39" display="https://leetcode.com/problems/largest-rectangle-in-histogram" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B224" r:id="rId40" display="https://leetcode.com/problems/maximal-rectangle" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="B280" r:id="rId41" display="https://leetcode.com/problems/partition-list" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="B322" r:id="rId42" display="https://leetcode.com/problems/scramble-string" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B240" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B241" r:id="rId43" display="https://leetcode.com/problems/merge-sorted-array" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B144" r:id="rId44" display="https://leetcode.com/problems/gray-code" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B73" r:id="rId45" display="https://leetcode.com/problems/decode-ways" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B310" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B311" r:id="rId46" display="https://leetcode.com/problems/restore-ip-addresses" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="B18" r:id="rId47" display="https://leetcode.com/problems/binary-tree-inorder-traversal" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B396" r:id="rId48" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="B397" r:id="rId49" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B168" r:id="rId50" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B404" r:id="rId51" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B329" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B192" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B402" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B395" r:id="rId48" display="https://leetcode.com/problems/unique-binary-search-trees-ii" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B396" r:id="rId49" display="https://leetcode.com/problems/unique-binary-search-trees" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B169" r:id="rId50" display="https://leetcode.com/problems/interleaving-string" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B401" r:id="rId51" display="https://leetcode.com/problems/validate-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B302" r:id="rId52" display="https://leetcode.com/problems/recover-binary-search-tree" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B156" r:id="rId53" display="https://leetcode.com/problems/same-tree" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B380" r:id="rId54" display="https://leetcode.com/problems/symmetric-tree" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
     <hyperlink ref="B20" r:id="rId55" display="https://leetcode.com/problems/binary-tree-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B39" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B229" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B50" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B49" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B59" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B32" r:id="rId56" display="https://leetcode.com/problems/binary-tree-zigzag-level-order-traversal" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B228" r:id="rId57" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B49" r:id="rId58" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B48" r:id="rId59" display="https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B56" r:id="rId60" display="https://leetcode.com/problems/convert-sorted-list-to-binary-search-tree" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
     <hyperlink ref="B9" r:id="rId61" display="https://leetcode.com/problems/balanced-binary-tree" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B251" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B287" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B128" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B249" r:id="rId62" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B283" r:id="rId63" display="https://leetcode.com/problems/path-sum-ii" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B127" r:id="rId64" display="https://leetcode.com/problems/flatten-binary-tree-to-linked-list" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="B87" r:id="rId65" display="https://leetcode.com/problems/distinct-subsequences" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B300" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B299" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B289" r:id="rId66" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B288" r:id="rId67" display="https://leetcode.com/problems/populating-next-right-pointers-in-each-node-ii" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
     <hyperlink ref="B22" r:id="rId68" display="https://leetcode.com/problems/binary-tree-maximum-path-sum" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B410" r:id="rId69" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B411" r:id="rId70" display="https://leetcode.com/problems/word-ladder" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B201" r:id="rId71" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B381" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B378" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B409" r:id="rId69" display="https://leetcode.com/problems/word-ladder-ii" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B410" r:id="rId70" display="https://leetcode.com/problems/word-ladder" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B202" r:id="rId71" display="https://leetcode.com/problems/longest-consecutive-sequence" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B375" r:id="rId72" display="https://leetcode.com/problems/sum-root-to-leaf-numbers" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B377" r:id="rId73" display="https://leetcode.com/problems/surrounded-regions" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
     <hyperlink ref="B275" r:id="rId74" display="https://leetcode.com/problems/palindrome-partitioning-ii" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B36" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B37" r:id="rId75" display="https://leetcode.com/problems/candy" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
     <hyperlink ref="B337" r:id="rId76" display="https://leetcode.com/problems/single-number-ii" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B56" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B408" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B407" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B197" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B307" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B57" r:id="rId77" display="https://leetcode.com/problems/copy-list-with-random-pointer" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B407" r:id="rId78" display="https://leetcode.com/problems/word-break" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B406" r:id="rId79" display="https://leetcode.com/problems/word-break-ii" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B198" r:id="rId80" display="https://leetcode.com/problems/linked-list-cycle-ii" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B308" r:id="rId81" display="https://leetcode.com/problems/reorder-list" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="B25" r:id="rId82" display="https://leetcode.com/problems/binary-tree-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
     <hyperlink ref="B24" r:id="rId83" display="https://leetcode.com/problems/binary-tree-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B212" r:id="rId84" display="https://leetcode.com/problems/lru-cache" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B354" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B222" r:id="rId86" display="https://leetcode.com/problems/max-points-on-a-line" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B213" r:id="rId84" display="https://leetcode.com/problems/lru-cache" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B353" r:id="rId85" display="https://leetcode.com/problems/sort-list" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B223" r:id="rId86" display="https://leetcode.com/problems/max-points-on-a-line" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
     <hyperlink ref="B97" r:id="rId87" display="https://leetcode.com/problems/evaluate-reverse-polish-notation" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B316" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B317" r:id="rId88" display="https://leetcode.com/problems/reverse-words-in-a-string" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
     <hyperlink ref="B233" r:id="rId89" display="https://leetcode.com/problems/maximum-product-subarray" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
     <hyperlink ref="B118" r:id="rId90" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
     <hyperlink ref="B117" r:id="rId91" display="https://leetcode.com/problems/find-minimum-in-rotated-sorted-array-ii" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B243" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B169" r:id="rId93" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B244" r:id="rId92" display="https://leetcode.com/problems/min-stack" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B170" r:id="rId93" display="https://leetcode.com/problems/intersection-of-two-linked-lists" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="B119" r:id="rId94" display="https://leetcode.com/problems/find-peak-element" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
     <hyperlink ref="B230" r:id="rId95" display="https://leetcode.com/problems/maximum-gap" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
     <hyperlink ref="B100" r:id="rId96" display="https://leetcode.com/problems/excel-sheet-column-title" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B215" r:id="rId97" display="https://leetcode.com/problems/majority-element" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B216" r:id="rId97" display="https://leetcode.com/problems/majority-element" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
     <hyperlink ref="B99" r:id="rId98" display="https://leetcode.com/problems/excel-sheet-column-number" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B189" r:id="rId99" display="https://leetcode.com/problems/largest-number" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B308" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B190" r:id="rId99" display="https://leetcode.com/problems/largest-number" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B309" r:id="rId100" display="https://leetcode.com/problems/repeated-dna-sequences" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
     <hyperlink ref="B11" r:id="rId101" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-iv" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B409" r:id="rId102" display="https://leetcode.com/problems/word-frequency" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B408" r:id="rId102" display="https://leetcode.com/problems/word-frequency" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="B29" r:id="rId103" display="https://leetcode.com/problems/binary-tree-right-side-view" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="B267" r:id="rId104" display="https://leetcode.com/problems/number-of-islands" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B312" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B211" r:id="rId106" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B313" r:id="rId105" display="https://leetcode.com/problems/reverse-linked-list" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B162" r:id="rId106" display="https://leetcode.com/problems/implement-trie-prefix-tree" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
     <hyperlink ref="B323" r:id="rId107" display="https://leetcode.com/problems/search-a-2d-matrix-ii" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
     <hyperlink ref="B340" r:id="rId108" display="https://leetcode.com/problems/sliding-window-maximum" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B296" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B228" r:id="rId110" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B297" r:id="rId109" display="https://leetcode.com/problems/product-of-array-except-self" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B212" r:id="rId110" display="https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
     <hyperlink ref="B274" r:id="rId111" display="https://leetcode.com/problems/palindrome-linked-list" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B159" r:id="rId112" display="https://leetcode.com/problems/implement-queue-using-stacks" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B184" r:id="rId113" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B214" r:id="rId114" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B160" r:id="rId115" display="https://leetcode.com/problems/implement-stack-using-queues" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B64" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B224" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B385" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B160" r:id="rId112" display="https://leetcode.com/problems/implement-queue-using-stacks" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B185" r:id="rId113" display="https://leetcode.com/problems/kth-smallest-element-in-a-bst" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B215" r:id="rId114" display="https://leetcode.com/problems/majority-element-ii" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B161" r:id="rId115" display="https://leetcode.com/problems/implement-stack-using-queues" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B59" r:id="rId116" display="https://leetcode.com/problems/count-complete-tree-nodes" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B225" r:id="rId117" display="https://leetcode.com/problems/maximal-square" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B384" r:id="rId118" display="https://leetcode.com/problems/the-skyline-problem" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
     <hyperlink ref="B44" r:id="rId119" display="https://leetcode.com/problems/combination-sum-iii" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B183" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B184" r:id="rId120" display="https://leetcode.com/problems/kth-largest-element-in-an-array" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
     <hyperlink ref="B333" r:id="rId121" display="https://leetcode.com/problems/shortest-palindrome" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B412" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B411" r:id="rId122" display="https://leetcode.com/problems/word-search-ii" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
     <hyperlink ref="B2" r:id="rId123" display="https://leetcode.com/problems/add-and-search-word-data-structure-design" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B254" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B253" r:id="rId124" display="https://leetcode.com/problems/minimum-size-subarray-sum" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
     <hyperlink ref="B23" r:id="rId125" display="https://leetcode.com/problems/binary-tree-paths" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
     <hyperlink ref="B338" r:id="rId126" display="https://leetcode.com/problems/single-number-iii" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B256" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B167" r:id="rId128" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B255" r:id="rId127" display="https://leetcode.com/problems/missing-number" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B168" r:id="rId128" display="https://leetcode.com/problems/integer-to-english-words" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
     <hyperlink ref="B153" r:id="rId129" display="https://leetcode.com/problems/h-index" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
     <hyperlink ref="B152" r:id="rId130" display="https://leetcode.com/problems/h-index-ii" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
     <hyperlink ref="B102" r:id="rId131" display="https://leetcode.com/problems/expression-add-operators" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B284" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B285" r:id="rId132" display="https://leetcode.com/problems/peeking-iterator" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="B122" r:id="rId133" display="https://leetcode.com/problems/find-the-duplicate-number" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="B140" r:id="rId134" display="https://leetcode.com/problems/game-of-life" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
     <hyperlink ref="B116" r:id="rId135" display="https://leetcode.com/problems/find-largest-value-in-each-tree-row" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B330" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B204" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B329" r:id="rId136" display="https://leetcode.com/problems/serialize-and-deserialize-binary-tree" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B205" r:id="rId137" display="https://leetcode.com/problems/longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
     <hyperlink ref="B12" r:id="rId138" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-cooldown" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B34" r:id="rId139" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B35" r:id="rId139" display="https://leetcode.com/problems/burst-balloons" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
     <hyperlink ref="B61" r:id="rId140" display="https://leetcode.com/problems/count-of-smaller-numbers-after-self" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B304" r:id="rId141" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B305" r:id="rId141" display="https://leetcode.com/problems/remove-duplicate-letters" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
     <hyperlink ref="B66" r:id="rId142" display="https://leetcode.com/problems/create-maximum-number" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
     <hyperlink ref="B42" r:id="rId143" display="https://leetcode.com/problems/coin-change" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
     <hyperlink ref="B60" r:id="rId144" display="https://leetcode.com/problems/count-of-range-sum" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
     <hyperlink ref="B271" r:id="rId145" display="https://leetcode.com/problems/odd-even-linked-list" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B203" r:id="rId146" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B204" r:id="rId146" display="https://leetcode.com/problems/longest-increasing-path-in-a-matrix" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
     <hyperlink ref="B328" r:id="rId147" display="https://leetcode.com/problems/self-crossing" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
     <hyperlink ref="B154" r:id="rId148" display="https://leetcode.com/problems/house-robber-iii" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B166" r:id="rId149" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B388" r:id="rId150" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B167" r:id="rId149" display="https://leetcode.com/problems/integer-break" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B387" r:id="rId150" display="https://leetcode.com/problems/top-k-frequent-elements" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
     <hyperlink ref="B70" r:id="rId151" display="https://leetcode.com/problems/data-stream-as-disjoint-intervals" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B185" r:id="rId152" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B163" r:id="rId153" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B198" r:id="rId154" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B186" r:id="rId152" display="https://leetcode.com/problems/kth-smallest-element-in-a-sorted-matrix" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B164" r:id="rId153" display="https://leetcode.com/problems/insert-delete-getrandom-o1" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B199" r:id="rId154" display="https://leetcode.com/problems/linked-list-random-node" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
     <hyperlink ref="B126" r:id="rId155" display="https://leetcode.com/problems/first-unique-character-in-a-string" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B200" r:id="rId156" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B285" r:id="rId157" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B173" r:id="rId158" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B201" r:id="rId156" display="https://leetcode.com/problems/longest-absolute-file-path" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B286" r:id="rId157" display="https://leetcode.com/problems/perfect-rectangle" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B174" r:id="rId158" display="https://leetcode.com/problems/is-subsequence" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
     <hyperlink ref="B71" r:id="rId159" display="https://leetcode.com/problems/decode-string" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B346" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B330" r:id="rId160" display="https://leetcode.com/problems/serialize-and-deserialize-bst" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
     <hyperlink ref="B265" r:id="rId161" display="https://leetcode.com/problems/number-of-boomerangs" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
     <hyperlink ref="B3" r:id="rId162" display="https://leetcode.com/problems/add-two-numbers-ii" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
     <hyperlink ref="B107" r:id="rId163" display="https://leetcode.com/problems/find-all-duplicates-in-an-array" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B186" r:id="rId164" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B288" r:id="rId165" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B187" r:id="rId164" display="https://leetcode.com/problems/k-th-smallest-in-lexicographical-order" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B284" r:id="rId165" display="https://leetcode.com/problems/path-sum-iii" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
     <hyperlink ref="B120" r:id="rId166" display="https://leetcode.com/problems/find-right-interval" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
     <hyperlink ref="B5" r:id="rId167" display="https://leetcode.com/problems/all-oone-data-structure" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B55" r:id="rId168" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B364" r:id="rId169" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B54" r:id="rId168" display="https://leetcode.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B363" r:id="rId169" display="https://leetcode.com/problems/strong-password-checker" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
     <hyperlink ref="B279" r:id="rId170" display="https://leetcode.com/problems/partition-equal-subset-sum" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B356" r:id="rId171" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B355" r:id="rId171" display="https://leetcode.com/problems/split-array-largest-sum" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
     <hyperlink ref="B138" r:id="rId172" display="https://leetcode.com/problems/frog-jump" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B352" r:id="rId173" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B252" r:id="rId174" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B286" r:id="rId175" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B195" r:id="rId176" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B351" r:id="rId173" display="https://leetcode.com/problems/sort-characters-by-frequency" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B251" r:id="rId174" display="https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B287" r:id="rId175" display="https://leetcode.com/problems/poor-pigs" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B196" r:id="rId176" display="https://leetcode.com/problems/lfu-cache" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
     <hyperlink ref="B62" r:id="rId177" display="https://leetcode.com/problems/count-the-repetitions" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
     <hyperlink ref="B45" r:id="rId178" display="https://leetcode.com/problems/concatenated-words" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
     <hyperlink ref="B341" r:id="rId179" display="https://leetcode.com/problems/sliding-window-median" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B290" r:id="rId180" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B162" r:id="rId181" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B314" r:id="rId182" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B383" r:id="rId183" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B291" r:id="rId180" display="https://leetcode.com/problems/predict-the-winner" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B163" r:id="rId181" display="https://leetcode.com/problems/increasing-subsequences" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B315" r:id="rId182" display="https://leetcode.com/problems/reverse-pairs" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B382" r:id="rId183" display="https://leetcode.com/problems/target-sum" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
     <hyperlink ref="B83" r:id="rId184" display="https://leetcode.com/problems/diagonal-traverse" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B171" r:id="rId185" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B172" r:id="rId185" display="https://leetcode.com/problems/ipo" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
     <hyperlink ref="B260" r:id="rId186" display="https://leetcode.com/problems/next-greater-element-ii" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B282" r:id="rId187" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B127" r:id="rId188" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B257" r:id="rId187" display="https://leetcode.com/problems/most-frequent-subtree-sum" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B110" r:id="rId188" display="https://leetcode.com/problems/find-bottom-left-tree-value" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
     <hyperlink ref="B135" r:id="rId189" display="https://leetcode.com/problems/freedom-trail" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B206" r:id="rId190" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B207" r:id="rId190" display="https://leetcode.com/problems/longest-palindromic-subsequence" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
     <hyperlink ref="B41" r:id="rId191" display="https://leetcode.com/problems/coin-change-2" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
     <hyperlink ref="B53" r:id="rId192" display="https://leetcode.com/problems/continuous-subarray-sum" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B210" r:id="rId193" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B211" r:id="rId193" display="https://leetcode.com/problems/longest-word-in-dictionary-through-deleting" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
     <hyperlink ref="B52" r:id="rId194" display="https://leetcode.com/problems/contiguous-array" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B297" r:id="rId195" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B244" r:id="rId196" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B298" r:id="rId195" display="https://leetcode.com/problems/random-pick-with-weight" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B245" r:id="rId196" display="https://leetcode.com/problems/minesweeper" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
     <hyperlink ref="B141" r:id="rId197" display="https://leetcode.com/problems/game-play-analysis-iii" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
     <hyperlink ref="B92" r:id="rId198" display="https://leetcode.com/problems/encode-and-decode-tinyurl" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
     <hyperlink ref="B336" r:id="rId199" display="https://leetcode.com/problems/single-element-in-a-sorted-array" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B88" r:id="rId200" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B84" r:id="rId200" display="https://leetcode.com/problems/diameter-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
     <hyperlink ref="B136" r:id="rId201" display="https://leetcode.com/problems/friend-circles" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B365" r:id="rId202" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B364" r:id="rId202" display="https://leetcode.com/problems/subarray-sum-equals-k" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
     <hyperlink ref="B121" r:id="rId203" display="https://leetcode.com/problems/find-the-closest-palindrome" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B371" r:id="rId204" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B368" r:id="rId204" display="https://leetcode.com/problems/subtree-of-another-tree" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
     <hyperlink ref="B94" r:id="rId205" display="https://leetcode.com/problems/erect-the-fence" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
     <hyperlink ref="B155" r:id="rId206" display="https://leetcode.com/problems/human-traffic-of-stadium" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
     <hyperlink ref="B111" r:id="rId207" display="https://leetcode.com/problems/find-duplicate-file-in-system" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B384" r:id="rId208" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B383" r:id="rId208" display="https://leetcode.com/problems/task-scheduler" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
     <hyperlink ref="B81" r:id="rId209" display="https://leetcode.com/problems/design-circular-queue" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B176" r:id="rId210" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B394" r:id="rId211" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B177" r:id="rId210" display="https://leetcode.com/problems/k-inverse-pairs-array" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B393" r:id="rId211" display="https://leetcode.com/problems/2-keys-keyboard" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
     <hyperlink ref="B90" r:id="rId212" display="https://leetcode.com/problems/dota2-senate" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B309" r:id="rId213" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B310" r:id="rId213" display="https://leetcode.com/problems/replace-words" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
     <hyperlink ref="B276" r:id="rId214" display="https://leetcode.com/problems/palindromic-substrings" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
     <hyperlink ref="B231" r:id="rId215" display="https://leetcode.com/problems/maximum-length-of-pair-chain" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
     <hyperlink ref="B80" r:id="rId216" display="https://leetcode.com/problems/design-circular-deque" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
@@ -7555,187 +7544,186 @@
     <hyperlink ref="B101" r:id="rId219" display="https://leetcode.com/problems/exclusive-time-of-functions" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
     <hyperlink ref="B344" r:id="rId220" display="https://leetcode.com/problems/smallest-range" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
     <hyperlink ref="B114" r:id="rId221" display="https://leetcode.com/problems/find-k-closest-elements" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B248" r:id="rId222" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B362" r:id="rId223" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B187" r:id="rId224" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B237" r:id="rId222" display="https://leetcode.com/problems/maximum-width-of-binary-tree" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B361" r:id="rId223" display="https://leetcode.com/problems/strange-printer" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B188" r:id="rId224" display="https://leetcode.com/problems/kth-smallest-number-in-multiplication-table" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
     <hyperlink ref="B236" r:id="rId225" display="https://leetcode.com/problems/maximum-swap" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
     <hyperlink ref="B268" r:id="rId226" display="https://leetcode.com/problems/number-of-longest-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B202" r:id="rId227" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B203" r:id="rId227" display="https://leetcode.com/problems/longest-continuous-increasing-subsequence" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
     <hyperlink ref="B68" r:id="rId228" display="https://leetcode.com/problems/cut-off-trees-for-golf-event" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B158" r:id="rId229" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B179" r:id="rId230" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B389" r:id="rId231" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B217" r:id="rId232" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B159" r:id="rId229" display="https://leetcode.com/problems/implement-magic-dictionary" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B180" r:id="rId230" display="https://leetcode.com/problems/knight-probability-in-chessboard" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B388" r:id="rId231" display="https://leetcode.com/problems/top-k-frequent-words" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B218" r:id="rId232" display="https://leetcode.com/problems/max-area-of-island" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
     <hyperlink ref="B281" r:id="rId233" display="https://leetcode.com/problems/partition-to-k-equal-sum-subsets" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
     <hyperlink ref="B105" r:id="rId234" display="https://leetcode.com/problems/falling-squares" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
     <hyperlink ref="B325" r:id="rId235" display="https://leetcode.com/problems/search-in-a-sorted-array-of-unknown-size" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B182" r:id="rId236" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B183" r:id="rId236" display="https://leetcode.com/problems/kth-largest-element-in-a-stream" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
     <hyperlink ref="B82" r:id="rId237" display="https://leetcode.com/problems/design-hashmap" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
     <hyperlink ref="B13" r:id="rId238" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock-with-transaction-fee" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B298" r:id="rId239" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B299" r:id="rId239" display="https://leetcode.com/problems/range-module" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
     <hyperlink ref="B115" r:id="rId240" display="https://leetcode.com/problems/find-k-th-smallest-pair-distance" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="B358" r:id="rId241" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B357" r:id="rId241" display="https://leetcode.com/problems/split-linked-list-in-parts" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
     <hyperlink ref="B133" r:id="rId242" display="https://leetcode.com/problems/flood-fill" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
     <hyperlink ref="B7" r:id="rId243" display="https://leetcode.com/problems/asteroid-collision" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
     <hyperlink ref="B69" r:id="rId244" display="https://leetcode.com/problems/daily-temperatures" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
     <hyperlink ref="B75" r:id="rId245" display="https://leetcode.com/problems/delete-and-earn" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
     <hyperlink ref="B40" r:id="rId246" display="https://leetcode.com/problems/cherry-pickup" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
     <hyperlink ref="B259" r:id="rId247" display="https://leetcode.com/problems/network-delay-time" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B291" r:id="rId248" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B292" r:id="rId248" display="https://leetcode.com/problems/prefix-and-suffix-search" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
     <hyperlink ref="B65" r:id="rId249" display="https://leetcode.com/problems/cracking-the-safe" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
     <hyperlink ref="B63" r:id="rId250" display="https://leetcode.com/problems/couples-holding-hands" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B219" r:id="rId251" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B220" r:id="rId251" display="https://leetcode.com/problems/max-chunks-to-make-sorted" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
     <hyperlink ref="B339" r:id="rId252" display="https://leetcode.com/problems/sliding-puzzle" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
     <hyperlink ref="B142" r:id="rId253" display="https://leetcode.com/problems/global-and-local-inversions" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B380" r:id="rId254" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B188" r:id="rId255" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B172" r:id="rId256" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B379" r:id="rId254" display="https://leetcode.com/problems/swap-adjacent-in-lr-string" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B189" r:id="rId255" display="https://leetcode.com/problems/k-th-symbol-in-grammar" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B173" r:id="rId256" display="https://leetcode.com/problems/letter-case-permutation" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
     <hyperlink ref="B96" r:id="rId257" display="https://leetcode.com/problems/escape-the-ghosts" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
     <hyperlink ref="B89" r:id="rId258" display="https://leetcode.com/problems/domino-and-tromino-tiling" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
     <hyperlink ref="B67" r:id="rId259" display="https://leetcode.com/problems/custom-sort-string" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B401" r:id="rId260" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B400" r:id="rId260" display="https://leetcode.com/problems/valid-tic-tac-toe-state" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
     <hyperlink ref="B269" r:id="rId261" display="https://leetcode.com/problems/number-of-subarrays-with-bounded-maximum" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B319" r:id="rId262" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B320" r:id="rId262" display="https://leetcode.com/problems/rotate-string" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
     <hyperlink ref="B345" r:id="rId263" display="https://leetcode.com/problems/smallest-rotation-with-highest-score" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B38" r:id="rId264" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B39" r:id="rId264" display="https://leetcode.com/problems/champagne-tower" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
     <hyperlink ref="B112" r:id="rId265" display="https://leetcode.com/problems/find-eventual-safe-states" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B357" r:id="rId266" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B221" r:id="rId267" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B356" r:id="rId266" display="https://leetcode.com/problems/split-array-with-same-average" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B222" r:id="rId267" display="https://leetcode.com/problems/max-increase-to-keep-city-skyline" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
     <hyperlink ref="B103" r:id="rId268" display="https://leetcode.com/problems/expressive-words" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B191" r:id="rId269" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B192" r:id="rId269" display="https://leetcode.com/problems/largest-sum-of-averages" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
     <hyperlink ref="B26" r:id="rId270" display="https://leetcode.com/problems/binary-tree-pruning" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B35" r:id="rId271" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B196" r:id="rId272" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B257" r:id="rId273" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B36" r:id="rId271" display="https://leetcode.com/problems/bus-routes" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B197" r:id="rId272" display="https://leetcode.com/problems/linked-list-components" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B256" r:id="rId273" display="https://leetcode.com/problems/most-common-word" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
     <hyperlink ref="B143" r:id="rId274" display="https://leetcode.com/problems/goat-latin" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
     <hyperlink ref="B137" r:id="rId275" display="https://leetcode.com/problems/friends-of-appropriate-ages" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
     <hyperlink ref="B258" r:id="rId276" display="https://leetcode.com/problems/most-profit-assigning-work" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B289" r:id="rId277" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B290" r:id="rId277" display="https://leetcode.com/problems/positions-of-large-groups" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
     <hyperlink ref="B132" r:id="rId278" display="https://leetcode.com/problems/flipping-an-image" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
     <hyperlink ref="B108" r:id="rId279" display="https://leetcode.com/problems/find-and-replace-in-string" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B373" r:id="rId280" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B156" r:id="rId281" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B213" r:id="rId282" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B177" r:id="rId283" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B370" r:id="rId280" display="https://leetcode.com/problems/sum-of-distances-in-tree" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B157" r:id="rId281" display="https://leetcode.com/problems/image-overlap" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B214" r:id="rId282" display="https://leetcode.com/problems/magic-squares-in-grid" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B178" r:id="rId283" display="https://leetcode.com/problems/keys-and-rooms" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
     <hyperlink ref="B149" r:id="rId284" display="https://leetcode.com/problems/guess-the-word" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B205" r:id="rId285" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B206" r:id="rId285" display="https://leetcode.com/problems/longest-mountain-in-array" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
     <hyperlink ref="B150" r:id="rId286" display="https://leetcode.com/problems/hand-of-straights" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
     <hyperlink ref="B331" r:id="rId287" display="https://leetcode.com/problems/shifting-letters" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B225" r:id="rId288" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B181" r:id="rId289" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B226" r:id="rId288" display="https://leetcode.com/problems/maximize-distance-to-closest-person" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B182" r:id="rId289" display="https://leetcode.com/problems/k-similar-strings" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
     <hyperlink ref="B98" r:id="rId290" display="https://leetcode.com/problems/exam-room" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B193" r:id="rId291" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B194" r:id="rId291" display="https://leetcode.com/problems/lemonade-change" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
     <hyperlink ref="B321" r:id="rId292" display="https://leetcode.com/problems/score-after-flipping-matrix" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
     <hyperlink ref="B335" r:id="rId293" display="https://leetcode.com/problems/shortest-subarray-with-sum-at-least-k" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
     <hyperlink ref="B4" r:id="rId294" display="https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B369" r:id="rId295" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B292" r:id="rId296" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B227" r:id="rId297" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B180" r:id="rId298" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B242" r:id="rId299" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B361" r:id="rId300" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B347" r:id="rId295" display="https://leetcode.com/problems/smallest-subtree-with-all-the-deepest-nodes" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B293" r:id="rId296" display="https://leetcode.com/problems/prime-palindrome" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B193" r:id="rId297" display="https://leetcode.com/problems/leaf-similar-trees" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B181" r:id="rId298" display="https://leetcode.com/problems/koko-eating-bananas" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B243" r:id="rId299" display="https://leetcode.com/problems/middle-of-the-linked-list" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B360" r:id="rId300" display="https://leetcode.com/problems/stone-game" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
     <hyperlink ref="B74" r:id="rId301" display="https://leetcode.com/problems/decoded-string-at-index" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B32" r:id="rId302" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B377" r:id="rId303" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B33" r:id="rId302" display="https://leetcode.com/problems/boats-to-save-people" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B376" r:id="rId303" display="https://leetcode.com/problems/super-egg-drop" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
     <hyperlink ref="B104" r:id="rId304" display="https://leetcode.com/problems/fair-candy-swap" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B54" r:id="rId305" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B50" r:id="rId305" display="https://leetcode.com/problems/construct-binary-tree-from-preorder-and-postorder-traversal" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
     <hyperlink ref="B109" r:id="rId306" display="https://leetcode.com/problems/find-and-replace-pattern" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B375" r:id="rId307" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B374" r:id="rId307" display="https://leetcode.com/problems/sum-of-subsequence-widths" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
     <hyperlink ref="B6" r:id="rId308" display="https://leetcode.com/problems/all-possible-full-binary-trees" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
     <hyperlink ref="B273" r:id="rId309" display="https://leetcode.com/problems/online-stock-span" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B399" r:id="rId310" display="https://leetcode.com/problems/valid-permutations-for-di-sequence" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B398" r:id="rId310" display="https://leetcode.com/problems/valid-permutations-for-di-sequence" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
     <hyperlink ref="B139" r:id="rId311" display="https://leetcode.com/problems/fruit-into-baskets" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B374" r:id="rId312" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B373" r:id="rId312" display="https://leetcode.com/problems/sum-of-subarray-minimums" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
     <hyperlink ref="B342" r:id="rId313" display="https://leetcode.com/problems/smallest-range-i" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B350" r:id="rId314" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B349" r:id="rId314" display="https://leetcode.com/problems/snakes-and-ladders" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
     <hyperlink ref="B343" r:id="rId315" display="https://leetcode.com/problems/smallest-range-ii" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
     <hyperlink ref="B272" r:id="rId316" display="https://leetcode.com/problems/online-election" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B351" r:id="rId317" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B414" r:id="rId318" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B199" r:id="rId319" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B350" r:id="rId317" display="https://leetcode.com/problems/sort-an-array" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B413" r:id="rId318" display="https://leetcode.com/problems/word-subsets" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B200" r:id="rId319" display="https://leetcode.com/problems/long-pressed-name" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
     <hyperlink ref="B131" r:id="rId320" display="https://leetcode.com/problems/flip-string-to-monotone-increasing" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B386" r:id="rId321" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B385" r:id="rId321" display="https://leetcode.com/problems/three-equal-parts" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B250" r:id="rId322" display="https://leetcode.com/problems/minimum-falling-path-sum" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
-    <hyperlink ref="B178" r:id="rId323" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
-    <hyperlink ref="B301" r:id="rId324" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B179" r:id="rId323" display="https://leetcode.com/problems/knight-dialer" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B300" r:id="rId324" display="https://leetcode.com/problems/range-sum-of-bst" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
     <hyperlink ref="B86" r:id="rId325" display="https://leetcode.com/problems/distinct-subsequences-ii" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
     <hyperlink ref="B123" r:id="rId326" display="https://leetcode.com/problems/find-the-shortest-superstring" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
     <hyperlink ref="B78" r:id="rId327" display="https://leetcode.com/problems/delete-columns-to-make-sorted" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
-    <hyperlink ref="B311" r:id="rId328" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B312" r:id="rId328" display="https://leetcode.com/problems/reveal-cards-in-increasing-order" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
     <hyperlink ref="B130" r:id="rId329" display="https://leetcode.com/problems/flip-equivalent-binary-trees" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
     <hyperlink ref="B403" r:id="rId330" display="https://leetcode.com/problems/verifying-an-alien-dictionary" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
     <hyperlink ref="B76" r:id="rId331" display="https://leetcode.com/problems/delete-columns-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
-    <hyperlink ref="B382" r:id="rId332" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
-    <hyperlink ref="B295" r:id="rId333" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
-    <hyperlink ref="B47" r:id="rId334" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B381" r:id="rId332" display="https://leetcode.com/problems/tallest-billboard" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B296" r:id="rId333" display="https://leetcode.com/problems/prison-cells-after-n-days" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B402" r:id="rId334" display="https://leetcode.com/problems/check-completeness-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
     <hyperlink ref="B77" r:id="rId335" display="https://leetcode.com/problems/delete-columns-to-make-sorted-iii" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
     <hyperlink ref="B264" r:id="rId336" display="https://leetcode.com/problems/n-repeated-element-in-size-2n-array" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
     <hyperlink ref="B17" r:id="rId337" display="https://leetcode.com/problems/binary-tree-cameras" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
-    <hyperlink ref="B161" r:id="rId338" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B128" r:id="rId338" display="https://leetcode.com/problems/flip-binary-tree-to-match-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
     <hyperlink ref="B93" r:id="rId339" display="https://leetcode.com/problems/equal-rational-numbers" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
-    <hyperlink ref="B175" r:id="rId340" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
-    <hyperlink ref="B366" r:id="rId341" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
-    <hyperlink ref="B359" r:id="rId342" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
-    <hyperlink ref="B110" r:id="rId343" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
-    <hyperlink ref="B387" r:id="rId344" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
-    <hyperlink ref="B245" r:id="rId345" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
-    <hyperlink ref="B372" r:id="rId346" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
-    <hyperlink ref="B170" r:id="rId347" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B176" r:id="rId340" display="https://leetcode.com/problems/k-closest-points-to-origin" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B365" r:id="rId341" display="https://leetcode.com/problems/subarray-sums-divisible-by-k" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B358" r:id="rId342" display="https://leetcode.com/problems/squares-of-a-sorted-array" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B88" r:id="rId343" display="https://leetcode.com/problems/distribute-coins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B386" r:id="rId344" display="https://leetcode.com/problems/time-based-key-value-store" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B246" r:id="rId345" display="https://leetcode.com/problems/minimum-cost-for-tickets" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B371" r:id="rId346" display="https://leetcode.com/problems/sum-of-even-numbers-after-queries" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B171" r:id="rId347" display="https://leetcode.com/problems/interval-list-intersections" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
     <hyperlink ref="B31" r:id="rId348" display="https://leetcode.com/problems/vertical-order-traversal-of-a-binary-tree" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
-    <hyperlink ref="B348" r:id="rId349" display="https://leetcode.com/problems/smallest-string-starting-from-leaf" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
-    <hyperlink ref="B367" r:id="rId350" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
-    <hyperlink ref="B79" r:id="rId351" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
-    <hyperlink ref="B124" r:id="rId352" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
-    <hyperlink ref="B146" r:id="rId353" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
-    <hyperlink ref="B220" r:id="rId354" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
-    <hyperlink ref="B226" r:id="rId355" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
-    <hyperlink ref="B48" r:id="rId356" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
-    <hyperlink ref="B278" r:id="rId357" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
-    <hyperlink ref="B261" r:id="rId358" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
-    <hyperlink ref="B266" r:id="rId359" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
-    <hyperlink ref="B376" r:id="rId360" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
-    <hyperlink ref="B405" r:id="rId361" display="https://leetcode.com/problems/video-stitching" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
-    <hyperlink ref="B247" r:id="rId362" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
-    <hyperlink ref="B320" r:id="rId363" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
-    <hyperlink ref="B216" r:id="rId364" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
-    <hyperlink ref="B235" r:id="rId365" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
-    <hyperlink ref="B363" r:id="rId366" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
-    <hyperlink ref="B43" r:id="rId367" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
-    <hyperlink ref="B395" r:id="rId368" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
-    <hyperlink ref="B95" r:id="rId369" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
-    <hyperlink ref="B14" r:id="rId370" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
-    <hyperlink ref="B134" r:id="rId371" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
-    <hyperlink ref="B277" r:id="rId372" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
-    <hyperlink ref="B151" r:id="rId373" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
-    <hyperlink ref="B148" r:id="rId374" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
-    <hyperlink ref="B85" r:id="rId375" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
-    <hyperlink ref="B145" r:id="rId376" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
-    <hyperlink ref="B129" r:id="rId377" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
-    <hyperlink ref="B270" r:id="rId378" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
-    <hyperlink ref="B165" r:id="rId379" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
-    <hyperlink ref="B347" r:id="rId380" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
-    <hyperlink ref="B334" r:id="rId381" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
-    <hyperlink ref="B332" r:id="rId382" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
-    <hyperlink ref="B360" r:id="rId383" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
-    <hyperlink ref="B37" r:id="rId384" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
-    <hyperlink ref="B113" r:id="rId385" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
-    <hyperlink ref="B283" r:id="rId386" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
-    <hyperlink ref="B106" r:id="rId387" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
-    <hyperlink ref="B57" r:id="rId388" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
-    <hyperlink ref="B84" r:id="rId389" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
-    <hyperlink ref="B293" r:id="rId390" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
-    <hyperlink ref="B294" r:id="rId391" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
-    <hyperlink ref="B33" r:id="rId392" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
-    <hyperlink ref="B303" r:id="rId393" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
-    <hyperlink ref="B349" r:id="rId394" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
-    <hyperlink ref="B249" r:id="rId395" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
-    <hyperlink ref="B232" r:id="rId396" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
-    <hyperlink ref="B46" r:id="rId397" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
-    <hyperlink ref="B218" r:id="rId398" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
-    <hyperlink ref="B246" r:id="rId399" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B366" r:id="rId349" display="https://leetcode.com/problems/subarrays-with-k-different-integers" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B64" r:id="rId350" display="https://leetcode.com/problems/cousins-in-binary-tree" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B124" r:id="rId351" display="https://leetcode.com/problems/find-the-town-judge" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B146" r:id="rId352" display="https://leetcode.com/problems/grid-illumination" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B221" r:id="rId353" display="https://leetcode.com/problems/max-consecutive-ones-iii" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B227" r:id="rId354" display="https://leetcode.com/problems/maximize-sum-of-array-after-k-negations" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B47" r:id="rId355" display="https://leetcode.com/problems/construct-binary-search-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B278" r:id="rId356" display="https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B261" r:id="rId357" display="https://leetcode.com/problems/next-greater-node-in-linked-list" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B266" r:id="rId358" display="https://leetcode.com/problems/number-of-enclaves" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B372" r:id="rId359" display="https://leetcode.com/problems/sum-of-root-to-leaf-binary-numbers" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B404" r:id="rId360" display="https://leetcode.com/problems/video-stitching" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B229" r:id="rId361" display="https://leetcode.com/problems/maximum-difference-between-node-and-ancestor" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B301" r:id="rId362" display="https://leetcode.com/problems/recover-a-tree-from-preorder-traversal" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B217" r:id="rId363" display="https://leetcode.com/problems/matrix-cells-in-distance-order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B235" r:id="rId364" display="https://leetcode.com/problems/maximum-sum-of-two-non-overlapping-subarrays" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B362" r:id="rId365" display="https://leetcode.com/problems/stream-of-characters" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B43" r:id="rId366" display="https://leetcode.com/problems/coloring-a-border" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B394" r:id="rId367" display="https://leetcode.com/problems/uncrossed-lines" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B95" r:id="rId368" display="https://leetcode.com/problems/escape-a-large-maze" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B14" r:id="rId369" display="https://leetcode.com/problems/binary-search-tree-to-greater-sum-tree" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B134" r:id="rId370" display="https://leetcode.com/problems/flower-planting-with-no-adjacent" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B277" r:id="rId371" display="https://leetcode.com/problems/partition-array-for-maximum-sum" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B151" r:id="rId372" display="https://leetcode.com/problems/height-checker" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B148" r:id="rId373" display="https://leetcode.com/problems/grumpy-bookstore-owner" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B85" r:id="rId374" display="https://leetcode.com/problems/distant-barcodes" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B145" r:id="rId375" display="https://leetcode.com/problems/greatest-common-divisor-of-strings" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B129" r:id="rId376" display="https://leetcode.com/problems/flip-columns-for-maximum-number-of-equal-rows" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B270" r:id="rId377" display="https://leetcode.com/problems/number-of-submatrices-that-sum-to-target" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B166" r:id="rId378" display="https://leetcode.com/problems/insufficient-nodes-in-root-to-leaf-paths" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B346" r:id="rId379" display="https://leetcode.com/problems/smallest-subsequence-of-distinct-characters" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B334" r:id="rId380" display="https://leetcode.com/problems/shortest-path-in-binary-matrix" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B332" r:id="rId381" display="https://leetcode.com/problems/shortest-common-supersequence" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B359" r:id="rId382" display="https://leetcode.com/problems/statistics-from-a-large-sample" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B38" r:id="rId383" display="https://leetcode.com/problems/car-pooling" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B113" r:id="rId384" display="https://leetcode.com/problems/find-in-mountain-array" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B282" r:id="rId385" display="https://leetcode.com/problems/path-in-zigzag-labelled-binary-tree" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B106" r:id="rId386" display="https://leetcode.com/problems/filling-bookcase-shelves" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B58" r:id="rId387" display="https://leetcode.com/problems/corporate-flight-bookings" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B79" r:id="rId388" display="https://leetcode.com/problems/delete-nodes-and-return-forest" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B294" r:id="rId389" display="https://leetcode.com/problems/print-foobar-alternately" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B295" r:id="rId390" display="https://leetcode.com/problems/print-zero-even-odd" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B34" r:id="rId391" display="https://leetcode.com/problems/building-h2o" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B304" r:id="rId392" display="https://leetcode.com/problems/relative-sort-array" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B348" r:id="rId393" display="https://leetcode.com/problems/smallest-sufficient-team" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B248" r:id="rId394" display="https://leetcode.com/problems/minimum-cost-tree-from-leaf-values" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B232" r:id="rId395" display="https://leetcode.com/problems/maximum-of-absolute-value-expression" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B46" r:id="rId396" display="https://leetcode.com/problems/consecutive-numbers-sum" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B219" r:id="rId397" display="https://leetcode.com/problems/max-chunks-to-make-sorted-ii" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B247" r:id="rId398" display="https://leetcode.com/problems/minimum-cost-to-hire-k-workers" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId400"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId399"/>
 </worksheet>
 </file>
 

--- a/final list.xlsx
+++ b/final list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BABCD6-48F3-4BA4-8C2D-CEC636D94B91}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C7E332-D481-4745-8CA8-125E62D37322}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="694">
   <si>
     <t>Medium</t>
   </si>
@@ -2128,6 +2128,12 @@
   </si>
   <si>
     <t>Minimum Cost Tree From Leaf Values</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS</t>
+  </si>
+  <si>
+    <t>UNIVERSAL</t>
   </si>
 </sst>
 </file>
@@ -2504,8 +2510,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F413"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2538,7 +2544,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f>ROW(A1)</f>
+        <f t="shared" ref="A2:A33" si="0">ROW(A1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2556,7 +2562,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f>ROW(A2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2571,7 +2577,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>ROW(A3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2586,7 +2592,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f>ROW(A4)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2601,14 +2607,14 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f>ROW(A5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>647</v>
@@ -2616,20 +2622,22 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f>ROW(A6)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>692</v>
+      </c>
       <c r="D7" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f>ROW(A7)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2644,7 +2652,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f>ROW(A8)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2659,59 +2667,67 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f>ROW(A9)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="D10" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f>ROW(A10)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f>ROW(A11)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="D12" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f>ROW(A12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f>ROW(A13)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2726,7 +2742,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f>ROW(A14)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2741,7 +2757,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <f>ROW(A15)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2756,7 +2772,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <f>ROW(A16)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2771,7 +2787,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <f>ROW(A17)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2786,7 +2802,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <f>ROW(A18)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2801,7 +2817,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <f>ROW(A19)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -2816,7 +2832,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <f>ROW(A20)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -2831,7 +2847,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <f>ROW(A21)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -2846,7 +2862,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <f>ROW(A22)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -2861,7 +2877,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <f>ROW(A23)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2876,7 +2892,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <f>ROW(A24)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2891,7 +2907,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <f>ROW(A25)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2906,7 +2922,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <f>ROW(A26)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2921,7 +2937,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <f>ROW(A27)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2936,7 +2952,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <f>ROW(A28)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2951,7 +2967,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <f>ROW(A29)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2966,7 +2982,7 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <f>ROW(A30)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2981,7 +2997,7 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <f>ROW(A31)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2996,7 +3012,7 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <f>ROW(A32)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3011,7 +3027,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <f>ROW(A33)</f>
+        <f t="shared" ref="A34:A54" si="1">ROW(A33)</f>
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3023,7 +3039,7 @@
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <f>ROW(A34)</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3038,46 +3054,52 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <f>ROW(A35)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <f>ROW(A36)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <f>ROW(A37)</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>693</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <f>ROW(A38)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3090,7 +3112,7 @@
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <f>ROW(A39)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3103,7 +3125,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <f>ROW(A40)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3118,7 +3140,7 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <f>ROW(A41)</f>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3133,7 +3155,7 @@
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <f>ROW(A42)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3145,7 +3167,7 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <f>ROW(A43)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3155,7 +3177,7 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <f>ROW(A44)</f>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3170,7 +3192,7 @@
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <f>ROW(A45)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3183,7 +3205,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <f>ROW(A46)</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3198,7 +3220,7 @@
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <f>ROW(A47)</f>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3213,7 +3235,7 @@
     </row>
     <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <f>ROW(A48)</f>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3228,7 +3250,7 @@
     </row>
     <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <f>ROW(A49)</f>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3243,7 +3265,7 @@
     </row>
     <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <f>ROW(A50)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3256,7 +3278,7 @@
     </row>
     <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <f>ROW(A51)</f>
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3269,7 +3291,7 @@
     </row>
     <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <f>ROW(A52)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3284,7 +3306,7 @@
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <f>ROW(A53)</f>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3325,7 +3347,7 @@
     </row>
     <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <f>ROW(A56)</f>
+        <f t="shared" ref="A57:A88" si="2">ROW(A56)</f>
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3340,7 +3362,7 @@
     </row>
     <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <f>ROW(A57)</f>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3353,7 +3375,7 @@
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <f>ROW(A58)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -3368,7 +3390,7 @@
     </row>
     <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <f>ROW(A59)</f>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -3381,7 +3403,7 @@
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <f>ROW(A60)</f>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
@@ -3391,7 +3413,7 @@
     </row>
     <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <f>ROW(A61)</f>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -3401,7 +3423,7 @@
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <f>ROW(A62)</f>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3411,7 +3433,7 @@
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <f>ROW(A63)</f>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3426,7 +3448,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <f>ROW(A64)</f>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
@@ -3436,7 +3458,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <f>ROW(A65)</f>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -3446,7 +3468,7 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <f>ROW(A66)</f>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -3456,7 +3478,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <f>ROW(A67)</f>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -3468,7 +3490,7 @@
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <f>ROW(A68)</f>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3478,7 +3500,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <f>ROW(A69)</f>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3488,7 +3510,7 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <f>ROW(A70)</f>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3498,7 +3520,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <f>ROW(A71)</f>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3508,7 +3530,7 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <f>ROW(A72)</f>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -3518,7 +3540,7 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <f>ROW(A73)</f>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3528,7 +3550,7 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <f>ROW(A74)</f>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3538,7 +3560,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <f>ROW(A75)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -3548,7 +3570,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <f>ROW(A76)</f>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -3558,7 +3580,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <f>ROW(A77)</f>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3568,7 +3590,7 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <f>ROW(A78)</f>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3583,7 +3605,7 @@
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <f>ROW(A79)</f>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -3593,7 +3615,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <f>ROW(A80)</f>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
@@ -3603,7 +3625,7 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <f>ROW(A81)</f>
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -3613,7 +3635,7 @@
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <f>ROW(A82)</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -3623,7 +3645,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <f>ROW(A83)</f>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -3638,7 +3660,7 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <f>ROW(A84)</f>
+        <f t="shared" si="2"/>
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -3648,7 +3670,7 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <f>ROW(A85)</f>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -3658,7 +3680,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <f>ROW(A86)</f>
+        <f t="shared" si="2"/>
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -3668,7 +3690,7 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <f>ROW(A87)</f>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -3683,7 +3705,7 @@
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <f>ROW(A88)</f>
+        <f t="shared" ref="A89:A120" si="3">ROW(A88)</f>
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -3693,7 +3715,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <f>ROW(A89)</f>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -3703,7 +3725,7 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <f>ROW(A90)</f>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -3713,7 +3735,7 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <f>ROW(A91)</f>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -3723,7 +3745,7 @@
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <f>ROW(A92)</f>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -3733,7 +3755,7 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <f>ROW(A93)</f>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -3743,7 +3765,7 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <f>ROW(A94)</f>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -3753,7 +3775,7 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <f>ROW(A95)</f>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -3763,7 +3785,7 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <f>ROW(A96)</f>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -3772,7 +3794,7 @@
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <f>ROW(A97)</f>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -3782,7 +3804,7 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <f>ROW(A98)</f>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -3792,7 +3814,7 @@
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <f>ROW(A99)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -3802,7 +3824,7 @@
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <f>ROW(A100)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -3812,7 +3834,7 @@
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <f>ROW(A101)</f>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
@@ -3822,7 +3844,7 @@
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <f>ROW(A102)</f>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -3832,7 +3854,7 @@
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <f>ROW(A103)</f>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
@@ -3842,7 +3864,7 @@
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <f>ROW(A104)</f>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
@@ -3852,7 +3874,7 @@
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <f>ROW(A105)</f>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
@@ -3862,7 +3884,7 @@
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <f>ROW(A106)</f>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -3872,7 +3894,7 @@
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <f>ROW(A107)</f>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
@@ -3882,7 +3904,7 @@
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <f>ROW(A108)</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
@@ -3892,7 +3914,7 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <f>ROW(A109)</f>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3907,7 +3929,7 @@
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <f>ROW(A110)</f>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -3917,7 +3939,7 @@
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <f>ROW(A111)</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -3927,7 +3949,7 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <f>ROW(A112)</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -3937,7 +3959,7 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <f>ROW(A113)</f>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -3947,7 +3969,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <f>ROW(A114)</f>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -3957,7 +3979,7 @@
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <f>ROW(A115)</f>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -3967,7 +3989,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <f>ROW(A116)</f>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -3977,7 +3999,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <f>ROW(A117)</f>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -3987,7 +4009,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <f>ROW(A118)</f>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -3997,7 +4019,7 @@
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <f>ROW(A119)</f>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -4007,7 +4029,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <f>ROW(A120)</f>
+        <f t="shared" ref="A121:A152" si="4">ROW(A120)</f>
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -4017,7 +4039,7 @@
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <f>ROW(A121)</f>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
@@ -4027,7 +4049,7 @@
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <f>ROW(A122)</f>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -4037,7 +4059,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <f>ROW(A123)</f>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
@@ -4047,7 +4069,7 @@
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <f>ROW(A124)</f>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -4057,7 +4079,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <f>ROW(A125)</f>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
@@ -4067,7 +4089,7 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <f>ROW(A126)</f>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -4082,7 +4104,7 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <f>ROW(A127)</f>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -4097,7 +4119,7 @@
     </row>
     <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <f>ROW(A128)</f>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -4107,7 +4129,7 @@
     </row>
     <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <f>ROW(A129)</f>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -4119,7 +4141,7 @@
     </row>
     <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <f>ROW(A130)</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -4129,7 +4151,7 @@
     </row>
     <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <f>ROW(A131)</f>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
@@ -4139,7 +4161,7 @@
     </row>
     <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <f>ROW(A132)</f>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
@@ -4149,7 +4171,7 @@
     </row>
     <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <f>ROW(A133)</f>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -4159,7 +4181,7 @@
     </row>
     <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <f>ROW(A134)</f>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -4169,7 +4191,7 @@
     </row>
     <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <f>ROW(A135)</f>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -4179,7 +4201,7 @@
     </row>
     <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <f>ROW(A136)</f>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -4189,7 +4211,7 @@
     </row>
     <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <f>ROW(A137)</f>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -4199,7 +4221,7 @@
     </row>
     <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <f>ROW(A138)</f>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -4209,7 +4231,7 @@
     </row>
     <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <f>ROW(A139)</f>
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -4219,7 +4241,7 @@
     </row>
     <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <f>ROW(A140)</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -4229,7 +4251,7 @@
     </row>
     <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <f>ROW(A141)</f>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -4239,7 +4261,7 @@
     </row>
     <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <f>ROW(A142)</f>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -4249,7 +4271,7 @@
     </row>
     <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <f>ROW(A143)</f>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -4259,7 +4281,7 @@
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <f>ROW(A144)</f>
+        <f t="shared" si="4"/>
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -4269,7 +4291,7 @@
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <f>ROW(A145)</f>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -4279,7 +4301,7 @@
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <f>ROW(A146)</f>
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
@@ -4289,7 +4311,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <f>ROW(A147)</f>
+        <f t="shared" si="4"/>
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
@@ -4299,7 +4321,7 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <f>ROW(A148)</f>
+        <f t="shared" si="4"/>
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
@@ -4309,7 +4331,7 @@
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <f>ROW(A149)</f>
+        <f t="shared" si="4"/>
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
@@ -4319,7 +4341,7 @@
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <f>ROW(A150)</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -4329,7 +4351,7 @@
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <f>ROW(A151)</f>
+        <f t="shared" si="4"/>
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -4339,7 +4361,7 @@
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <f>ROW(A152)</f>
+        <f t="shared" ref="A153:A184" si="5">ROW(A152)</f>
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -4349,7 +4371,7 @@
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <f>ROW(A153)</f>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -4359,7 +4381,7 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <f>ROW(A154)</f>
+        <f t="shared" si="5"/>
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -4369,7 +4391,7 @@
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <f>ROW(A155)</f>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -4384,7 +4406,7 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <f>ROW(A156)</f>
+        <f t="shared" si="5"/>
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -4394,7 +4416,7 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <f>ROW(A157)</f>
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="B158" t="s">
@@ -4409,7 +4431,7 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <f>ROW(A158)</f>
+        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -4419,7 +4441,7 @@
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <f>ROW(A159)</f>
+        <f t="shared" si="5"/>
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -4431,7 +4453,7 @@
     </row>
     <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <f>ROW(A160)</f>
+        <f t="shared" si="5"/>
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -4443,7 +4465,7 @@
     </row>
     <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <f>ROW(A161)</f>
+        <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -4455,7 +4477,7 @@
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <f>ROW(A162)</f>
+        <f t="shared" si="5"/>
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -4465,7 +4487,7 @@
     </row>
     <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <f>ROW(A163)</f>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -4475,7 +4497,7 @@
     </row>
     <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <f>ROW(A164)</f>
+        <f t="shared" si="5"/>
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -4485,7 +4507,7 @@
     </row>
     <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <f>ROW(A165)</f>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -4495,7 +4517,7 @@
     </row>
     <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <f>ROW(A166)</f>
+        <f t="shared" si="5"/>
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
@@ -4505,7 +4527,7 @@
     </row>
     <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <f>ROW(A167)</f>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
@@ -4515,7 +4537,7 @@
     </row>
     <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <f>ROW(A168)</f>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
@@ -4525,7 +4547,7 @@
     </row>
     <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <f>ROW(A169)</f>
+        <f t="shared" si="5"/>
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -4537,7 +4559,7 @@
     </row>
     <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <f>ROW(A170)</f>
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -4549,7 +4571,7 @@
     </row>
     <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <f>ROW(A171)</f>
+        <f t="shared" si="5"/>
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
@@ -4559,7 +4581,7 @@
     </row>
     <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <f>ROW(A172)</f>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -4569,7 +4591,7 @@
     </row>
     <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <f>ROW(A173)</f>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
@@ -4579,7 +4601,7 @@
     </row>
     <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <f>ROW(A174)</f>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
@@ -4589,7 +4611,7 @@
     </row>
     <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <f>ROW(A175)</f>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
@@ -4599,7 +4621,7 @@
     </row>
     <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <f>ROW(A176)</f>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
@@ -4609,7 +4631,7 @@
     </row>
     <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <f>ROW(A177)</f>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -4619,7 +4641,7 @@
     </row>
     <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <f>ROW(A178)</f>
+        <f t="shared" si="5"/>
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -4629,7 +4651,7 @@
     </row>
     <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <f>ROW(A179)</f>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -4639,7 +4661,7 @@
     </row>
     <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <f>ROW(A180)</f>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -4649,7 +4671,7 @@
     </row>
     <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <f>ROW(A181)</f>
+        <f t="shared" si="5"/>
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -4659,7 +4681,7 @@
     </row>
     <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <f>ROW(A182)</f>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -4669,7 +4691,7 @@
     </row>
     <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <f>ROW(A183)</f>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -4679,7 +4701,7 @@
     </row>
     <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <f>ROW(A184)</f>
+        <f t="shared" ref="A185:A216" si="6">ROW(A184)</f>
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -4689,7 +4711,7 @@
     </row>
     <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <f>ROW(A185)</f>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -4701,7 +4723,7 @@
     </row>
     <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <f>ROW(A186)</f>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -4711,7 +4733,7 @@
     </row>
     <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <f>ROW(A187)</f>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -4721,7 +4743,7 @@
     </row>
     <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <f>ROW(A188)</f>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
@@ -4731,7 +4753,7 @@
     </row>
     <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <f>ROW(A189)</f>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -4741,7 +4763,7 @@
     </row>
     <row r="191" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <f>ROW(A190)</f>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
@@ -4751,7 +4773,7 @@
     </row>
     <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <f>ROW(A191)</f>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -4761,7 +4783,7 @@
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <f>ROW(A192)</f>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
@@ -4776,7 +4798,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <f>ROW(A193)</f>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -4786,7 +4808,7 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <f>ROW(A194)</f>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -4796,7 +4818,7 @@
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <f>ROW(A195)</f>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
@@ -4808,7 +4830,7 @@
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <f>ROW(A196)</f>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
@@ -4820,7 +4842,7 @@
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <f>ROW(A197)</f>
+        <f t="shared" si="6"/>
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
@@ -4832,7 +4854,7 @@
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <f>ROW(A198)</f>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
@@ -4844,7 +4866,7 @@
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <f>ROW(A199)</f>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
@@ -4854,7 +4876,7 @@
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <f>ROW(A200)</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -4864,7 +4886,7 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <f>ROW(A201)</f>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
@@ -4874,7 +4896,7 @@
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <f>ROW(A202)</f>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -4884,7 +4906,7 @@
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <f>ROW(A203)</f>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -4896,7 +4918,7 @@
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <f>ROW(A204)</f>
+        <f t="shared" si="6"/>
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -4906,7 +4928,7 @@
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <f>ROW(A205)</f>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
@@ -4916,7 +4938,7 @@
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <f>ROW(A206)</f>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
@@ -4926,7 +4948,7 @@
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <f>ROW(A207)</f>
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -4936,7 +4958,7 @@
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <f>ROW(A208)</f>
+        <f t="shared" si="6"/>
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
@@ -4946,7 +4968,7 @@
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <f>ROW(A209)</f>
+        <f t="shared" si="6"/>
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
@@ -4956,7 +4978,7 @@
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <f>ROW(A210)</f>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -4966,7 +4988,7 @@
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <f>ROW(A211)</f>
+        <f t="shared" si="6"/>
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
@@ -4981,7 +5003,7 @@
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <f>ROW(A212)</f>
+        <f t="shared" si="6"/>
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -4996,7 +5018,7 @@
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <f>ROW(A213)</f>
+        <f t="shared" si="6"/>
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -5008,7 +5030,7 @@
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <f>ROW(A214)</f>
+        <f t="shared" si="6"/>
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -5021,7 +5043,7 @@
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <f>ROW(A215)</f>
+        <f t="shared" si="6"/>
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
@@ -5034,7 +5056,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <f>ROW(A216)</f>
+        <f t="shared" ref="A217:A237" si="7">ROW(A216)</f>
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -5046,7 +5068,7 @@
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <f>ROW(A217)</f>
+        <f t="shared" si="7"/>
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
@@ -5058,7 +5080,7 @@
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <f>ROW(A218)</f>
+        <f t="shared" si="7"/>
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
@@ -5068,7 +5090,7 @@
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <f>ROW(A219)</f>
+        <f t="shared" si="7"/>
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
@@ -5078,7 +5100,7 @@
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <f>ROW(A220)</f>
+        <f t="shared" si="7"/>
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
@@ -5088,7 +5110,7 @@
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <f>ROW(A221)</f>
+        <f t="shared" si="7"/>
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
@@ -5098,7 +5120,7 @@
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <f>ROW(A222)</f>
+        <f t="shared" si="7"/>
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
@@ -5108,7 +5130,7 @@
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <f>ROW(A223)</f>
+        <f t="shared" si="7"/>
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
@@ -5120,7 +5142,7 @@
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <f>ROW(A224)</f>
+        <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -5132,7 +5154,7 @@
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <f>ROW(A225)</f>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
@@ -5142,7 +5164,7 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <f>ROW(A226)</f>
+        <f t="shared" si="7"/>
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -5152,7 +5174,7 @@
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <f>ROW(A227)</f>
+        <f t="shared" si="7"/>
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
@@ -5167,7 +5189,7 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <f>ROW(A228)</f>
+        <f t="shared" si="7"/>
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
@@ -5182,7 +5204,7 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <f>ROW(A229)</f>
+        <f t="shared" si="7"/>
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
@@ -5192,7 +5214,7 @@
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <f>ROW(A230)</f>
+        <f t="shared" si="7"/>
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
@@ -5202,7 +5224,7 @@
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <f>ROW(A231)</f>
+        <f t="shared" si="7"/>
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -5212,7 +5234,7 @@
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <f>ROW(A232)</f>
+        <f t="shared" si="7"/>
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -5222,7 +5244,7 @@
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <f>ROW(A233)</f>
+        <f t="shared" si="7"/>
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -5232,7 +5254,7 @@
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <f>ROW(A234)</f>
+        <f t="shared" si="7"/>
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
@@ -5242,7 +5264,7 @@
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <f>ROW(A235)</f>
+        <f t="shared" si="7"/>
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
@@ -5252,7 +5274,7 @@
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <f>ROW(A236)</f>
+        <f t="shared" si="7"/>
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -5277,7 +5299,7 @@
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <f>ROW(A238)</f>
+        <f t="shared" ref="A239:A257" si="8">ROW(A238)</f>
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
@@ -5287,7 +5309,7 @@
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <f>ROW(A239)</f>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
@@ -5299,7 +5321,7 @@
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <f>ROW(A240)</f>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
@@ -5309,7 +5331,7 @@
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <f>ROW(A241)</f>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -5321,7 +5343,7 @@
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <f>ROW(A242)</f>
+        <f t="shared" si="8"/>
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
@@ -5333,7 +5355,7 @@
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <f>ROW(A243)</f>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
@@ -5345,7 +5367,7 @@
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <f>ROW(A244)</f>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -5355,7 +5377,7 @@
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <f>ROW(A245)</f>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
@@ -5365,7 +5387,7 @@
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <f>ROW(A246)</f>
+        <f t="shared" si="8"/>
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -5375,7 +5397,7 @@
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <f>ROW(A247)</f>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
@@ -5390,7 +5412,7 @@
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <f>ROW(A248)</f>
+        <f t="shared" si="8"/>
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
@@ -5405,7 +5427,7 @@
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <f>ROW(A249)</f>
+        <f t="shared" si="8"/>
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -5415,7 +5437,7 @@
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
-        <f>ROW(A250)</f>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
@@ -5425,7 +5447,7 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
-        <f>ROW(A251)</f>
+        <f t="shared" si="8"/>
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
@@ -5435,7 +5457,7 @@
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
-        <f>ROW(A252)</f>
+        <f t="shared" si="8"/>
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
@@ -5445,7 +5467,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
-        <f>ROW(A253)</f>
+        <f t="shared" si="8"/>
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
@@ -5455,7 +5477,7 @@
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
-        <f>ROW(A254)</f>
+        <f t="shared" si="8"/>
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
@@ -5465,7 +5487,7 @@
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
-        <f>ROW(A255)</f>
+        <f t="shared" si="8"/>
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -5475,7 +5497,7 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
-        <f>ROW(A256)</f>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
@@ -5500,7 +5522,7 @@
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
-        <f>ROW(A258)</f>
+        <f t="shared" ref="A259:A290" si="9">ROW(A258)</f>
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
@@ -5510,7 +5532,7 @@
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
-        <f>ROW(A259)</f>
+        <f t="shared" si="9"/>
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
@@ -5520,7 +5542,7 @@
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
-        <f>ROW(A260)</f>
+        <f t="shared" si="9"/>
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
@@ -5532,7 +5554,7 @@
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
-        <f>ROW(A261)</f>
+        <f t="shared" si="9"/>
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
@@ -5542,7 +5564,7 @@
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
-        <f>ROW(A262)</f>
+        <f t="shared" si="9"/>
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -5552,7 +5574,7 @@
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
-        <f>ROW(A263)</f>
+        <f t="shared" si="9"/>
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
@@ -5562,7 +5584,7 @@
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
-        <f>ROW(A264)</f>
+        <f t="shared" si="9"/>
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
@@ -5572,7 +5594,7 @@
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
-        <f>ROW(A265)</f>
+        <f t="shared" si="9"/>
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -5582,7 +5604,7 @@
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
-        <f>ROW(A266)</f>
+        <f t="shared" si="9"/>
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
@@ -5592,7 +5614,7 @@
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
-        <f>ROW(A267)</f>
+        <f t="shared" si="9"/>
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
@@ -5602,7 +5624,7 @@
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
-        <f>ROW(A268)</f>
+        <f t="shared" si="9"/>
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
@@ -5612,7 +5634,7 @@
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
-        <f>ROW(A269)</f>
+        <f t="shared" si="9"/>
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
@@ -5624,7 +5646,7 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
-        <f>ROW(A270)</f>
+        <f t="shared" si="9"/>
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
@@ -5636,7 +5658,7 @@
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
-        <f>ROW(A271)</f>
+        <f t="shared" si="9"/>
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
@@ -5646,7 +5668,7 @@
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
-        <f>ROW(A272)</f>
+        <f t="shared" si="9"/>
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -5656,7 +5678,7 @@
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
-        <f>ROW(A273)</f>
+        <f t="shared" si="9"/>
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -5668,7 +5690,7 @@
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
-        <f>ROW(A274)</f>
+        <f t="shared" si="9"/>
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -5680,7 +5702,7 @@
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
-        <f>ROW(A275)</f>
+        <f t="shared" si="9"/>
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -5690,7 +5712,7 @@
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
-        <f>ROW(A276)</f>
+        <f t="shared" si="9"/>
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -5700,7 +5722,7 @@
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
-        <f>ROW(A277)</f>
+        <f t="shared" si="9"/>
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -5710,7 +5732,7 @@
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
-        <f>ROW(A278)</f>
+        <f t="shared" si="9"/>
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -5720,7 +5742,7 @@
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
-        <f>ROW(A279)</f>
+        <f t="shared" si="9"/>
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -5732,7 +5754,7 @@
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
-        <f>ROW(A280)</f>
+        <f t="shared" si="9"/>
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
@@ -5742,7 +5764,7 @@
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
-        <f>ROW(A281)</f>
+        <f t="shared" si="9"/>
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
@@ -5757,7 +5779,7 @@
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
-        <f>ROW(A282)</f>
+        <f t="shared" si="9"/>
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -5772,7 +5794,7 @@
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
-        <f>ROW(A283)</f>
+        <f t="shared" si="9"/>
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -5787,7 +5809,7 @@
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
-        <f>ROW(A284)</f>
+        <f t="shared" si="9"/>
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
@@ -5799,7 +5821,7 @@
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
-        <f>ROW(A285)</f>
+        <f t="shared" si="9"/>
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
@@ -5811,7 +5833,7 @@
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
-        <f>ROW(A286)</f>
+        <f t="shared" si="9"/>
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -5821,7 +5843,7 @@
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
-        <f>ROW(A287)</f>
+        <f t="shared" si="9"/>
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
@@ -5836,7 +5858,7 @@
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
-        <f>ROW(A288)</f>
+        <f t="shared" si="9"/>
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -5851,7 +5873,7 @@
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
-        <f>ROW(A289)</f>
+        <f t="shared" si="9"/>
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
@@ -5861,7 +5883,7 @@
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
-        <f>ROW(A290)</f>
+        <f t="shared" ref="A291:A322" si="10">ROW(A290)</f>
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
@@ -5871,7 +5893,7 @@
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
-        <f>ROW(A291)</f>
+        <f t="shared" si="10"/>
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -5883,7 +5905,7 @@
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
-        <f>ROW(A292)</f>
+        <f t="shared" si="10"/>
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
@@ -5893,7 +5915,7 @@
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
-        <f>ROW(A293)</f>
+        <f t="shared" si="10"/>
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
@@ -5905,7 +5927,7 @@
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
-        <f>ROW(A294)</f>
+        <f t="shared" si="10"/>
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
@@ -5917,7 +5939,7 @@
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
-        <f>ROW(A295)</f>
+        <f t="shared" si="10"/>
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
@@ -5927,7 +5949,7 @@
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
-        <f>ROW(A296)</f>
+        <f t="shared" si="10"/>
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -5937,7 +5959,7 @@
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
-        <f>ROW(A297)</f>
+        <f t="shared" si="10"/>
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
@@ -5947,7 +5969,7 @@
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
-        <f>ROW(A298)</f>
+        <f t="shared" si="10"/>
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
@@ -5959,7 +5981,7 @@
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
-        <f>ROW(A299)</f>
+        <f t="shared" si="10"/>
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
@@ -5974,7 +5996,7 @@
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
-        <f>ROW(A300)</f>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -5989,7 +6011,7 @@
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
-        <f>ROW(A301)</f>
+        <f t="shared" si="10"/>
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
@@ -6004,7 +6026,7 @@
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
-        <f>ROW(A302)</f>
+        <f t="shared" si="10"/>
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
@@ -6017,7 +6039,7 @@
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
-        <f>ROW(A303)</f>
+        <f t="shared" si="10"/>
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -6027,7 +6049,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
-        <f>ROW(A304)</f>
+        <f t="shared" si="10"/>
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
@@ -6037,7 +6059,7 @@
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
-        <f>ROW(A305)</f>
+        <f t="shared" si="10"/>
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -6049,7 +6071,7 @@
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
-        <f>ROW(A306)</f>
+        <f t="shared" si="10"/>
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
@@ -6061,7 +6083,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
-        <f>ROW(A307)</f>
+        <f t="shared" si="10"/>
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
@@ -6073,7 +6095,7 @@
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
-        <f>ROW(A308)</f>
+        <f t="shared" si="10"/>
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -6083,7 +6105,7 @@
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
-        <f>ROW(A309)</f>
+        <f t="shared" si="10"/>
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
@@ -6095,7 +6117,7 @@
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
-        <f>ROW(A310)</f>
+        <f t="shared" si="10"/>
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
@@ -6105,7 +6127,7 @@
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
-        <f>ROW(A311)</f>
+        <f t="shared" si="10"/>
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
@@ -6114,7 +6136,7 @@
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
-        <f>ROW(A312)</f>
+        <f t="shared" si="10"/>
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
@@ -6126,7 +6148,7 @@
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
-        <f>ROW(A313)</f>
+        <f t="shared" si="10"/>
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
@@ -6138,7 +6160,7 @@
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
-        <f>ROW(A314)</f>
+        <f t="shared" si="10"/>
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
@@ -6150,7 +6172,7 @@
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
-        <f>ROW(A315)</f>
+        <f t="shared" si="10"/>
         <v>315</v>
       </c>
       <c r="B316" t="s">
@@ -6165,7 +6187,7 @@
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
-        <f>ROW(A316)</f>
+        <f t="shared" si="10"/>
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -6175,7 +6197,7 @@
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
-        <f>ROW(A317)</f>
+        <f t="shared" si="10"/>
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -6185,7 +6207,7 @@
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
-        <f>ROW(A318)</f>
+        <f t="shared" si="10"/>
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
@@ -6197,7 +6219,7 @@
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
-        <f>ROW(A319)</f>
+        <f t="shared" si="10"/>
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
@@ -6207,7 +6229,7 @@
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
-        <f>ROW(A320)</f>
+        <f t="shared" si="10"/>
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
@@ -6219,7 +6241,7 @@
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
-        <f>ROW(A321)</f>
+        <f t="shared" si="10"/>
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
@@ -6229,7 +6251,7 @@
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
-        <f>ROW(A322)</f>
+        <f t="shared" ref="A323:A347" si="11">ROW(A322)</f>
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -6241,7 +6263,7 @@
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
-        <f>ROW(A323)</f>
+        <f t="shared" si="11"/>
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
@@ -6253,7 +6275,7 @@
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
-        <f>ROW(A324)</f>
+        <f t="shared" si="11"/>
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
@@ -6263,7 +6285,7 @@
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
-        <f>ROW(A325)</f>
+        <f t="shared" si="11"/>
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
@@ -6273,7 +6295,7 @@
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
-        <f>ROW(A326)</f>
+        <f t="shared" si="11"/>
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
@@ -6283,7 +6305,7 @@
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
-        <f>ROW(A327)</f>
+        <f t="shared" si="11"/>
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -6293,7 +6315,7 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
-        <f>ROW(A328)</f>
+        <f t="shared" si="11"/>
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
@@ -6308,7 +6330,7 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
-        <f>ROW(A329)</f>
+        <f t="shared" si="11"/>
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
@@ -6323,7 +6345,7 @@
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
-        <f>ROW(A330)</f>
+        <f t="shared" si="11"/>
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -6333,7 +6355,7 @@
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
-        <f>ROW(A331)</f>
+        <f t="shared" si="11"/>
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
@@ -6343,7 +6365,7 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
-        <f>ROW(A332)</f>
+        <f t="shared" si="11"/>
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
@@ -6356,7 +6378,7 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
-        <f>ROW(A333)</f>
+        <f t="shared" si="11"/>
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
@@ -6368,7 +6390,7 @@
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
-        <f>ROW(A334)</f>
+        <f t="shared" si="11"/>
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
@@ -6378,7 +6400,7 @@
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
-        <f>ROW(A335)</f>
+        <f t="shared" si="11"/>
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
@@ -6388,7 +6410,7 @@
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
-        <f>ROW(A336)</f>
+        <f t="shared" si="11"/>
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
@@ -6398,7 +6420,7 @@
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
-        <f>ROW(A337)</f>
+        <f t="shared" si="11"/>
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
@@ -6408,7 +6430,7 @@
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
-        <f>ROW(A338)</f>
+        <f t="shared" si="11"/>
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -6420,7 +6442,7 @@
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
-        <f>ROW(A339)</f>
+        <f t="shared" si="11"/>
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
@@ -6430,7 +6452,7 @@
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
-        <f>ROW(A340)</f>
+        <f t="shared" si="11"/>
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -6440,7 +6462,7 @@
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
-        <f>ROW(A341)</f>
+        <f t="shared" si="11"/>
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -6450,7 +6472,7 @@
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
-        <f>ROW(A342)</f>
+        <f t="shared" si="11"/>
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
@@ -6460,7 +6482,7 @@
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
-        <f>ROW(A343)</f>
+        <f t="shared" si="11"/>
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
@@ -6470,7 +6492,7 @@
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
-        <f>ROW(A344)</f>
+        <f t="shared" si="11"/>
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -6480,7 +6502,7 @@
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
-        <f>ROW(A345)</f>
+        <f t="shared" si="11"/>
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
@@ -6490,7 +6512,7 @@
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
-        <f>ROW(A346)</f>
+        <f t="shared" si="11"/>
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
@@ -6517,7 +6539,7 @@
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
-        <f>ROW(A348)</f>
+        <f t="shared" ref="A349:A380" si="12">ROW(A348)</f>
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
@@ -6527,7 +6549,7 @@
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
-        <f>ROW(A349)</f>
+        <f t="shared" si="12"/>
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -6537,7 +6559,7 @@
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
-        <f>ROW(A350)</f>
+        <f t="shared" si="12"/>
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
@@ -6547,7 +6569,7 @@
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
-        <f>ROW(A351)</f>
+        <f t="shared" si="12"/>
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -6562,7 +6584,7 @@
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
-        <f>ROW(A352)</f>
+        <f t="shared" si="12"/>
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
@@ -6574,7 +6596,7 @@
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
-        <f>ROW(A353)</f>
+        <f t="shared" si="12"/>
         <v>353</v>
       </c>
       <c r="B354" t="s">
@@ -6589,7 +6611,7 @@
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
-        <f>ROW(A354)</f>
+        <f t="shared" si="12"/>
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
@@ -6599,7 +6621,7 @@
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
-        <f>ROW(A355)</f>
+        <f t="shared" si="12"/>
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
@@ -6609,7 +6631,7 @@
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
-        <f>ROW(A356)</f>
+        <f t="shared" si="12"/>
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
@@ -6621,7 +6643,7 @@
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
-        <f>ROW(A357)</f>
+        <f t="shared" si="12"/>
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
@@ -6631,7 +6653,7 @@
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
-        <f>ROW(A358)</f>
+        <f t="shared" si="12"/>
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
@@ -6641,7 +6663,7 @@
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
-        <f>ROW(A359)</f>
+        <f t="shared" si="12"/>
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
@@ -6651,7 +6673,7 @@
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
-        <f>ROW(A360)</f>
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
@@ -6661,7 +6683,7 @@
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
-        <f>ROW(A361)</f>
+        <f t="shared" si="12"/>
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
@@ -6671,7 +6693,7 @@
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
-        <f>ROW(A362)</f>
+        <f t="shared" si="12"/>
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
@@ -6681,7 +6703,7 @@
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
-        <f>ROW(A363)</f>
+        <f t="shared" si="12"/>
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -6691,7 +6713,7 @@
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
-        <f>ROW(A364)</f>
+        <f t="shared" si="12"/>
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
@@ -6701,7 +6723,7 @@
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
-        <f>ROW(A365)</f>
+        <f t="shared" si="12"/>
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -6711,7 +6733,7 @@
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
-        <f>ROW(A366)</f>
+        <f t="shared" si="12"/>
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
@@ -6721,7 +6743,7 @@
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
-        <f>ROW(A367)</f>
+        <f t="shared" si="12"/>
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
@@ -6736,7 +6758,7 @@
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
-        <f>ROW(A368)</f>
+        <f t="shared" si="12"/>
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
@@ -6746,7 +6768,7 @@
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
-        <f>ROW(A369)</f>
+        <f t="shared" si="12"/>
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
@@ -6761,7 +6783,7 @@
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
-        <f>ROW(A370)</f>
+        <f t="shared" si="12"/>
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
@@ -6771,7 +6793,7 @@
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
-        <f>ROW(A371)</f>
+        <f t="shared" si="12"/>
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
@@ -6786,7 +6808,7 @@
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
-        <f>ROW(A372)</f>
+        <f t="shared" si="12"/>
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
@@ -6796,7 +6818,7 @@
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
-        <f>ROW(A373)</f>
+        <f t="shared" si="12"/>
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -6806,7 +6828,7 @@
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
-        <f>ROW(A374)</f>
+        <f t="shared" si="12"/>
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
@@ -6821,7 +6843,7 @@
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
-        <f>ROW(A375)</f>
+        <f t="shared" si="12"/>
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
@@ -6833,7 +6855,7 @@
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
-        <f>ROW(A376)</f>
+        <f t="shared" si="12"/>
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
@@ -6846,7 +6868,7 @@
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
-        <f>ROW(A377)</f>
+        <f t="shared" si="12"/>
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
@@ -6858,7 +6880,7 @@
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
-        <f>ROW(A378)</f>
+        <f t="shared" si="12"/>
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -6868,7 +6890,7 @@
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
-        <f>ROW(A379)</f>
+        <f t="shared" si="12"/>
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
@@ -6883,7 +6905,7 @@
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
-        <f>ROW(A380)</f>
+        <f t="shared" ref="A381:A413" si="13">ROW(A380)</f>
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
@@ -6898,7 +6920,7 @@
     </row>
     <row r="382" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
-        <f>ROW(A381)</f>
+        <f t="shared" si="13"/>
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
@@ -6910,7 +6932,7 @@
     </row>
     <row r="383" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
-        <f>ROW(A382)</f>
+        <f t="shared" si="13"/>
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
@@ -6923,7 +6945,7 @@
     </row>
     <row r="384" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
-        <f>ROW(A383)</f>
+        <f t="shared" si="13"/>
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -6936,7 +6958,7 @@
     </row>
     <row r="385" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
-        <f>ROW(A384)</f>
+        <f t="shared" si="13"/>
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -6946,7 +6968,7 @@
     </row>
     <row r="386" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
-        <f>ROW(A385)</f>
+        <f t="shared" si="13"/>
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -6958,7 +6980,7 @@
     </row>
     <row r="387" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
-        <f>ROW(A386)</f>
+        <f t="shared" si="13"/>
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -6968,7 +6990,7 @@
     </row>
     <row r="388" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
-        <f>ROW(A387)</f>
+        <f t="shared" si="13"/>
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
@@ -6978,7 +7000,7 @@
     </row>
     <row r="389" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
-        <f>ROW(A388)</f>
+        <f t="shared" si="13"/>
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
@@ -6991,7 +7013,7 @@
     </row>
     <row r="390" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
-        <f>ROW(A389)</f>
+        <f t="shared" si="13"/>
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
@@ -7012,7 +7034,7 @@
     </row>
     <row r="391" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
-        <f>ROW(A390)</f>
+        <f t="shared" si="13"/>
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
@@ -7033,7 +7055,7 @@
     </row>
     <row r="392" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
-        <f>ROW(A391)</f>
+        <f t="shared" si="13"/>
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
@@ -7054,7 +7076,7 @@
     </row>
     <row r="393" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
-        <f>ROW(A392)</f>
+        <f t="shared" si="13"/>
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
@@ -7073,7 +7095,7 @@
     </row>
     <row r="394" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
-        <f>ROW(A393)</f>
+        <f t="shared" si="13"/>
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
@@ -7086,7 +7108,7 @@
     </row>
     <row r="395" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
-        <f>ROW(A394)</f>
+        <f t="shared" si="13"/>
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -7099,7 +7121,7 @@
     </row>
     <row r="396" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
-        <f>ROW(A395)</f>
+        <f t="shared" si="13"/>
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
@@ -7111,7 +7133,7 @@
     </row>
     <row r="397" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
-        <f>ROW(A396)</f>
+        <f t="shared" si="13"/>
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -7121,7 +7143,7 @@
     </row>
     <row r="398" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
-        <f>ROW(A397)</f>
+        <f t="shared" si="13"/>
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
@@ -7133,7 +7155,7 @@
     </row>
     <row r="399" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
-        <f>ROW(A398)</f>
+        <f t="shared" si="13"/>
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
@@ -7145,7 +7167,7 @@
     </row>
     <row r="400" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
-        <f>ROW(A399)</f>
+        <f t="shared" si="13"/>
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
@@ -7158,7 +7180,7 @@
     </row>
     <row r="401" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
-        <f>ROW(A400)</f>
+        <f t="shared" si="13"/>
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
@@ -7173,7 +7195,7 @@
     </row>
     <row r="402" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
-        <f>ROW(A401)</f>
+        <f t="shared" si="13"/>
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
@@ -7188,7 +7210,7 @@
     </row>
     <row r="403" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
-        <f>ROW(A402)</f>
+        <f t="shared" si="13"/>
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
@@ -7198,7 +7220,7 @@
     </row>
     <row r="404" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
-        <f>ROW(A403)</f>
+        <f t="shared" si="13"/>
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
@@ -7211,7 +7233,7 @@
     </row>
     <row r="405" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
-        <f>ROW(A404)</f>
+        <f t="shared" si="13"/>
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
@@ -7224,7 +7246,7 @@
     </row>
     <row r="406" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
-        <f>ROW(A405)</f>
+        <f t="shared" si="13"/>
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
@@ -7234,7 +7256,7 @@
     </row>
     <row r="407" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
-        <f>ROW(A406)</f>
+        <f t="shared" si="13"/>
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
@@ -7244,7 +7266,7 @@
     </row>
     <row r="408" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
-        <f>ROW(A407)</f>
+        <f t="shared" si="13"/>
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
@@ -7254,7 +7276,7 @@
     </row>
     <row r="409" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
-        <f>ROW(A408)</f>
+        <f t="shared" si="13"/>
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
@@ -7264,7 +7286,7 @@
     </row>
     <row r="410" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
-        <f>ROW(A409)</f>
+        <f t="shared" si="13"/>
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
@@ -7274,7 +7296,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
-        <f>ROW(A410)</f>
+        <f t="shared" si="13"/>
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
@@ -7286,7 +7308,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
-        <f>ROW(A411)</f>
+        <f t="shared" si="13"/>
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
@@ -7301,7 +7323,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
-        <f>ROW(A412)</f>
+        <f t="shared" si="13"/>
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
